--- a/DatenfürDoku.xlsx
+++ b/DatenfürDoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\SS2024\Energiesysteme\Power\Netzsimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6654384-0CE0-4075-B559-A09F97940FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF7438-9BD1-421F-8421-4F5D0E47382A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
   <si>
     <t>T1</t>
   </si>
@@ -162,7 +162,25 @@
     <t>T7Pact Load 7</t>
   </si>
   <si>
-    <t>T7T7Pact Load 8Pact</t>
+    <t>T8Pact Load 7</t>
+  </si>
+  <si>
+    <t>T8Pact Load 8</t>
+  </si>
+  <si>
+    <t>T7Prea Load 7</t>
+  </si>
+  <si>
+    <t>T8Prea Load 7</t>
+  </si>
+  <si>
+    <t>T8Prea Load 8</t>
+  </si>
+  <si>
+    <t>T7Pact Load 8</t>
+  </si>
+  <si>
+    <t>T7Prea Load 8</t>
   </si>
 </sst>
 </file>
@@ -235,18 +253,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -654,7 +664,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-AT"/>
-              <a:t>Active power Bus 7</a:t>
+              <a:t>Active power Bus 8</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -703,7 +713,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T8Pact</c:v>
+                  <c:v>T8Pact Load 7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -796,7 +806,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T8Pact</c:v>
+                  <c:v>T8Pact Load 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -979,6 +989,1131 @@
         <c:axId val="1499477583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.3199999999999998"/>
+          <c:min val="2.2999999999999998"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Active</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> Power [MW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1499475663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Reactive power Bus 7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$U$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T7Prea Load 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$65:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$U$65:$U$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37773406505584711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38052290678024292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38331174850463862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38610076904296881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38888961076736461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-355F-4621-8325-1A41FA7866D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$U$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T7Prea Load 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$U$72:$U$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3749452531337738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37494525313377369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3749452531337738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37494525313377391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37494525313377358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-355F-4621-8325-1A41FA7866D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1499475663"/>
+        <c:axId val="1499477583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1499475663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Number of interrations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1499477583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1499477583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.37400000000000005"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Active</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> Power [MW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1499475663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Active power Bus 8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10602248972107731"/>
+          <c:y val="0.1355978310933427"/>
+          <c:w val="0.86870592492395182"/>
+          <c:h val="0.61843806709839066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$V$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T8Prea Load 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$B$65:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$V$65:$V$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99796377128292235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0007834867479291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.003603389017792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.006423658266568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.009243934902508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F472-4DE8-A471-559894A10A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$V$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T8Prea Load 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$V$72:$V$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.99627511992087148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99740604178790482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99853700868861961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99966794601174058</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.000798779085837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F472-4DE8-A471-559894A10A4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1499475663"/>
+        <c:axId val="1499477583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1499475663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Number of interrations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1499477583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1499477583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.01"/>
+          <c:min val="0.995"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3836,7 +4971,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>T7T7Pact Load 8Pact</c:v>
+                  <c:v>T7Pact Load 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4019,6 +5154,7 @@
         <c:axId val="1499477583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.60400000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4255,6 +5391,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5131,6 +6347,1012 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10126,6 +12348,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>695594</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>111183</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C61CE9-A761-4FAE-A787-FA2D38AF9867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>528626</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>111183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1949</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>156007</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446A107C-62A3-4378-90C0-2A11CE13C43B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10392,37 +12690,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AD77"/>
+  <dimension ref="B2:AD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O81" sqref="O81"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="10.7109375" style="1"/>
-    <col min="9" max="9" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="1"/>
+    <col min="9" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="10.7109375" style="1"/>
+    <col min="21" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -10439,7 +12738,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1">
@@ -10456,7 +12755,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1">
@@ -10473,7 +12772,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1">
@@ -10490,7 +12789,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1">
@@ -10507,7 +12806,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1">
@@ -10524,7 +12823,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1">
@@ -10541,7 +12840,7 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1">
@@ -10558,7 +12857,7 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1">
@@ -10575,7 +12874,7 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="1">
@@ -10592,7 +12891,7 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1">
@@ -10609,7 +12908,7 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1">
@@ -10626,7 +12925,7 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1">
@@ -10643,74 +12942,74 @@
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="W20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="X20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y20" s="2" t="s">
+      <c r="Y20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z20" s="2" t="s">
+      <c r="Z20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10786,7 +13085,7 @@
       </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>2</v>
       </c>
       <c r="D22" s="1">
@@ -10857,7 +13156,7 @@
       </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="1">
@@ -10928,7 +13227,7 @@
       </c>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" s="1">
@@ -10999,7 +13298,7 @@
       </c>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>5</v>
       </c>
       <c r="D25" s="1">
@@ -11070,7 +13369,7 @@
       </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>6</v>
       </c>
       <c r="D26" s="1">
@@ -11141,7 +13440,7 @@
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>7</v>
       </c>
       <c r="D27" s="1">
@@ -11212,7 +13511,7 @@
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>8</v>
       </c>
       <c r="D28" s="1">
@@ -11283,7 +13582,7 @@
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>9</v>
       </c>
       <c r="D29" s="1">
@@ -11354,7 +13653,7 @@
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>10</v>
       </c>
       <c r="D30" s="1">
@@ -11425,74 +13724,74 @@
       </c>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2" t="s">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="Q32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="2" t="s">
+      <c r="U32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V32" s="2" t="s">
+      <c r="V32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W32" s="2" t="s">
+      <c r="W32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X32" s="2" t="s">
+      <c r="X32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Y32" s="2" t="s">
+      <c r="Y32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z32" s="2" t="s">
+      <c r="Z32" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11568,7 +13867,7 @@
       </c>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>2</v>
       </c>
       <c r="D34" s="1">
@@ -11639,7 +13938,7 @@
       </c>
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>3</v>
       </c>
       <c r="D35" s="1">
@@ -11710,7 +14009,7 @@
       </c>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>4</v>
       </c>
       <c r="D36" s="1">
@@ -11781,7 +14080,7 @@
       </c>
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>5</v>
       </c>
       <c r="D37" s="1">
@@ -11852,7 +14151,7 @@
       </c>
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>6</v>
       </c>
       <c r="D38" s="1">
@@ -11923,7 +14222,7 @@
       </c>
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>7</v>
       </c>
       <c r="D39" s="1">
@@ -11994,7 +14293,7 @@
       </c>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>8</v>
       </c>
       <c r="D40" s="1">
@@ -12065,7 +14364,7 @@
       </c>
     </row>
     <row r="41" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>9</v>
       </c>
       <c r="D41" s="1">
@@ -12136,7 +14435,7 @@
       </c>
     </row>
     <row r="42" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>10</v>
       </c>
       <c r="D42" s="1">
@@ -12229,16 +14528,16 @@
       <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>0.51391102549663903</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>147.64820798384699</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>1.2000000578292109</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>0.35000044107437128</v>
       </c>
     </row>
@@ -12246,16 +14545,16 @@
       <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>0.5128700038795484</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>147.9511913603225</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>1.20591984665145</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>0.30873350692214557</v>
       </c>
     </row>
@@ -12263,16 +14562,16 @@
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>0.51064739821465277</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>148.44025255048149</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>4.6453220458067044</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>1.896697893902983</v>
       </c>
     </row>
@@ -12280,16 +14579,16 @@
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>0.51045600928284807</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>148.42104880668941</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>1.762031815941028</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>0.40622225236863818</v>
       </c>
     </row>
@@ -12297,16 +14596,16 @@
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>0.51076838165884164</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>148.35403118710619</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>1.31568503696413</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>0.30286530933753048</v>
       </c>
     </row>
@@ -12314,16 +14613,16 @@
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>0.51113547165012807</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>148.27465072604909</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>0.56499999761581421</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
         <v>0.14160239696502691</v>
       </c>
     </row>
@@ -12331,16 +14630,16 @@
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>0.51030262341785249</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>148.14900558929051</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>0.60500001907348633</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>0.3749452531337738</v>
       </c>
     </row>
@@ -12348,16 +14647,16 @@
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>0.51065369078000633</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>148.21350356511411</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>2.2968263434212979</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>0.99521800757223655</v>
       </c>
     </row>
@@ -12365,16 +14664,16 @@
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>0.51062314094746453</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>148.1897966808657</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>1.015178367423216</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <v>0.48419666703518333</v>
       </c>
     </row>
@@ -12382,16 +14681,16 @@
       <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>0.51073985181794668</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>148.16544167199871</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>0.34005398209900611</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>7.9412559089752144E-2</v>
       </c>
     </row>
@@ -12399,95 +14698,88 @@
       <c r="C59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>0.51078316590324602</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>148.15524442620759</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>8.5211984813213321E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-    </row>
-    <row r="64" spans="2:25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2" t="s">
+      <c r="N64" s="3"/>
+      <c r="O64" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="P64" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="Q64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R64" s="2" t="s">
+      <c r="R64" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S64" s="2" t="s">
+      <c r="S64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="T64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U64" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W64" s="2" t="s">
+      <c r="U64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W64" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X64" s="2" t="s">
+      <c r="X64" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Y64" s="2" t="s">
+      <c r="Y64" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -12495,913 +14787,903 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>1.200000057841585</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>1.205912539857678</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>4.2839197899765527</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>1.7620281630865791</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>1.315683803959228</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="1">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="1">
         <v>0.60949999094009399</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="1">
         <v>2.3013408921830329</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="1">
         <v>1.0151781560344511</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="1">
         <v>0.34005391843736399</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="1">
         <v>0.35000044107437128</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="1">
         <v>0.30866265041037461</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="1">
         <v>1.8988708245434609</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="1">
         <v>0.40614985278370141</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="1">
         <v>0.30281424843774613</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="1">
         <v>0.1416023969650268</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="1">
         <v>0.37773406505584711</v>
       </c>
-      <c r="V65">
+      <c r="V65" s="1">
         <v>0.99796377128292235</v>
       </c>
-      <c r="W65">
+      <c r="W65" s="1">
         <v>0.48417342287267368</v>
       </c>
-      <c r="X65">
+      <c r="X65" s="1">
         <v>7.9405585642778831E-2</v>
       </c>
-      <c r="Y65">
+      <c r="Y65" s="1">
         <v>8.5211984813213376E-2</v>
       </c>
-      <c r="AA65">
+      <c r="AA65" s="1">
         <v>-1.0482129656552099E-8</v>
       </c>
-      <c r="AB65">
+      <c r="AB65" s="1">
         <v>1.166558377617257</v>
       </c>
-      <c r="AC65">
+      <c r="AC65" s="1">
         <v>0</v>
       </c>
-      <c r="AD65">
+      <c r="AD65" s="1">
         <v>1.966347165010518</v>
       </c>
     </row>
     <row r="66" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>2</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>1.200000057840801</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>1.205913008150731</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>4.2872663229987271</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>1.7620283153238689</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>1.315683855341603</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="1">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1">
         <v>0.61400002241134644</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="1">
         <v>2.305858011855356</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="1">
         <v>1.015178175300901</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="1">
         <v>0.34005392422284192</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="1">
         <v>0.35000044107437128</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="1">
         <v>0.30866719661292108</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="1">
         <v>1.901774177488097</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="1">
         <v>0.40615287805902323</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="1">
         <v>0.30281638066293692</v>
       </c>
-      <c r="T66">
+      <c r="T66" s="1">
         <v>0.14160239696502691</v>
       </c>
-      <c r="U66">
+      <c r="U66" s="1">
         <v>0.38052290678024292</v>
       </c>
-      <c r="V66">
+      <c r="V66" s="1">
         <v>1.0007834867479291</v>
       </c>
-      <c r="W66">
+      <c r="W66" s="1">
         <v>0.48417554626702042</v>
       </c>
-      <c r="X66">
+      <c r="X66" s="1">
         <v>7.9406222677801508E-2</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" s="1">
         <v>8.5211984813213321E-2</v>
       </c>
-      <c r="AA66">
+      <c r="AA66" s="1">
         <v>-1.0481336962092541E-8</v>
       </c>
-      <c r="AB66">
+      <c r="AB66" s="1">
         <v>1.167472153956375</v>
       </c>
-      <c r="AC66">
+      <c r="AC66" s="1">
         <v>3.9229334717208158E-15</v>
       </c>
-      <c r="AD66">
+      <c r="AD66" s="1">
         <v>1.9694208697737139</v>
       </c>
     </row>
     <row r="67" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>3</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>1.2000000578400309</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>1.2059134765933679</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>4.2906129883638586</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>1.7620284676089051</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>1.3156839067401349</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="1">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>0.6184999942779541</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="1">
         <v>2.3103752020780082</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="1">
         <v>1.01517819457423</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="1">
         <v>0.34005393001044071</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="1">
         <v>0.35000044107437128</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="1">
         <v>0.3086717436598268</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="1">
         <v>1.9046778801614239</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="1">
         <v>0.40615590386893002</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="1">
         <v>0.30281851325266301</v>
       </c>
-      <c r="T67">
+      <c r="T67" s="1">
         <v>0.14160239696502691</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="1">
         <v>0.38331174850463862</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="1">
         <v>1.003603389017792</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="1">
         <v>0.4841776699507141</v>
       </c>
-      <c r="X67">
+      <c r="X67" s="1">
         <v>7.9406859799447865E-2</v>
       </c>
-      <c r="Y67">
+      <c r="Y67" s="1">
         <v>8.5211984813213348E-2</v>
       </c>
-      <c r="AA67">
+      <c r="AA67" s="1">
         <v>-1.04805407883686E-8</v>
       </c>
-      <c r="AB67">
+      <c r="AB67" s="1">
         <v>1.1683859681549651</v>
       </c>
-      <c r="AC67">
+      <c r="AC67" s="1">
         <v>0</v>
       </c>
-      <c r="AD67">
+      <c r="AD67" s="1">
         <v>1.972495201658433</v>
       </c>
     </row>
     <row r="68" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>4</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>1.2000000578392469</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>1.2059139452151539</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>4.2939598752400148</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>1.762028619951876</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>1.3156839581582449</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="1">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="1">
         <v>0.62300002574920654</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="1">
         <v>2.3148925827575719</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="1">
         <v>1.0151782138550509</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="1">
         <v>0.34005393580019633</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="1">
         <v>0.35000044107439587</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="1">
         <v>0.30867629183690282</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="1">
         <v>1.9075821162302511</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="1">
         <v>0.4061589304064368</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="1">
         <v>0.30282064634316658</v>
       </c>
-      <c r="T68">
+      <c r="T68" s="1">
         <v>0.1416023969650268</v>
       </c>
-      <c r="U68">
+      <c r="U68" s="1">
         <v>0.38610076904296881</v>
       </c>
-      <c r="V68">
+      <c r="V68" s="1">
         <v>1.006423658266568</v>
       </c>
-      <c r="W68">
+      <c r="W68" s="1">
         <v>0.48417979404538958</v>
       </c>
-      <c r="X68">
+      <c r="X68" s="1">
         <v>7.9407497044601288E-2</v>
       </c>
-      <c r="Y68">
+      <c r="Y68" s="1">
         <v>8.5211984813213321E-2</v>
       </c>
-      <c r="AA68">
+      <c r="AA68" s="1">
         <v>-1.0479746946028679E-8</v>
       </c>
-      <c r="AB68">
+      <c r="AB68" s="1">
         <v>1.169299844595145</v>
       </c>
-      <c r="AC68">
+      <c r="AC68" s="1">
         <v>0</v>
       </c>
-      <c r="AD68">
+      <c r="AD68" s="1">
         <v>1.975570354312993</v>
       </c>
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>5</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>1.2000000578384249</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>1.2059144139577369</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>4.2973068938831016</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>1.762028772332864</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <v>1.3156840095892051</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="1">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="1">
         <v>0.62749999761581421</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="1">
         <v>2.3194100337943819</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="1">
         <v>1.015178233141651</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="1">
         <v>0.3400539415916945</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="1">
         <v>0.35000044107437128</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="1">
         <v>0.30868084057790041</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="1">
         <v>1.910486520715627</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="1">
         <v>0.40616195728677529</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="1">
         <v>0.30282277966312859</v>
       </c>
-      <c r="T69">
+      <c r="T69" s="1">
         <v>0.14160239696502691</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="1">
         <v>0.38888961076736461</v>
       </c>
-      <c r="V69">
+      <c r="V69" s="1">
         <v>1.009243934902508</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="1">
         <v>0.48418191831760249</v>
       </c>
-      <c r="X69">
+      <c r="X69" s="1">
         <v>7.9408134343081638E-2</v>
       </c>
-      <c r="Y69">
+      <c r="Y69" s="1">
         <v>8.5211984813213348E-2</v>
       </c>
-      <c r="AA69">
+      <c r="AA69" s="1">
         <v>-1.0478948544456619E-8</v>
       </c>
-      <c r="AB69">
+      <c r="AB69" s="1">
         <v>1.170213758682302</v>
       </c>
-      <c r="AC69">
+      <c r="AC69" s="1">
         <v>3.6955996271491052E-15</v>
       </c>
-      <c r="AD69">
+      <c r="AD69" s="1">
         <v>1.978645944085343</v>
       </c>
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="I71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2" t="s">
+      <c r="N71" s="3"/>
+      <c r="O71" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="P71" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="Q71" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R71" s="2" t="s">
+      <c r="R71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S71" s="2" t="s">
+      <c r="S71" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T71" s="2" t="s">
+      <c r="T71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U71" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W71" s="2" t="s">
+      <c r="U71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W71" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="X71" s="2" t="s">
+      <c r="X71" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Y71" s="2" t="s">
+      <c r="Y71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA71"/>
-      <c r="AB71"/>
-      <c r="AC71"/>
-      <c r="AD71"/>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B72" s="4">
         <v>1</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>1.2000000578420651</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>1.205912267576712</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>4.2839026257859336</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>1.7620280722510511</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>1.3156837733009901</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="1">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="1">
         <v>0.60500001907348633</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="1">
         <v>2.3013240342971719</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="1">
         <v>1.0151781464417311</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="1">
         <v>0.34005391555716691</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="1">
         <v>0.35000044107437128</v>
       </c>
-      <c r="P72">
+      <c r="P72" s="1">
         <v>0.30866000679620842</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" s="1">
         <v>1.897162918211327</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="1">
         <v>0.40614804764217749</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="1">
         <v>0.30281297602864898</v>
       </c>
-      <c r="T72">
+      <c r="T72" s="1">
         <v>0.14160239696502691</v>
       </c>
-      <c r="U72">
+      <c r="U72" s="1">
         <v>0.3749452531337738</v>
       </c>
-      <c r="V72">
+      <c r="V72" s="1">
         <v>0.99627511992087148</v>
       </c>
-      <c r="W72">
+      <c r="W72" s="1">
         <v>0.48417236541131708</v>
       </c>
-      <c r="X72">
+      <c r="X72" s="1">
         <v>7.9405268396181256E-2</v>
       </c>
-      <c r="Y72">
+      <c r="Y72" s="1">
         <v>8.5211984813213376E-2</v>
       </c>
-      <c r="AA72">
+      <c r="AA72" s="1">
         <v>-1.048258547053789E-8</v>
       </c>
-      <c r="AB72">
+      <c r="AB72" s="1">
         <v>1.166553158184463</v>
       </c>
-      <c r="AC72">
+      <c r="AC72" s="1">
         <v>1.7749419572738021E-14</v>
       </c>
-      <c r="AD72">
+      <c r="AD72" s="1">
         <v>1.9645547994979891</v>
       </c>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>2</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>1.2000000578417169</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>1.2059124634826739</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>4.2872318773572626</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>1.762028133618859</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>1.3156837940137469</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="1">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="1">
         <v>0.60500001907348633</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="1">
         <v>2.3058241656319902</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="1">
         <v>1.0151781561110149</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="1">
         <v>0.34005391846127853</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="1">
         <v>0.35000044107437139</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="1">
         <v>0.30866190885598249</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" s="1">
         <v>1.898358176509868</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="1">
         <v>0.40614926745041458</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="1">
         <v>0.30281383562508252</v>
       </c>
-      <c r="T73">
+      <c r="T73" s="1">
         <v>0.14160239696502691</v>
       </c>
-      <c r="U73">
+      <c r="U73" s="1">
         <v>0.37494525313377369</v>
       </c>
-      <c r="V73">
+      <c r="V73" s="1">
         <v>0.99740604178790482</v>
       </c>
-      <c r="W73">
+      <c r="W73" s="1">
         <v>0.48417343116452283</v>
       </c>
-      <c r="X73">
+      <c r="X73" s="1">
         <v>7.9405588130492255E-2</v>
       </c>
-      <c r="Y73">
+      <c r="Y73" s="1">
         <v>8.5211984813213376E-2</v>
       </c>
-      <c r="AA73">
+      <c r="AA73" s="1">
         <v>-1.0482253020830531E-8</v>
       </c>
-      <c r="AB73">
+      <c r="AB73" s="1">
         <v>1.1674616817924961</v>
       </c>
-      <c r="AC73">
+      <c r="AC73" s="1">
         <v>0</v>
       </c>
-      <c r="AD73">
+      <c r="AD73" s="1">
         <v>1.9658357433736879</v>
       </c>
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>3</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>1.200000057841371</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>1.205912659432141</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>4.2905611442204421</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>1.7620281950004959</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <v>1.3156838147312151</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="1">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="1">
         <v>0.60500001907348633</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="1">
         <v>2.3103242373820949</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="1">
         <v>1.015178165781899</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="1">
         <v>0.34005392136553858</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="1">
         <v>0.35000044107437139</v>
       </c>
-      <c r="P74">
+      <c r="P74" s="1">
         <v>0.30866381123180447</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" s="1">
         <v>1.899553596643853</v>
       </c>
-      <c r="R74">
+      <c r="R74" s="1">
         <v>0.40615048746703819</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="1">
         <v>0.30281469536643169</v>
       </c>
-      <c r="T74">
+      <c r="T74" s="1">
         <v>0.1416023969650268</v>
       </c>
-      <c r="U74">
+      <c r="U74" s="1">
         <v>0.3749452531337738</v>
       </c>
-      <c r="V74">
+      <c r="V74" s="1">
         <v>0.99853700868861961</v>
       </c>
-      <c r="W74">
+      <c r="W74" s="1">
         <v>0.4841744970276417</v>
       </c>
-      <c r="X74">
+      <c r="X74" s="1">
         <v>7.9405907897642847E-2</v>
       </c>
-      <c r="Y74">
+      <c r="Y74" s="1">
         <v>8.5211984813213348E-2</v>
       </c>
-      <c r="AA74">
+      <c r="AA74" s="1">
         <v>-1.0481929704907419E-8</v>
       </c>
-      <c r="AB74">
+      <c r="AB74" s="1">
         <v>1.168370210018175</v>
       </c>
-      <c r="AC74">
+      <c r="AC74" s="1">
         <v>1.090844425127035E-14</v>
       </c>
-      <c r="AD74">
+      <c r="AD74" s="1">
         <v>1.967116919315018</v>
       </c>
     </row>
     <row r="75" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>4</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>1.2000000578410599</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>1.2059128554134591</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>4.2938905142864936</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>1.762028256392058</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>1.315683835451958</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="1">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="1">
         <v>0.60500001907348633</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="1">
         <v>2.3148243687548851</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="1">
         <v>1.0151781754546849</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="1">
         <v>0.34005392427059411</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="1">
         <v>0.35000044107437139</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="1">
         <v>0.30866571381026919</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="1">
         <v>1.900749104548872</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="1">
         <v>0.40615170761343838</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="1">
         <v>0.30281555519676479</v>
       </c>
-      <c r="T75">
+      <c r="T75" s="1">
         <v>0.14160239696502691</v>
       </c>
-      <c r="U75">
+      <c r="U75" s="1">
         <v>0.37494525313377391</v>
       </c>
-      <c r="V75">
+      <c r="V75" s="1">
         <v>0.99966794601174058</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="1">
         <v>0.48417556296430397</v>
       </c>
-      <c r="X75">
+      <c r="X75" s="1">
         <v>7.9406227687271513E-2</v>
       </c>
-      <c r="Y75">
+      <c r="Y75" s="1">
         <v>8.5211984813213348E-2</v>
       </c>
-      <c r="AA75">
+      <c r="AA75" s="1">
         <v>-1.048159170810362E-8</v>
       </c>
-      <c r="AB75">
+      <c r="AB75" s="1">
         <v>1.169278766818465</v>
       </c>
-      <c r="AC75">
+      <c r="AC75" s="1">
         <v>8.2772537125942617E-15</v>
       </c>
-      <c r="AD75">
+      <c r="AD75" s="1">
         <v>1.9683982503230339</v>
       </c>
     </row>
     <row r="76" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>5</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>1.200000057840735</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>1.2059130514142771</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>4.2972198992397397</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>1.7620283177895359</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>1.315683856174767</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="1">
         <v>0.5649999976158141</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="1">
         <v>0.60500001907348633</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="1">
         <v>2.3193244405352589</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="1">
         <v>1.01517818512872</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="1">
         <v>0.34005392717610972</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="1">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="1">
         <v>0.35000044107438799</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="1">
         <v>0.30866761647141311</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="1">
         <v>1.901944623355595</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="1">
         <v>0.40615292780878809</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="1">
         <v>0.30281641505954487</v>
       </c>
-      <c r="T76">
+      <c r="T76" s="1">
         <v>0.14160239696502691</v>
       </c>
-      <c r="U76">
+      <c r="U76" s="1">
         <v>0.37494525313377358</v>
       </c>
-      <c r="V76">
+      <c r="V76" s="1">
         <v>1.000798779085837</v>
       </c>
-      <c r="W76">
+      <c r="W76" s="1">
         <v>0.48417662891739122</v>
       </c>
-      <c r="X76">
+      <c r="X76" s="1">
         <v>7.9406547481751966E-2</v>
       </c>
-      <c r="Y76">
+      <c r="Y76" s="1">
         <v>8.5211984813213293E-2</v>
       </c>
-      <c r="AA76">
+      <c r="AA76" s="1">
         <v>-1.04812546784875E-8</v>
       </c>
-      <c r="AB76">
+      <c r="AB76" s="1">
         <v>1.170187328078711</v>
       </c>
-      <c r="AC76">
+      <c r="AC76" s="1">
         <v>0</v>
       </c>
-      <c r="AD76">
+      <c r="AD76" s="1">
         <v>1.9696796550317539</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DatenfürDoku.xlsx
+++ b/DatenfürDoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\SS2024\Energiesysteme\Power\Netzsimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF7438-9BD1-421F-8421-4F5D0E47382A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F3C082-5A92-40DF-AF3E-64E953A47750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,12 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -397,37 +396,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.51391102549663903</c:v>
+                  <c:v>0.97468451917978804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5128700038795484</c:v>
+                  <c:v>0.98072683976110575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51064739821465277</c:v>
+                  <c:v>0.98971813545056098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51045600928284807</c:v>
+                  <c:v>0.98863708222088031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51076838165884164</c:v>
+                  <c:v>0.98740049532502017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51113547165012807</c:v>
+                  <c:v>0.98593810320023523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51030262341785249</c:v>
+                  <c:v>0.98120037338046595</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51065369078000633</c:v>
+                  <c:v>0.98358644367053183</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51062314094746453</c:v>
+                  <c:v>0.98289227775280297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51073985181794668</c:v>
+                  <c:v>0.98245712417494802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.51078316590324602</c:v>
+                  <c:v>0.98226461680274357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,7 +708,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$64</c:f>
+              <c:f>Tabelle1!$K$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -744,7 +743,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$B$65:$B$69</c:f>
+              <c:f>Tabelle1!$C$65:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -768,7 +767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$J$65:$J$69</c:f>
+              <c:f>Tabelle1!$K$65:$K$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -802,7 +801,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$71</c:f>
+              <c:f>Tabelle1!$K$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -837,7 +836,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$J$72:$J$76</c:f>
+              <c:f>Tabelle1!$K$72:$K$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1266,7 +1265,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$U$64</c:f>
+              <c:f>Tabelle1!$V$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1301,7 +1300,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$B$65:$B$69</c:f>
+              <c:f>Tabelle1!$C$65:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1325,7 +1324,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$U$65:$U$69</c:f>
+              <c:f>Tabelle1!$V$65:$V$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1359,7 +1358,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$U$71</c:f>
+              <c:f>Tabelle1!$V$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1394,7 +1393,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$U$72:$U$76</c:f>
+              <c:f>Tabelle1!$V$72:$V$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1832,7 +1831,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$V$64</c:f>
+              <c:f>Tabelle1!$W$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1867,7 +1866,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$B$65:$B$69</c:f>
+              <c:f>Tabelle1!$C$65:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1891,7 +1890,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$V$65:$V$69</c:f>
+              <c:f>Tabelle1!$W$65:$W$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1925,7 +1924,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$V$71</c:f>
+              <c:f>Tabelle1!$W$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1960,7 +1959,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$V$72:$V$76</c:f>
+              <c:f>Tabelle1!$W$72:$W$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3497,37 +3496,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2000000578292109</c:v>
+                  <c:v>1.200000047683716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.20591984665145</c:v>
+                  <c:v>0.34005413749725649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6453220458067044</c:v>
+                  <c:v>0.34000000357627858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.762031815941028</c:v>
+                  <c:v>1.2059373866864029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.31568503696413</c:v>
+                  <c:v>7.2348802388508613</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.7620363074486869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3156865526880901</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.56499999761581421</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.60500001907348633</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2968263434212979</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.015178367423216</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34005398209900611</c:v>
+                  <c:v>2.2968317122319011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34000000357627869</c:v>
+                  <c:v>1.0151788867797571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,34 +3854,34 @@
                   <c:v>0.35000044107437128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30873350692214557</c:v>
+                  <c:v>7.9429670677900577E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.896697893902983</c:v>
+                  <c:v>8.5211984813213293E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40622225236863818</c:v>
+                  <c:v>0.30890314353497528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30286530933753048</c:v>
+                  <c:v>1.8971676328815981</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.40631099028413248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30292790861817981</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.14160239696502691</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.3749452531337738</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99521800757223655</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.48419666703518333</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9412559089752144E-2</c:v>
+                  <c:v>0.99538381930907649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.5211984813213321E-2</c:v>
+                  <c:v>0.48425370503612991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4207,37 +4206,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.51391102549663903</c:v>
+                  <c:v>0.95896669352314179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5128700038795484</c:v>
+                  <c:v>0.96689325893121203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51064739821465277</c:v>
+                  <c:v>0.96669759296672053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51045600928284807</c:v>
+                  <c:v>0.96511275127711538</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51076838165884164</c:v>
+                  <c:v>0.97427764205652201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51113547165012807</c:v>
+                  <c:v>0.9737010161414823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51030262341785249</c:v>
+                  <c:v>0.97244430066627219</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51065369078000633</c:v>
+                  <c:v>0.97095810219423839</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51062314094746453</c:v>
+                  <c:v>0.96561569241460055</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51073985181794668</c:v>
+                  <c:v>0.96804178116840889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.51078316590324602</c:v>
+                  <c:v>0.96733601230120236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4562,37 +4561,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>147.64820798384699</c:v>
+                  <c:v>146.3947957152028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.9511913603225</c:v>
+                  <c:v>146.91344874072641</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>148.44025255048149</c:v>
+                  <c:v>146.90322231838039</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148.42104880668941</c:v>
+                  <c:v>146.69864664080609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.35403118710619</c:v>
+                  <c:v>147.1890228124839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>148.27465072604909</c:v>
+                  <c:v>147.19683255721969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>148.14900558929051</c:v>
+                  <c:v>147.1296717771624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>148.21350356511411</c:v>
+                  <c:v>147.05012118985749</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148.1897966808657</c:v>
+                  <c:v>146.89696685922789</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148.16544167199871</c:v>
+                  <c:v>146.96164523708649</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148.15524442620759</c:v>
+                  <c:v>146.93787173597511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4874,7 +4873,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$64</c:f>
+              <c:f>Tabelle1!$J$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4909,7 +4908,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$B$65:$B$69</c:f>
+              <c:f>Tabelle1!$C$65:$C$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4933,7 +4932,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$I$65:$I$69</c:f>
+              <c:f>Tabelle1!$J$65:$J$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4967,7 +4966,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$I$71</c:f>
+              <c:f>Tabelle1!$J$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5002,7 +5001,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$I$72:$I$76</c:f>
+              <c:f>Tabelle1!$J$72:$J$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12690,2999 +12689,2876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AD76"/>
+  <dimension ref="C2:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.7109375" style="1"/>
-    <col min="9" max="10" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="10.7109375" style="1"/>
-    <col min="21" max="22" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.7109375" style="1"/>
+    <col min="9" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.51391102549663903</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3">
+        <v>0.97468451917978804</v>
+      </c>
+      <c r="E3">
         <v>147.64820798384699</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>1.2000000578292109</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>0.35000044107437128</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.5128700038795484</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4">
+        <v>0.98072683976110575</v>
+      </c>
+      <c r="E4">
         <v>147.9511913603225</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>1.20591984665145</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>0.30873350692214557</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.51064739821465277</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5">
+        <v>0.98971813545056098</v>
+      </c>
+      <c r="E5">
         <v>148.44025255048149</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>4.6453220458067044</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>1.896697893902983</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.51045600928284807</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6">
+        <v>0.98863708222088031</v>
+      </c>
+      <c r="E6">
         <v>148.42104880668941</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>1.762031815941028</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>0.40622225236863818</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.51076838165884164</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7">
+        <v>0.98740049532502017</v>
+      </c>
+      <c r="E7">
         <v>148.35403118710619</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>1.31568503696413</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>0.30286530933753048</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.51113547165012807</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8">
+        <v>0.98593810320023523</v>
+      </c>
+      <c r="E8">
         <v>148.27465072604909</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>0.56499999761581421</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>0.14160239696502691</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.51030262341785249</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9">
+        <v>0.98120037338046595</v>
+      </c>
+      <c r="E9">
         <v>148.14900558929051</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>0.60500001907348633</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>0.3749452531337738</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.51065369078000633</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10">
+        <v>0.98358644367053183</v>
+      </c>
+      <c r="E10">
         <v>148.21350356511411</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>2.2968263434212979</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>0.99521800757223655</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.51062314094746453</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11">
+        <v>0.98289227775280297</v>
+      </c>
+      <c r="E11">
         <v>148.1897966808657</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>1.015178367423216</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>0.48419666703518333</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.51073985181794668</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12">
+        <v>0.98245712417494802</v>
+      </c>
+      <c r="E12">
         <v>148.16544167199871</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>0.34005398209900611</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>7.9412559089752144E-2</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.51078316590324602</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13">
+        <v>0.98226461680274357</v>
+      </c>
+      <c r="E13">
         <v>148.15524442620759</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>0.34000000357627869</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>2.2604556467455201</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>2.0112873974806291</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>-2.655453208657213E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>-1.559707351227712</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>-1.0469746873285401E-8</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>1.49058376130301E-14</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3" t="s">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="T20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="Z20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>1.200000058096357</v>
       </c>
-      <c r="E21" s="1">
-        <v>1.2057663931389451</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4.8065799418578532</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.761981012858002</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.31566789054539</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="E21">
+        <v>1.205937793705969</v>
+      </c>
+      <c r="F21">
+        <v>7.2393822622526516</v>
+      </c>
+      <c r="G21">
+        <v>1.7620364432205531</v>
+      </c>
+      <c r="H21">
+        <v>1.315686598513492</v>
+      </c>
+      <c r="I21">
+        <v>0.56499999761581432</v>
+      </c>
+      <c r="J21">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K21" s="1">
-        <v>2.2967793534653369</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.015173817715993</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.34005261574592183</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="K21">
+        <v>2.2968318368035598</v>
+      </c>
+      <c r="L21">
+        <v>1.0151788988397239</v>
+      </c>
+      <c r="M21">
+        <v>0.34005414111799548</v>
+      </c>
+      <c r="N21">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P21" s="1">
-        <v>0.35000044107437123</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0.30721339379264551</v>
-      </c>
-      <c r="R21" s="1">
-        <v>1.8866382977992371</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0.40519245118537212</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0.3021387843210791</v>
-      </c>
-      <c r="U21" s="1">
+      <c r="P21">
+        <v>0.35000044107437139</v>
+      </c>
+      <c r="Q21">
+        <v>0.30890706705278792</v>
+      </c>
+      <c r="R21">
+        <v>1.8993665345250541</v>
+      </c>
+      <c r="S21">
+        <v>0.40631380239337522</v>
+      </c>
+      <c r="T21">
+        <v>0.30292979572072237</v>
+      </c>
+      <c r="U21">
         <v>0.14160239696502691</v>
       </c>
-      <c r="V21" s="1">
-        <v>0.37494525313377391</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0.99372778862184652</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0.48368356932026157</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>7.9258625737119032E-2</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>8.5211984813213321E-2</v>
+      <c r="V21">
+        <v>0.37494525313377369</v>
+      </c>
+      <c r="W21">
+        <v>0.99538765320156242</v>
+      </c>
+      <c r="X21">
+        <v>0.48425502372624402</v>
+      </c>
+      <c r="Y21">
+        <v>7.9430066291871271E-2</v>
+      </c>
+      <c r="Z21">
+        <v>8.5211984813213376E-2</v>
       </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>1.2000000580960599</v>
       </c>
-      <c r="E22" s="1">
-        <v>1.205766563760758</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4.8102829048346898</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1.761981067447536</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.3156679089694141</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="E22">
+        <v>1.205938200874296</v>
+      </c>
+      <c r="F22">
+        <v>7.2438843459172606</v>
+      </c>
+      <c r="G22">
+        <v>1.762036579040732</v>
+      </c>
+      <c r="H22">
+        <v>1.315686644355319</v>
+      </c>
+      <c r="I22">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K22" s="1">
-        <v>2.2967794057370758</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1.0151738227773901</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.34005261726641112</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="K22">
+        <v>2.296831961420287</v>
+      </c>
+      <c r="L22">
+        <v>1.01517891090414</v>
+      </c>
+      <c r="M22">
+        <v>0.34005414474016399</v>
+      </c>
+      <c r="N22">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P22" s="1">
-        <v>0.35000044107437761</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0.30721512201357909</v>
-      </c>
-      <c r="R22" s="1">
-        <v>1.8888252531196159</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0.40519358399379579</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0.30213958409310943</v>
-      </c>
-      <c r="U22" s="1">
-        <v>0.14160239696502691</v>
-      </c>
-      <c r="V22" s="1">
+      <c r="P22">
+        <v>0.35000044107437123</v>
+      </c>
+      <c r="Q22">
+        <v>0.30891099155041879</v>
+      </c>
+      <c r="R22">
+        <v>1.901565664416446</v>
+      </c>
+      <c r="S22">
+        <v>0.4063164810199914</v>
+      </c>
+      <c r="T22">
+        <v>0.30293168325615177</v>
+      </c>
+      <c r="U22">
+        <v>0.1416023969650268</v>
+      </c>
+      <c r="V22">
         <v>0.3749452531337738</v>
       </c>
-      <c r="W22" s="1">
-        <v>0.99372948722800902</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0.48368415464604447</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>7.9258801339674639E-2</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>8.5211984813213321E-2</v>
+      <c r="W22">
+        <v>0.99539148799794841</v>
+      </c>
+      <c r="X22">
+        <v>0.48425634272109652</v>
+      </c>
+      <c r="Y22">
+        <v>7.9430461997235607E-2</v>
+      </c>
+      <c r="Z22">
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>1.2000000580957151</v>
       </c>
-      <c r="E23" s="1">
-        <v>1.2057667343930401</v>
-      </c>
-      <c r="F23" s="1">
-        <v>4.8139858190556257</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1.7619811220400159</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1.3156679273944301</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="E23">
+        <v>1.2059386081440919</v>
+      </c>
+      <c r="F23">
+        <v>7.2483863704851572</v>
+      </c>
+      <c r="G23">
+        <v>1.762036714894148</v>
+      </c>
+      <c r="H23">
+        <v>1.315686690208365</v>
+      </c>
+      <c r="I23">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K23" s="1">
-        <v>2.2967794580117702</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1.0151738278392739</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.34005261878687248</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="K23">
+        <v>2.2968320860681519</v>
+      </c>
+      <c r="L23">
+        <v>1.0151789229713899</v>
+      </c>
+      <c r="M23">
+        <v>0.34005414836336401</v>
+      </c>
+      <c r="N23">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P23" s="1">
-        <v>0.35000044107437128</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.30721685025315371</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1.8910121503005071</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0.40519471681025437</v>
-      </c>
-      <c r="T23" s="1">
-        <v>0.30214038386907138</v>
-      </c>
-      <c r="U23" s="1">
+      <c r="P23">
+        <v>0.3500004410743715</v>
+      </c>
+      <c r="Q23">
+        <v>0.30891491657136749</v>
+      </c>
+      <c r="R23">
+        <v>1.9037647372926061</v>
+      </c>
+      <c r="S23">
+        <v>0.40631915997520868</v>
+      </c>
+      <c r="T23">
+        <v>0.30293357101377222</v>
+      </c>
+      <c r="U23">
         <v>0.14160239696502691</v>
       </c>
-      <c r="V23" s="1">
-        <v>0.37494525313377391</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0.99373118584334041</v>
-      </c>
-      <c r="X23" s="1">
-        <v>0.48368473997378209</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>7.9258976942815973E-2</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>8.5211984813213348E-2</v>
+      <c r="V23">
+        <v>0.3749452531337738</v>
+      </c>
+      <c r="W23">
+        <v>0.99539532325129909</v>
+      </c>
+      <c r="X23">
+        <v>0.4842576618678196</v>
+      </c>
+      <c r="Y23">
+        <v>7.9430857747781386E-2</v>
+      </c>
+      <c r="Z23">
+        <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>1.2000000580954311</v>
       </c>
-      <c r="E24" s="1">
-        <v>1.205766905033673</v>
-      </c>
-      <c r="F24" s="1">
-        <v>4.8176887825949279</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1.7619811766352089</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1.3156679458203331</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="E24">
+        <v>1.205939015511903</v>
+      </c>
+      <c r="F24">
+        <v>7.2528884551484119</v>
+      </c>
+      <c r="G24">
+        <v>1.76203685077994</v>
+      </c>
+      <c r="H24">
+        <v>1.315686736072343</v>
+      </c>
+      <c r="I24">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J24" s="1">
-        <v>0.60500001907348644</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2.2967795102888879</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1.015173832901092</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.34005262030738548</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="J24">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="K24">
+        <v>2.296832210745567</v>
+      </c>
+      <c r="L24">
+        <v>1.0151789350415881</v>
+      </c>
+      <c r="M24">
+        <v>0.34005415198730488</v>
+      </c>
+      <c r="N24">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P24" s="1">
-        <v>0.35000044107437139</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0.30721857849044198</v>
-      </c>
-      <c r="R24" s="1">
-        <v>1.893198959396013</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0.40519584961896699</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0.30214118363803072</v>
-      </c>
-      <c r="U24" s="1">
+      <c r="P24">
+        <v>0.35000044107437123</v>
+      </c>
+      <c r="Q24">
+        <v>0.30891884208264131</v>
+      </c>
+      <c r="R24">
+        <v>1.9059637231866899</v>
+      </c>
+      <c r="S24">
+        <v>0.4063218392370439</v>
+      </c>
+      <c r="T24">
+        <v>0.30293545897784058</v>
+      </c>
+      <c r="U24">
         <v>0.14160239696502691</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24">
         <v>0.37494525313377391</v>
       </c>
-      <c r="W24" s="1">
-        <v>0.99373288444590124</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0.4836853252962191</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>7.9259152544101125E-2</v>
-      </c>
-      <c r="Z24" s="1">
+      <c r="W24">
+        <v>0.99539915893084796</v>
+      </c>
+      <c r="X24">
+        <v>0.4842589811550756</v>
+      </c>
+      <c r="Y24">
+        <v>7.9431253540630853E-2</v>
+      </c>
+      <c r="Z24">
         <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>5</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>1.200000058095094</v>
       </c>
-      <c r="E25" s="1">
-        <v>1.2057670756914249</v>
-      </c>
-      <c r="F25" s="1">
-        <v>4.821391697397643</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1.761981231235634</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1.315667964248034</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="E25">
+        <v>1.205939422995755</v>
+      </c>
+      <c r="F25">
+        <v>7.2573904807880254</v>
+      </c>
+      <c r="G25">
+        <v>1.7620369867041521</v>
+      </c>
+      <c r="H25">
+        <v>1.3156867819491971</v>
+      </c>
+      <c r="I25">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K25" s="1">
-        <v>2.2967795625714991</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1.0151738379637889</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.340052621828075</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="K25">
+        <v>2.296832335458368</v>
+      </c>
+      <c r="L25">
+        <v>1.015178947115122</v>
+      </c>
+      <c r="M25">
+        <v>0.34005415561250069</v>
+      </c>
+      <c r="N25">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P25" s="1">
-        <v>0.35000044107437128</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0.30722030681448681</v>
-      </c>
-      <c r="R25" s="1">
-        <v>1.8953858001055019</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.40519698248256703</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0.30214198344398657</v>
-      </c>
-      <c r="U25" s="1">
-        <v>0.14160239696502691</v>
-      </c>
-      <c r="V25" s="1">
-        <v>0.3749452531337738</v>
-      </c>
-      <c r="W25" s="1">
-        <v>0.99373458312441199</v>
-      </c>
-      <c r="X25" s="1">
-        <v>0.48368591064365019</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>7.9259328152762987E-2</v>
-      </c>
-      <c r="Z25" s="1">
+      <c r="P25">
+        <v>0.35000044107437139</v>
+      </c>
+      <c r="Q25">
+        <v>0.30892276825750969</v>
+      </c>
+      <c r="R25">
+        <v>1.908162742171815</v>
+      </c>
+      <c r="S25">
+        <v>0.40632451892312771</v>
+      </c>
+      <c r="T25">
+        <v>0.30293734723156412</v>
+      </c>
+      <c r="U25">
+        <v>0.1416023969650268</v>
+      </c>
+      <c r="V25">
+        <v>0.37494525313377369</v>
+      </c>
+      <c r="W25">
+        <v>0.99540299520439157</v>
+      </c>
+      <c r="X25">
+        <v>0.48426030064083547</v>
+      </c>
+      <c r="Y25">
+        <v>7.9431649393133574E-2</v>
+      </c>
+      <c r="Z25">
         <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>1.200000058094808</v>
       </c>
-      <c r="E26" s="1">
-        <v>1.205767246366559</v>
-      </c>
-      <c r="F26" s="1">
-        <v>4.8250946615446972</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1.7619812858416299</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1.3156679826776221</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="E26">
+        <v>1.205939830597146</v>
+      </c>
+      <c r="F26">
+        <v>7.2618925666209231</v>
+      </c>
+      <c r="G26">
+        <v>1.7620371226667171</v>
+      </c>
+      <c r="H26">
+        <v>1.3156868278391181</v>
+      </c>
+      <c r="I26">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J26" s="1">
-        <v>0.60500001907348633</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2.2967796148591009</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1.01517384302651</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.34005262334902853</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="J26">
+        <v>0.60500001907348644</v>
+      </c>
+      <c r="K26">
+        <v>2.2968324602072472</v>
+      </c>
+      <c r="L26">
+        <v>1.0151789591923339</v>
+      </c>
+      <c r="M26">
+        <v>0.34005415923845789</v>
+      </c>
+      <c r="N26">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26">
         <v>0.35000044107437128</v>
       </c>
-      <c r="Q26" s="1">
-        <v>0.30722203522712321</v>
-      </c>
-      <c r="R26" s="1">
-        <v>1.897572672401606</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0.40519811540093459</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0.30214278328691763</v>
-      </c>
-      <c r="U26" s="1">
+      <c r="Q26">
+        <v>0.30892669510981108</v>
+      </c>
+      <c r="R26">
+        <v>1.9103617943171161</v>
+      </c>
+      <c r="S26">
+        <v>0.40632719904295012</v>
+      </c>
+      <c r="T26">
+        <v>0.30293923578158782</v>
+      </c>
+      <c r="U26">
         <v>0.14160239696502691</v>
       </c>
-      <c r="V26" s="1">
-        <v>0.37494525313377369</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0.99373628188010166</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0.48368649601686708</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>7.92595037696118E-2</v>
-      </c>
-      <c r="Z26" s="1">
+      <c r="V26">
+        <v>0.37494525313377403</v>
+      </c>
+      <c r="W26">
+        <v>0.99540683208614056</v>
+      </c>
+      <c r="X26">
+        <v>0.48426162032986791</v>
+      </c>
+      <c r="Y26">
+        <v>7.9432045306508547E-2</v>
+      </c>
+      <c r="Z26">
         <v>8.5211984813213376E-2</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>7</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>1.2000000580944989</v>
       </c>
-      <c r="E27" s="1">
-        <v>1.2057674170610371</v>
-      </c>
-      <c r="F27" s="1">
-        <v>4.8287975769613434</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1.7619813404537581</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1.3156680011092321</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="E27">
+        <v>1.2059402383194711</v>
+      </c>
+      <c r="F27">
+        <v>7.2663945934554288</v>
+      </c>
+      <c r="G27">
+        <v>1.7620372586693911</v>
+      </c>
+      <c r="H27">
+        <v>1.315686873742556</v>
+      </c>
+      <c r="I27">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K27" s="1">
-        <v>2.2967796671531509</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1.015173848090327</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.34005262487016102</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="K27">
+        <v>2.2968325849927318</v>
+      </c>
+      <c r="L27">
+        <v>1.0151789712729939</v>
+      </c>
+      <c r="M27">
+        <v>0.34005416286568563</v>
+      </c>
+      <c r="N27">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P27" s="1">
-        <v>0.35000044107437139</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>0.3072237637491958</v>
-      </c>
-      <c r="R27" s="1">
-        <v>1.899759606229382</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0.40519924839000099</v>
-      </c>
-      <c r="T27" s="1">
-        <v>0.3021435831778308</v>
-      </c>
-      <c r="U27" s="1">
+      <c r="P27">
+        <v>0.35000044107437128</v>
+      </c>
+      <c r="Q27">
+        <v>0.308930622672698</v>
+      </c>
+      <c r="R27">
+        <v>1.912560909591168</v>
+      </c>
+      <c r="S27">
+        <v>0.40632987961938227</v>
+      </c>
+      <c r="T27">
+        <v>0.30294112464377732</v>
+      </c>
+      <c r="U27">
         <v>0.14160239696502691</v>
       </c>
-      <c r="V27" s="1">
-        <v>0.37494525313377369</v>
-      </c>
-      <c r="W27" s="1">
-        <v>0.99373798073378072</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0.4836870814225499</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>7.9259679395985438E-2</v>
-      </c>
-      <c r="Z27" s="1">
+      <c r="V27">
+        <v>0.3749452531337738</v>
+      </c>
+      <c r="W27">
+        <v>0.99541066960836022</v>
+      </c>
+      <c r="X27">
+        <v>0.48426294023348931</v>
+      </c>
+      <c r="Y27">
+        <v>7.9432441283917382E-2</v>
+      </c>
+      <c r="Z27">
         <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>8</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>1.200000058094189</v>
       </c>
-      <c r="E28" s="1">
-        <v>1.205767587768505</v>
-      </c>
-      <c r="F28" s="1">
-        <v>4.8325005417095266</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1.7619813950694949</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1.315668019542158</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.56499999761581432</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="E28">
+        <v>1.2059406461497479</v>
+      </c>
+      <c r="F28">
+        <v>7.2708966804344648</v>
+      </c>
+      <c r="G28">
+        <v>1.762037394707658</v>
+      </c>
+      <c r="H28">
+        <v>1.3156869196579579</v>
+      </c>
+      <c r="I28">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="J28">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K28" s="1">
-        <v>2.2967797194506261</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1.0151738531541621</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.34005262639142758</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="K28">
+        <v>2.296832709810948</v>
+      </c>
+      <c r="L28">
+        <v>1.015178983356618</v>
+      </c>
+      <c r="M28">
+        <v>0.34005416649346348</v>
+      </c>
+      <c r="N28">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28">
         <v>0.35000044107437128</v>
       </c>
-      <c r="Q28" s="1">
-        <v>0.30722549231444579</v>
-      </c>
-      <c r="R28" s="1">
-        <v>1.9019465118079351</v>
-      </c>
-      <c r="S28" s="1">
-        <v>0.4052003814022973</v>
-      </c>
-      <c r="T28" s="1">
-        <v>0.30214438308365837</v>
-      </c>
-      <c r="U28" s="1">
+      <c r="Q28">
+        <v>0.30893455082001609</v>
+      </c>
+      <c r="R28">
+        <v>1.914759997956647</v>
+      </c>
+      <c r="S28">
+        <v>0.40633256056625883</v>
+      </c>
+      <c r="T28">
+        <v>0.3029430137575968</v>
+      </c>
+      <c r="U28">
         <v>0.14160239696502691</v>
       </c>
-      <c r="V28" s="1">
-        <v>0.37494525313377369</v>
-      </c>
-      <c r="W28" s="1">
-        <v>0.99373967961962006</v>
-      </c>
-      <c r="X28" s="1">
-        <v>0.48368766683831588</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>7.9259855025502146E-2</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>8.5211984813213348E-2</v>
+      <c r="V28">
+        <v>0.3749452531337738</v>
+      </c>
+      <c r="W28">
+        <v>0.99541450764824946</v>
+      </c>
+      <c r="X28">
+        <v>0.48426426030947373</v>
+      </c>
+      <c r="Y28">
+        <v>7.9432837313240551E-2</v>
+      </c>
+      <c r="Z28">
+        <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>9</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>1.2000000580939021</v>
       </c>
-      <c r="E29" s="1">
-        <v>1.2057677584974531</v>
-      </c>
-      <c r="F29" s="1">
-        <v>4.8362034577340527</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1.7619814496923829</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1.315668037977417</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="E29">
+        <v>1.205941054105969</v>
+      </c>
+      <c r="F29">
+        <v>7.2753987084408163</v>
+      </c>
+      <c r="G29">
+        <v>1.762037530787375</v>
+      </c>
+      <c r="H29">
+        <v>1.3156869655874399</v>
+      </c>
+      <c r="I29">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K29" s="1">
-        <v>2.2967797717552361</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1.0151738582190799</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.34005262791297741</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="K29">
+        <v>2.2968328346676632</v>
+      </c>
+      <c r="L29">
+        <v>1.0151789954442529</v>
+      </c>
+      <c r="M29">
+        <v>0.34005417012290168</v>
+      </c>
+      <c r="N29">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P29" s="1">
-        <v>0.35000044107439132</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0.30722722101194438</v>
-      </c>
-      <c r="R29" s="1">
-        <v>1.904133508836795</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0.40520151450066832</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0.30214518304854843</v>
-      </c>
-      <c r="U29" s="1">
+      <c r="P29">
+        <v>0.35000044107437139</v>
+      </c>
+      <c r="Q29">
+        <v>0.30893847972494431</v>
+      </c>
+      <c r="R29">
+        <v>1.916959179486619</v>
+      </c>
+      <c r="S29">
+        <v>0.40633524200191767</v>
+      </c>
+      <c r="T29">
+        <v>0.30294490320619949</v>
+      </c>
+      <c r="U29">
         <v>0.14160239696502691</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29">
         <v>0.3749452531337738</v>
       </c>
-      <c r="W29" s="1">
-        <v>0.99374137862631395</v>
-      </c>
-      <c r="X29" s="1">
-        <v>0.48368825229450879</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>7.9260030667076903E-2</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>8.5211984813213321E-2</v>
+      <c r="W29">
+        <v>0.99541834637420412</v>
+      </c>
+      <c r="X29">
+        <v>0.48426558061519143</v>
+      </c>
+      <c r="Y29">
+        <v>7.9433233411332349E-2</v>
+      </c>
+      <c r="Z29">
+        <v>8.5211984813213376E-2</v>
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>10</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>1.2000000580936061</v>
       </c>
-      <c r="E30" s="1">
-        <v>1.2057679292349011</v>
-      </c>
-      <c r="F30" s="1">
-        <v>4.8399064230772639</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1.7619815043177129</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1.3156680564135139</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="E30">
+        <v>1.2059414621605029</v>
+      </c>
+      <c r="F30">
+        <v>7.279900796542937</v>
+      </c>
+      <c r="G30">
+        <v>1.7620376668992901</v>
+      </c>
+      <c r="H30">
+        <v>1.315687011527827</v>
+      </c>
+      <c r="I30">
+        <v>0.5649999976158141</v>
+      </c>
+      <c r="J30">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K30" s="1">
-        <v>2.296779824061812</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1.0151738632837679</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.34005262943435399</v>
-      </c>
-      <c r="N30" s="1">
+      <c r="K30">
+        <v>2.2968329595542252</v>
+      </c>
+      <c r="L30">
+        <v>1.015179007534877</v>
+      </c>
+      <c r="M30">
+        <v>0.34005417375289809</v>
+      </c>
+      <c r="N30">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30">
         <v>0.35000044107437128</v>
       </c>
-      <c r="Q30" s="1">
-        <v>0.30722894970722781</v>
-      </c>
-      <c r="R30" s="1">
-        <v>1.9063204177818469</v>
-      </c>
-      <c r="S30" s="1">
-        <v>0.40520264759144098</v>
-      </c>
-      <c r="T30" s="1">
-        <v>0.30214598300634282</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0.1416023969650268</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0.3749452531337738</v>
-      </c>
-      <c r="W30" s="1">
-        <v>0.99374307762079894</v>
-      </c>
-      <c r="X30" s="1">
-        <v>0.4836888377457399</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>7.9260206307301906E-2</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>8.5211984813213376E-2</v>
+      <c r="Q30">
+        <v>0.30894240912128501</v>
+      </c>
+      <c r="R30">
+        <v>1.919158274037146</v>
+      </c>
+      <c r="S30">
+        <v>0.40633792374384992</v>
+      </c>
+      <c r="T30">
+        <v>0.30294679286163678</v>
+      </c>
+      <c r="U30">
+        <v>0.14160239696502691</v>
+      </c>
+      <c r="V30">
+        <v>0.37494525313377369</v>
+      </c>
+      <c r="W30">
+        <v>0.99542218552624295</v>
+      </c>
+      <c r="X30">
+        <v>0.4842669010619563</v>
+      </c>
+      <c r="Y30">
+        <v>7.9433629551885154E-2</v>
+      </c>
+      <c r="Z30">
+        <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3" t="s">
+      <c r="O32" s="2"/>
+      <c r="P32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="R32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="S32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="T32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="U32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="V32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="W32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="X32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y32" s="3" t="s">
+      <c r="Y32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z32" s="3" t="s">
+      <c r="Z32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>1</v>
       </c>
-      <c r="D33" s="1">
-        <v>1.200000058096456</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1.205766314740377</v>
-      </c>
-      <c r="F33" s="1">
-        <v>4.806584594777636</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1.7664810075985109</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1.315667888207138</v>
-      </c>
-      <c r="I33" s="1">
+      <c r="D33">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E33">
+        <v>1.205937623459818</v>
+      </c>
+      <c r="F33">
+        <v>7.2393833772912677</v>
+      </c>
+      <c r="G33">
+        <v>1.766536408479364</v>
+      </c>
+      <c r="H33">
+        <v>1.3156865862244931</v>
+      </c>
+      <c r="I33">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K33" s="1">
-        <v>2.296779329449127</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1.015173815390785</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.34005261504766959</v>
-      </c>
-      <c r="N33" s="1">
+      <c r="K33">
+        <v>2.2968317847013888</v>
+      </c>
+      <c r="L33">
+        <v>1.0151788937955071</v>
+      </c>
+      <c r="M33">
+        <v>0.3400541396036651</v>
+      </c>
+      <c r="N33">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P33" s="1">
-        <v>0.35000044107437139</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>0.30721259965092401</v>
-      </c>
-      <c r="R33" s="1">
-        <v>1.8855917134936819</v>
-      </c>
-      <c r="S33" s="1">
-        <v>0.40632007944905751</v>
-      </c>
-      <c r="T33" s="1">
-        <v>0.30213868280747569</v>
-      </c>
-      <c r="U33" s="1">
+      <c r="P33">
+        <v>0.35000044107437128</v>
+      </c>
+      <c r="Q33">
+        <v>0.30890542598808152</v>
+      </c>
+      <c r="R33">
+        <v>1.898310139981858</v>
+      </c>
+      <c r="S33">
+        <v>0.40744085627907262</v>
+      </c>
+      <c r="T33">
+        <v>0.30292928966508942</v>
+      </c>
+      <c r="U33">
         <v>0.1416023969650268</v>
       </c>
-      <c r="V33" s="1">
-        <v>0.37494525313377369</v>
-      </c>
-      <c r="W33" s="1">
-        <v>0.99372700808657433</v>
-      </c>
-      <c r="X33" s="1">
-        <v>0.4836833003534905</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>7.925854504493321E-2</v>
-      </c>
-      <c r="Z33" s="1">
+      <c r="V33">
+        <v>0.3749452531337738</v>
+      </c>
+      <c r="W33">
+        <v>0.99538604962806221</v>
+      </c>
+      <c r="X33">
+        <v>0.48425447216990752</v>
+      </c>
+      <c r="Y33">
+        <v>7.9429900820850718E-2</v>
+      </c>
+      <c r="Z33">
         <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>2</v>
       </c>
-      <c r="D34" s="1">
-        <v>1.200000058096313</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1.205766406937016</v>
-      </c>
-      <c r="F34" s="1">
-        <v>4.8102921805368712</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1.7709810569220941</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1.315667904290609</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="D34">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E34">
+        <v>1.205937860299702</v>
+      </c>
+      <c r="F34">
+        <v>7.2438865509226407</v>
+      </c>
+      <c r="G34">
+        <v>1.7710365095355001</v>
+      </c>
+      <c r="H34">
+        <v>1.315686619769622</v>
+      </c>
+      <c r="I34">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K34" s="1">
-        <v>2.2967793576962801</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1.015173818126047</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0.34005261586961549</v>
-      </c>
-      <c r="N34" s="1">
+      <c r="K34">
+        <v>2.2968318571904591</v>
+      </c>
+      <c r="L34">
+        <v>1.0151789008127481</v>
+      </c>
+      <c r="M34">
+        <v>0.34005414171063642</v>
+      </c>
+      <c r="N34">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34">
         <v>0.35000044107437128</v>
       </c>
-      <c r="Q34" s="1">
-        <v>0.3072135335222706</v>
-      </c>
-      <c r="R34" s="1">
-        <v>1.8867318479029369</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0.4074489298025169</v>
-      </c>
-      <c r="T34" s="1">
-        <v>0.30213938097773602</v>
-      </c>
-      <c r="U34" s="1">
-        <v>0.1416023969650268</v>
-      </c>
-      <c r="V34" s="1">
+      <c r="Q34">
+        <v>0.30890770892778258</v>
+      </c>
+      <c r="R34">
+        <v>1.899452654602978</v>
+      </c>
+      <c r="S34">
+        <v>0.40857067789720453</v>
+      </c>
+      <c r="T34">
+        <v>0.30293067093727871</v>
+      </c>
+      <c r="U34">
+        <v>0.14160239696502691</v>
+      </c>
+      <c r="V34">
         <v>0.3749452531337738</v>
       </c>
-      <c r="W34" s="1">
-        <v>0.99372792595868242</v>
-      </c>
-      <c r="X34" s="1">
-        <v>0.48368361664476212</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>7.9258639935136183E-2</v>
-      </c>
-      <c r="Z34" s="1">
+      <c r="W34">
+        <v>0.99538828040358784</v>
+      </c>
+      <c r="X34">
+        <v>0.48425523945848531</v>
+      </c>
+      <c r="Y34">
+        <v>7.9430131009654542E-2</v>
+      </c>
+      <c r="Z34">
         <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>3</v>
       </c>
-      <c r="D35" s="1">
-        <v>1.200000058096147</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1.205766499133837</v>
-      </c>
-      <c r="F35" s="1">
-        <v>4.8139997854266694</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1.7754811062465541</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1.315667920374411</v>
-      </c>
-      <c r="I35" s="1">
+      <c r="D35">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E35">
+        <v>1.205938097195147</v>
+      </c>
+      <c r="F35">
+        <v>7.2483897596542803</v>
+      </c>
+      <c r="G35">
+        <v>1.775536610613234</v>
+      </c>
+      <c r="H35">
+        <v>1.315686653321968</v>
+      </c>
+      <c r="I35">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K35" s="1">
-        <v>2.2967793859432941</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1.015173820861534</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0.34005261669175729</v>
-      </c>
-      <c r="N35" s="1">
+      <c r="K35">
+        <v>2.2968319296972939</v>
+      </c>
+      <c r="L35">
+        <v>1.0151789078324309</v>
+      </c>
+      <c r="M35">
+        <v>0.34005414381803217</v>
+      </c>
+      <c r="N35">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35">
         <v>0.35000044107437123</v>
       </c>
-      <c r="Q35" s="1">
-        <v>0.30721446737059338</v>
-      </c>
-      <c r="R35" s="1">
-        <v>1.8878719042434191</v>
-      </c>
-      <c r="S35" s="1">
-        <v>0.40857766837342951</v>
-      </c>
-      <c r="T35" s="1">
-        <v>0.30214007912982721</v>
-      </c>
-      <c r="U35" s="1">
-        <v>0.1416023969650268</v>
-      </c>
-      <c r="V35" s="1">
+      <c r="Q35">
+        <v>0.30890999224895588</v>
+      </c>
+      <c r="R35">
+        <v>1.9005951091024269</v>
+      </c>
+      <c r="S35">
+        <v>0.40970038800548608</v>
+      </c>
+      <c r="T35">
+        <v>0.302932052379775</v>
+      </c>
+      <c r="U35">
+        <v>0.14160239696502691</v>
+      </c>
+      <c r="V35">
         <v>0.37494525313377369</v>
       </c>
-      <c r="W35" s="1">
-        <v>0.99372884380627569</v>
-      </c>
-      <c r="X35" s="1">
-        <v>0.48368393292717182</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>7.9258734822357485E-2</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>8.5211984813213376E-2</v>
+      <c r="W35">
+        <v>0.99539051153398428</v>
+      </c>
+      <c r="X35">
+        <v>0.48425600686758258</v>
+      </c>
+      <c r="Y35">
+        <v>7.9430361235123398E-2</v>
+      </c>
+      <c r="Z35">
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>4</v>
       </c>
-      <c r="D36" s="1">
-        <v>1.200000058095988</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1.2057665913455859</v>
-      </c>
-      <c r="F36" s="1">
-        <v>4.8177074095917654</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1.7799811555776091</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1.3156679364604811</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="D36">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E36">
+        <v>1.2059383341776639</v>
+      </c>
+      <c r="F36">
+        <v>7.2528930037747248</v>
+      </c>
+      <c r="G36">
+        <v>1.7800367117242399</v>
+      </c>
+      <c r="H36">
+        <v>1.315686686885553</v>
+      </c>
+      <c r="I36">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K36" s="1">
-        <v>2.2967794141945519</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1.0151738235973129</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0.34005261751365429</v>
-      </c>
-      <c r="N36" s="1">
+      <c r="K36">
+        <v>2.2968320022302149</v>
+      </c>
+      <c r="L36">
+        <v>1.0151789148541921</v>
+      </c>
+      <c r="M36">
+        <v>0.34005414592638039</v>
+      </c>
+      <c r="N36">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36">
         <v>0.35000044107437128</v>
       </c>
-      <c r="Q36" s="1">
-        <v>0.30721540134364728</v>
-      </c>
-      <c r="R36" s="1">
-        <v>1.8890120771781651</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0.40970648899670281</v>
-      </c>
-      <c r="T36" s="1">
-        <v>0.30214077734828948</v>
-      </c>
-      <c r="U36" s="1">
+      <c r="Q36">
+        <v>0.30891227625547019</v>
+      </c>
+      <c r="R36">
+        <v>1.9017376989211869</v>
+      </c>
+      <c r="S36">
+        <v>0.41083018054471948</v>
+      </c>
+      <c r="T36">
+        <v>0.30293343415149582</v>
+      </c>
+      <c r="U36">
         <v>0.14160239696502691</v>
       </c>
-      <c r="V36" s="1">
-        <v>0.37494525313377369</v>
-      </c>
-      <c r="W36" s="1">
-        <v>0.99372976177320727</v>
-      </c>
-      <c r="X36" s="1">
-        <v>0.48368424925067571</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>7.9258829721772922E-2</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>8.5211984813213348E-2</v>
+      <c r="V36">
+        <v>0.37494525313377391</v>
+      </c>
+      <c r="W36">
+        <v>0.99539274331600835</v>
+      </c>
+      <c r="X36">
+        <v>0.48425677449880128</v>
+      </c>
+      <c r="Y36">
+        <v>7.9430591526888361E-2</v>
+      </c>
+      <c r="Z36">
+        <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>5</v>
       </c>
-      <c r="D37" s="1">
-        <v>1.200000058095819</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.205766683562594</v>
-      </c>
-      <c r="F37" s="1">
-        <v>4.8214150529397717</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1.7844812049115539</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1.315667952547567</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="D37">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E37">
+        <v>1.205938571226705</v>
+      </c>
+      <c r="F37">
+        <v>7.2573962831029224</v>
+      </c>
+      <c r="G37">
+        <v>1.7845368128604979</v>
+      </c>
+      <c r="H37">
+        <v>1.315686720457641</v>
+      </c>
+      <c r="I37">
+        <v>0.5649999976158141</v>
+      </c>
+      <c r="J37">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K37" s="1">
-        <v>2.2967794424482961</v>
-      </c>
-      <c r="L37" s="1">
-        <v>1.015173826333339</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0.34005261833614697</v>
-      </c>
-      <c r="N37" s="1">
+      <c r="K37">
+        <v>2.296832074783635</v>
+      </c>
+      <c r="L37">
+        <v>1.0151789218776011</v>
+      </c>
+      <c r="M37">
+        <v>0.34005414803512601</v>
+      </c>
+      <c r="N37">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P37" s="1">
-        <v>0.35000044107441808</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0.30721633534494158</v>
-      </c>
-      <c r="R37" s="1">
-        <v>1.890152239431852</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0.41083526493413902</v>
-      </c>
-      <c r="T37" s="1">
-        <v>0.30214147557803028</v>
-      </c>
-      <c r="U37" s="1">
-        <v>0.14160239696502691</v>
-      </c>
-      <c r="V37" s="1">
-        <v>0.3749452531337738</v>
-      </c>
-      <c r="W37" s="1">
-        <v>0.99373067976606244</v>
-      </c>
-      <c r="X37" s="1">
-        <v>0.48368456558285988</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>7.9258924624342059E-2</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>8.5211984813213321E-2</v>
+      <c r="P37">
+        <v>0.35000044107437128</v>
+      </c>
+      <c r="Q37">
+        <v>0.30891456074880153</v>
+      </c>
+      <c r="R37">
+        <v>1.9028802962827529</v>
+      </c>
+      <c r="S37">
+        <v>0.41195992870750081</v>
+      </c>
+      <c r="T37">
+        <v>0.30293481614851869</v>
+      </c>
+      <c r="U37">
+        <v>0.1416023969650268</v>
+      </c>
+      <c r="V37">
+        <v>0.37494525313377369</v>
+      </c>
+      <c r="W37">
+        <v>0.99539497555467538</v>
+      </c>
+      <c r="X37">
+        <v>0.48425754228490941</v>
+      </c>
+      <c r="Y37">
+        <v>7.9430821864996864E-2</v>
+      </c>
+      <c r="Z37">
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>6</v>
       </c>
-      <c r="D38" s="1">
-        <v>1.20000005809565</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1.2057667757944179</v>
-      </c>
-      <c r="F38" s="1">
-        <v>4.8251227155658203</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1.788981254252344</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1.3156679686368919</v>
-      </c>
-      <c r="I38" s="1">
+      <c r="D38">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E38">
+        <v>1.205938808362885</v>
+      </c>
+      <c r="F38">
+        <v>7.2618995978310981</v>
+      </c>
+      <c r="G38">
+        <v>1.7890369140299269</v>
+      </c>
+      <c r="H38">
+        <v>1.315686754040988</v>
+      </c>
+      <c r="I38">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K38" s="1">
-        <v>2.2967794707063631</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1.0151738290699639</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0.34005261915832619</v>
-      </c>
-      <c r="N38" s="1">
+      <c r="K38">
+        <v>2.2968321473634852</v>
+      </c>
+      <c r="L38">
+        <v>1.0151789289039459</v>
+      </c>
+      <c r="M38">
+        <v>0.34005415014470802</v>
+      </c>
+      <c r="N38">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P38" s="1">
-        <v>0.35000044107437311</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0.3072172694708763</v>
-      </c>
-      <c r="R38" s="1">
-        <v>1.891292518284206</v>
-      </c>
-      <c r="S38" s="1">
-        <v>0.41196412292375129</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0.30214217387405518</v>
-      </c>
-      <c r="U38" s="1">
-        <v>0.14160239696502691</v>
-      </c>
-      <c r="V38" s="1">
-        <v>0.3749452531337738</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0.99373159787755305</v>
-      </c>
-      <c r="X38" s="1">
-        <v>0.48368488195541193</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>7.9259019538512498E-2</v>
-      </c>
-      <c r="Z38" s="1">
+      <c r="P38">
+        <v>0.35000044107437139</v>
+      </c>
+      <c r="Q38">
+        <v>0.30891684592763707</v>
+      </c>
+      <c r="R38">
+        <v>1.904023028978729</v>
+      </c>
+      <c r="S38">
+        <v>0.41308975930102898</v>
+      </c>
+      <c r="T38">
+        <v>0.30293619847493769</v>
+      </c>
+      <c r="U38">
+        <v>0.1416023969650268</v>
+      </c>
+      <c r="V38">
+        <v>0.37494525313377369</v>
+      </c>
+      <c r="W38">
+        <v>0.99539720844531565</v>
+      </c>
+      <c r="X38">
+        <v>0.4842583102932998</v>
+      </c>
+      <c r="Y38">
+        <v>7.9431052269668456E-2</v>
+      </c>
+      <c r="Z38">
         <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>7</v>
       </c>
-      <c r="D39" s="1">
-        <v>1.2000000580954819</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1.2057668680265159</v>
-      </c>
-      <c r="F39" s="1">
-        <v>4.8288303973274509</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1.7934813035941859</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1.315667984726564</v>
-      </c>
-      <c r="I39" s="1">
+      <c r="D39">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E39">
+        <v>1.205939045554667</v>
+      </c>
+      <c r="F39">
+        <v>7.2664029476779639</v>
+      </c>
+      <c r="G39">
+        <v>1.793537015220896</v>
+      </c>
+      <c r="H39">
+        <v>1.3156867876316161</v>
+      </c>
+      <c r="I39">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K39" s="1">
-        <v>2.2967794989643702</v>
-      </c>
-      <c r="L39" s="1">
-        <v>1.015173831806377</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0.34005261998090819</v>
-      </c>
-      <c r="N39" s="1">
+      <c r="K39">
+        <v>2.2968322199609221</v>
+      </c>
+      <c r="L39">
+        <v>1.015178935932151</v>
+      </c>
+      <c r="M39">
+        <v>0.34005415225500729</v>
+      </c>
+      <c r="N39">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P39" s="1">
-        <v>0.35000044107438061</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0.30721820357391089</v>
-      </c>
-      <c r="R39" s="1">
-        <v>1.892432719076526</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0.41309286913129561</v>
-      </c>
-      <c r="T39" s="1">
-        <v>0.3021428721520204</v>
-      </c>
-      <c r="U39" s="1">
+      <c r="P39">
+        <v>0.35000044107437128</v>
+      </c>
+      <c r="Q39">
+        <v>0.30891913148837702</v>
+      </c>
+      <c r="R39">
+        <v>1.9051657015825689</v>
+      </c>
+      <c r="S39">
+        <v>0.41421947838515122</v>
+      </c>
+      <c r="T39">
+        <v>0.30293758097184631</v>
+      </c>
+      <c r="U39">
         <v>0.14160239696502691</v>
       </c>
-      <c r="V39" s="1">
+      <c r="V39">
         <v>0.3749452531337738</v>
       </c>
-      <c r="W39" s="1">
-        <v>0.99373251596422296</v>
-      </c>
-      <c r="X39" s="1">
-        <v>0.4836851983191679</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>7.9259114450385276E-2</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>8.5211984813213348E-2</v>
+      <c r="W39">
+        <v>0.99539944169078209</v>
+      </c>
+      <c r="X39">
+        <v>0.48425907842218557</v>
+      </c>
+      <c r="Y39">
+        <v>7.9431282710798634E-2</v>
+      </c>
+      <c r="Z39">
+        <v>8.5211984813213376E-2</v>
       </c>
     </row>
     <row r="40" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>8</v>
       </c>
-      <c r="D40" s="1">
-        <v>1.200000058095317</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1.205766960273408</v>
-      </c>
-      <c r="F40" s="1">
-        <v>4.8325380983693016</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1.797981352942597</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1.3156680008185551</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="D40">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E40">
+        <v>1.2059392828337001</v>
+      </c>
+      <c r="F40">
+        <v>7.2709063329360468</v>
+      </c>
+      <c r="G40">
+        <v>1.798037116444972</v>
+      </c>
+      <c r="H40">
+        <v>1.3156868212333941</v>
+      </c>
+      <c r="I40">
+        <v>0.56499999761581432</v>
+      </c>
+      <c r="J40">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K40" s="1">
-        <v>2.2967795272266889</v>
-      </c>
-      <c r="L40" s="1">
-        <v>1.01517383454317</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0.34005262080328469</v>
-      </c>
-      <c r="N40" s="1">
+      <c r="K40">
+        <v>2.2968322925848539</v>
+      </c>
+      <c r="L40">
+        <v>1.015178942962607</v>
+      </c>
+      <c r="M40">
+        <v>0.34005415436590208</v>
+      </c>
+      <c r="N40">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40">
         <v>0.35000044107437128</v>
       </c>
-      <c r="Q40" s="1">
-        <v>0.30721913780168342</v>
-      </c>
-      <c r="R40" s="1">
-        <v>1.8935730364731811</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0.41422169739085007</v>
-      </c>
-      <c r="T40" s="1">
-        <v>0.30214357049645157</v>
-      </c>
-      <c r="U40" s="1">
+      <c r="Q40">
+        <v>0.30892141773483239</v>
+      </c>
+      <c r="R40">
+        <v>1.9063085095365699</v>
+      </c>
+      <c r="S40">
+        <v>0.41534927990031811</v>
+      </c>
+      <c r="T40">
+        <v>0.30293896379808061</v>
+      </c>
+      <c r="U40">
         <v>0.14160239696502691</v>
       </c>
-      <c r="V40" s="1">
-        <v>0.3749452531337738</v>
-      </c>
-      <c r="W40" s="1">
-        <v>0.99373343417010429</v>
-      </c>
-      <c r="X40" s="1">
-        <v>0.4836855147235295</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>7.9259209374418382E-2</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>8.5211984813213321E-2</v>
+      <c r="V40">
+        <v>0.37494525313377391</v>
+      </c>
+      <c r="W40">
+        <v>0.99540167558872206</v>
+      </c>
+      <c r="X40">
+        <v>0.48425984677330158</v>
+      </c>
+      <c r="Y40">
+        <v>7.9431513218408967E-2</v>
+      </c>
+      <c r="Z40">
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="41" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>9</v>
       </c>
-      <c r="D41" s="1">
-        <v>1.200000058095146</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1.2057670525256039</v>
-      </c>
-      <c r="F41" s="1">
-        <v>4.8362458185993118</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1.8024814022942139</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1.3156680169114761</v>
-      </c>
-      <c r="I41" s="1">
+      <c r="D41">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E41">
+        <v>1.2059395201793099</v>
+      </c>
+      <c r="F41">
+        <v>7.2754097534223154</v>
+      </c>
+      <c r="G41">
+        <v>1.8025372176945309</v>
+      </c>
+      <c r="H41">
+        <v>1.3156868548438481</v>
+      </c>
+      <c r="I41">
         <v>0.56499999761581421</v>
       </c>
-      <c r="J41" s="1">
-        <v>0.60500001907348633</v>
-      </c>
-      <c r="K41" s="1">
-        <v>2.2967795554906481</v>
-      </c>
-      <c r="L41" s="1">
-        <v>1.015173837280257</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0.34005262162601718</v>
-      </c>
-      <c r="N41" s="1">
+      <c r="J41">
+        <v>0.60500001907348644</v>
+      </c>
+      <c r="K41">
+        <v>2.2968323652286822</v>
+      </c>
+      <c r="L41">
+        <v>1.015178949994948</v>
+      </c>
+      <c r="M41">
+        <v>0.34005415647715348</v>
+      </c>
+      <c r="N41">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P41" s="1">
-        <v>0.35000044107437128</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0.30722007205763607</v>
-      </c>
-      <c r="R41" s="1">
-        <v>1.8947133431967911</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0.41535048096484029</v>
-      </c>
-      <c r="T41" s="1">
-        <v>0.30214426885207257</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0.1416023969650268</v>
-      </c>
-      <c r="V41" s="1">
-        <v>0.37494525313377358</v>
-      </c>
-      <c r="W41" s="1">
-        <v>0.99373435240069052</v>
-      </c>
-      <c r="X41" s="1">
-        <v>0.48368583113624147</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>7.9259304300699274E-2</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>8.5211984813213348E-2</v>
+      <c r="P41">
+        <v>0.35000044107437139</v>
+      </c>
+      <c r="Q41">
+        <v>0.30892370446861062</v>
+      </c>
+      <c r="R41">
+        <v>1.9074513250631231</v>
+      </c>
+      <c r="S41">
+        <v>0.41647903703904182</v>
+      </c>
+      <c r="T41">
+        <v>0.30294034684995169</v>
+      </c>
+      <c r="U41">
+        <v>0.14160239696502691</v>
+      </c>
+      <c r="V41">
+        <v>0.37494525313377391</v>
+      </c>
+      <c r="W41">
+        <v>0.99540390994340888</v>
+      </c>
+      <c r="X41">
+        <v>0.48426061527955228</v>
+      </c>
+      <c r="Y41">
+        <v>7.9431743771962993E-2</v>
+      </c>
+      <c r="Z41">
+        <v>8.5211984813213376E-2</v>
       </c>
     </row>
     <row r="42" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>10</v>
       </c>
-      <c r="D42" s="1">
-        <v>1.2000000580950101</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1.2057671447831551</v>
-      </c>
-      <c r="F42" s="1">
-        <v>4.8399535580187028</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1.8069814516486311</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1.3156680330053809</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="D42">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E42">
+        <v>1.205939757591491</v>
+      </c>
+      <c r="F42">
+        <v>7.2799132091415224</v>
+      </c>
+      <c r="G42">
+        <v>1.80703731896972</v>
+      </c>
+      <c r="H42">
+        <v>1.315686888462966</v>
+      </c>
+      <c r="I42">
+        <v>0.56499999761581432</v>
+      </c>
+      <c r="J42">
         <v>0.60500001907348633</v>
       </c>
-      <c r="K42" s="1">
-        <v>2.2967795837563152</v>
-      </c>
-      <c r="L42" s="1">
-        <v>1.015173840017541</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0.34005262244856138</v>
-      </c>
-      <c r="N42" s="1">
+      <c r="K42">
+        <v>2.2968324378935829</v>
+      </c>
+      <c r="L42">
+        <v>1.0151789570295751</v>
+      </c>
+      <c r="M42">
+        <v>0.34005415858949012</v>
+      </c>
+      <c r="N42">
         <v>0.34000000357627869</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42">
         <v>0.35000044107437139</v>
       </c>
-      <c r="Q42" s="1">
-        <v>0.30722100634175298</v>
-      </c>
-      <c r="R42" s="1">
-        <v>1.8958536392498699</v>
-      </c>
-      <c r="S42" s="1">
-        <v>0.41647921985311298</v>
-      </c>
-      <c r="T42" s="1">
-        <v>0.30214496721885747</v>
-      </c>
-      <c r="U42" s="1">
-        <v>0.1416023969650268</v>
-      </c>
-      <c r="V42" s="1">
+      <c r="Q42">
+        <v>0.30892599168968171</v>
+      </c>
+      <c r="R42">
+        <v>1.9085941481701589</v>
+      </c>
+      <c r="S42">
+        <v>0.4176087498015626</v>
+      </c>
+      <c r="T42">
+        <v>0.30294173012733899</v>
+      </c>
+      <c r="U42">
+        <v>0.14160239696502691</v>
+      </c>
+      <c r="V42">
         <v>0.3749452531337738</v>
       </c>
-      <c r="W42" s="1">
-        <v>0.9937352706569863</v>
-      </c>
-      <c r="X42" s="1">
-        <v>0.48368614755750139</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>7.9259399229603011E-2</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>8.5211984813213293E-2</v>
+      <c r="W42">
+        <v>0.99540614475657052</v>
+      </c>
+      <c r="X42">
+        <v>0.48426138394135487</v>
+      </c>
+      <c r="Y42">
+        <v>7.9431974372777825E-2</v>
+      </c>
+      <c r="Z42">
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="1">
-        <v>0.51391102549663903</v>
-      </c>
-      <c r="E49" s="1">
-        <v>147.64820798384699</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1.2000000578292109</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="D49">
+        <v>0.95896669352314179</v>
+      </c>
+      <c r="E49">
+        <v>146.3947957152028</v>
+      </c>
+      <c r="F49">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="G49">
         <v>0.35000044107437128</v>
       </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="1">
-        <v>0.5128700038795484</v>
-      </c>
-      <c r="E50" s="1">
-        <v>147.9511913603225</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1.20591984665145</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0.30873350692214557</v>
+      <c r="D50">
+        <v>0.96689325893121203</v>
+      </c>
+      <c r="E50">
+        <v>146.91344874072641</v>
+      </c>
+      <c r="F50">
+        <v>0.34005413749725649</v>
+      </c>
+      <c r="G50">
+        <v>7.9429670677900577E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
+    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="1">
-        <v>0.51064739821465277</v>
-      </c>
-      <c r="E51" s="1">
-        <v>148.44025255048149</v>
-      </c>
-      <c r="F51" s="1">
-        <v>4.6453220458067044</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1.896697893902983</v>
+      <c r="D51">
+        <v>0.96669759296672053</v>
+      </c>
+      <c r="E51">
+        <v>146.90322231838039</v>
+      </c>
+      <c r="F51">
+        <v>0.34000000357627858</v>
+      </c>
+      <c r="G51">
+        <v>8.5211984813213293E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
+    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="1">
-        <v>0.51045600928284807</v>
-      </c>
-      <c r="E52" s="1">
-        <v>148.42104880668941</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1.762031815941028</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.40622225236863818</v>
+      <c r="D52">
+        <v>0.96511275127711538</v>
+      </c>
+      <c r="E52">
+        <v>146.69864664080609</v>
+      </c>
+      <c r="F52">
+        <v>1.2059373866864029</v>
+      </c>
+      <c r="G52">
+        <v>0.30890314353497528</v>
       </c>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="1">
-        <v>0.51076838165884164</v>
-      </c>
-      <c r="E53" s="1">
-        <v>148.35403118710619</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1.31568503696413</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.30286530933753048</v>
+      <c r="D53">
+        <v>0.97427764205652201</v>
+      </c>
+      <c r="E53">
+        <v>147.1890228124839</v>
+      </c>
+      <c r="F53">
+        <v>7.2348802388508613</v>
+      </c>
+      <c r="G53">
+        <v>1.8971676328815981</v>
       </c>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
+    <row r="54" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="1">
-        <v>0.51113547165012807</v>
-      </c>
-      <c r="E54" s="1">
-        <v>148.27465072604909</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="D54">
+        <v>0.9737010161414823</v>
+      </c>
+      <c r="E54">
+        <v>147.19683255721969</v>
+      </c>
+      <c r="F54">
+        <v>1.7620363074486869</v>
+      </c>
+      <c r="G54">
+        <v>0.40631099028413248</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>0.97244430066627219</v>
+      </c>
+      <c r="E55">
+        <v>147.1296717771624</v>
+      </c>
+      <c r="F55">
+        <v>1.3156865526880901</v>
+      </c>
+      <c r="G55">
+        <v>0.30292790861817981</v>
+      </c>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>0.97095810219423839</v>
+      </c>
+      <c r="E56">
+        <v>147.05012118985749</v>
+      </c>
+      <c r="F56">
         <v>0.56499999761581421</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G56">
         <v>0.14160239696502691</v>
       </c>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.51030262341785249</v>
-      </c>
-      <c r="E55" s="1">
-        <v>148.14900558929051</v>
-      </c>
-      <c r="F55" s="1">
+    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>0.96561569241460055</v>
+      </c>
+      <c r="E57">
+        <v>146.89696685922789</v>
+      </c>
+      <c r="F57">
         <v>0.60500001907348633</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G57">
         <v>0.3749452531337738</v>
       </c>
     </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.51065369078000633</v>
-      </c>
-      <c r="E56" s="1">
-        <v>148.21350356511411</v>
-      </c>
-      <c r="F56" s="1">
-        <v>2.2968263434212979</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.99521800757223655</v>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>0.96804178116840889</v>
+      </c>
+      <c r="E58">
+        <v>146.96164523708649</v>
+      </c>
+      <c r="F58">
+        <v>2.2968317122319011</v>
+      </c>
+      <c r="G58">
+        <v>0.99538381930907649</v>
       </c>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.51062314094746453</v>
-      </c>
-      <c r="E57" s="1">
-        <v>148.1897966808657</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1.015178367423216</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.48419666703518333</v>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>0.96733601230120236</v>
+      </c>
+      <c r="E59">
+        <v>146.93787173597511</v>
+      </c>
+      <c r="F59">
+        <v>1.0151788867797571</v>
+      </c>
+      <c r="G59">
+        <v>0.48425370503612991</v>
       </c>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.51073985181794668</v>
-      </c>
-      <c r="E58" s="1">
-        <v>148.16544167199871</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0.34005398209900611</v>
-      </c>
-      <c r="G58" s="1">
-        <v>7.9412559089752144E-2</v>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.51078316590324602</v>
-      </c>
-      <c r="E59" s="1">
-        <v>148.15524442620759</v>
-      </c>
-      <c r="F59" s="1">
+    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1.200000057841585</v>
+      </c>
+      <c r="E65">
+        <v>1.205912539857678</v>
+      </c>
+      <c r="F65">
+        <v>4.2839197899765527</v>
+      </c>
+      <c r="G65">
+        <v>1.7620281630865791</v>
+      </c>
+      <c r="H65">
+        <v>1.315683803959228</v>
+      </c>
+      <c r="I65">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="J65">
+        <v>0.60949999094009399</v>
+      </c>
+      <c r="K65">
+        <v>2.3013408921830329</v>
+      </c>
+      <c r="L65">
+        <v>1.0151781560344511</v>
+      </c>
+      <c r="M65">
+        <v>0.34005391843736399</v>
+      </c>
+      <c r="N65">
         <v>0.34000000357627869</v>
       </c>
-      <c r="G59" s="1">
+      <c r="P65">
+        <v>0.35000044107437128</v>
+      </c>
+      <c r="Q65">
+        <v>0.30866265041037461</v>
+      </c>
+      <c r="R65">
+        <v>1.8988708245434609</v>
+      </c>
+      <c r="S65">
+        <v>0.40614985278370141</v>
+      </c>
+      <c r="T65">
+        <v>0.30281424843774613</v>
+      </c>
+      <c r="U65">
+        <v>0.1416023969650268</v>
+      </c>
+      <c r="V65">
+        <v>0.37773406505584711</v>
+      </c>
+      <c r="W65">
+        <v>0.99796377128292235</v>
+      </c>
+      <c r="X65">
+        <v>0.48417342287267368</v>
+      </c>
+      <c r="Y65">
+        <v>7.9405585642778831E-2</v>
+      </c>
+      <c r="Z65">
+        <v>8.5211984813213376E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1.200000057840801</v>
+      </c>
+      <c r="E66">
+        <v>1.205913008150731</v>
+      </c>
+      <c r="F66">
+        <v>4.2872663229987271</v>
+      </c>
+      <c r="G66">
+        <v>1.7620283153238689</v>
+      </c>
+      <c r="H66">
+        <v>1.315683855341603</v>
+      </c>
+      <c r="I66">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="J66">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="K66">
+        <v>2.305858011855356</v>
+      </c>
+      <c r="L66">
+        <v>1.015178175300901</v>
+      </c>
+      <c r="M66">
+        <v>0.34005392422284192</v>
+      </c>
+      <c r="N66">
+        <v>0.34000000357627869</v>
+      </c>
+      <c r="P66">
+        <v>0.35000044107437128</v>
+      </c>
+      <c r="Q66">
+        <v>0.30866719661292108</v>
+      </c>
+      <c r="R66">
+        <v>1.901774177488097</v>
+      </c>
+      <c r="S66">
+        <v>0.40615287805902323</v>
+      </c>
+      <c r="T66">
+        <v>0.30281638066293692</v>
+      </c>
+      <c r="U66">
+        <v>0.14160239696502691</v>
+      </c>
+      <c r="V66">
+        <v>0.38052290678024292</v>
+      </c>
+      <c r="W66">
+        <v>1.0007834867479291</v>
+      </c>
+      <c r="X66">
+        <v>0.48417554626702042</v>
+      </c>
+      <c r="Y66">
+        <v>7.9406222677801508E-2</v>
+      </c>
+      <c r="Z66">
         <v>8.5211984813213321E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" s="3" t="s">
+    <row r="67" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>1.2000000578400309</v>
+      </c>
+      <c r="E67">
+        <v>1.2059134765933679</v>
+      </c>
+      <c r="F67">
+        <v>4.2906129883638586</v>
+      </c>
+      <c r="G67">
+        <v>1.7620284676089051</v>
+      </c>
+      <c r="H67">
+        <v>1.3156839067401349</v>
+      </c>
+      <c r="I67">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="J67">
+        <v>0.6184999942779541</v>
+      </c>
+      <c r="K67">
+        <v>2.3103752020780082</v>
+      </c>
+      <c r="L67">
+        <v>1.01517819457423</v>
+      </c>
+      <c r="M67">
+        <v>0.34005393001044071</v>
+      </c>
+      <c r="N67">
+        <v>0.34000000357627869</v>
+      </c>
+      <c r="P67">
+        <v>0.35000044107437128</v>
+      </c>
+      <c r="Q67">
+        <v>0.3086717436598268</v>
+      </c>
+      <c r="R67">
+        <v>1.9046778801614239</v>
+      </c>
+      <c r="S67">
+        <v>0.40615590386893002</v>
+      </c>
+      <c r="T67">
+        <v>0.30281851325266301</v>
+      </c>
+      <c r="U67">
+        <v>0.14160239696502691</v>
+      </c>
+      <c r="V67">
+        <v>0.38331174850463862</v>
+      </c>
+      <c r="W67">
+        <v>1.003603389017792</v>
+      </c>
+      <c r="X67">
+        <v>0.4841776699507141</v>
+      </c>
+      <c r="Y67">
+        <v>7.9406859799447865E-2</v>
+      </c>
+      <c r="Z67">
+        <v>8.5211984813213348E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>1.2000000578392469</v>
+      </c>
+      <c r="E68">
+        <v>1.2059139452151539</v>
+      </c>
+      <c r="F68">
+        <v>4.2939598752400148</v>
+      </c>
+      <c r="G68">
+        <v>1.762028619951876</v>
+      </c>
+      <c r="H68">
+        <v>1.3156839581582449</v>
+      </c>
+      <c r="I68">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="J68">
+        <v>0.62300002574920654</v>
+      </c>
+      <c r="K68">
+        <v>2.3148925827575719</v>
+      </c>
+      <c r="L68">
+        <v>1.0151782138550509</v>
+      </c>
+      <c r="M68">
+        <v>0.34005393580019633</v>
+      </c>
+      <c r="N68">
+        <v>0.34000000357627869</v>
+      </c>
+      <c r="P68">
+        <v>0.35000044107439587</v>
+      </c>
+      <c r="Q68">
+        <v>0.30867629183690282</v>
+      </c>
+      <c r="R68">
+        <v>1.9075821162302511</v>
+      </c>
+      <c r="S68">
+        <v>0.4061589304064368</v>
+      </c>
+      <c r="T68">
+        <v>0.30282064634316658</v>
+      </c>
+      <c r="U68">
+        <v>0.1416023969650268</v>
+      </c>
+      <c r="V68">
+        <v>0.38610076904296881</v>
+      </c>
+      <c r="W68">
+        <v>1.006423658266568</v>
+      </c>
+      <c r="X68">
+        <v>0.48417979404538958</v>
+      </c>
+      <c r="Y68">
+        <v>7.9407497044601288E-2</v>
+      </c>
+      <c r="Z68">
+        <v>8.5211984813213321E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>1.2000000578384249</v>
+      </c>
+      <c r="E69">
+        <v>1.2059144139577369</v>
+      </c>
+      <c r="F69">
+        <v>4.2973068938831016</v>
+      </c>
+      <c r="G69">
+        <v>1.762028772332864</v>
+      </c>
+      <c r="H69">
+        <v>1.3156840095892051</v>
+      </c>
+      <c r="I69">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="J69">
+        <v>0.62749999761581421</v>
+      </c>
+      <c r="K69">
+        <v>2.3194100337943819</v>
+      </c>
+      <c r="L69">
+        <v>1.015178233141651</v>
+      </c>
+      <c r="M69">
+        <v>0.3400539415916945</v>
+      </c>
+      <c r="N69">
+        <v>0.34000000357627869</v>
+      </c>
+      <c r="P69">
+        <v>0.35000044107437128</v>
+      </c>
+      <c r="Q69">
+        <v>0.30868084057790041</v>
+      </c>
+      <c r="R69">
+        <v>1.910486520715627</v>
+      </c>
+      <c r="S69">
+        <v>0.40616195728677529</v>
+      </c>
+      <c r="T69">
+        <v>0.30282277966312859</v>
+      </c>
+      <c r="U69">
+        <v>0.14160239696502691</v>
+      </c>
+      <c r="V69">
+        <v>0.38888961076736461</v>
+      </c>
+      <c r="W69">
+        <v>1.009243934902508</v>
+      </c>
+      <c r="X69">
+        <v>0.48418191831760249</v>
+      </c>
+      <c r="Y69">
+        <v>7.9408134343081638E-2</v>
+      </c>
+      <c r="Z69">
+        <v>8.5211984813213348E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G71" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="H71" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I71" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L71" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="M71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="N71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3" t="s">
+      <c r="O71" s="2"/>
+      <c r="P71" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P64" s="3" t="s">
+      <c r="Q71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q64" s="3" t="s">
+      <c r="R71" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R64" s="3" t="s">
+      <c r="S71" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S64" s="3" t="s">
+      <c r="T71" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T64" s="3" t="s">
+      <c r="U71" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U64" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V64" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W64" s="3" t="s">
+      <c r="V71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="X64" s="3" t="s">
+      <c r="Y71" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Y64" s="3" t="s">
+      <c r="Z71" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B65" s="4">
+    <row r="72" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C72" s="3">
         <v>1</v>
       </c>
-      <c r="C65" s="1">
-        <v>1.200000057841585</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1.205912539857678</v>
-      </c>
-      <c r="E65" s="1">
-        <v>4.2839197899765527</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1.7620281630865791</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1.315683803959228</v>
-      </c>
-      <c r="H65" s="1">
+      <c r="D72">
+        <v>1.2000000578420651</v>
+      </c>
+      <c r="E72">
+        <v>1.205912267576712</v>
+      </c>
+      <c r="F72">
+        <v>4.2839026257859336</v>
+      </c>
+      <c r="G72">
+        <v>1.7620280722510511</v>
+      </c>
+      <c r="H72">
+        <v>1.3156837733009901</v>
+      </c>
+      <c r="I72">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I65" s="1">
-        <v>0.60949999094009399</v>
-      </c>
-      <c r="J65" s="1">
-        <v>2.3013408921830329</v>
-      </c>
-      <c r="K65" s="1">
-        <v>1.0151781560344511</v>
-      </c>
-      <c r="L65" s="1">
-        <v>0.34005391843736399</v>
-      </c>
-      <c r="M65" s="1">
+      <c r="J72">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="K72">
+        <v>2.3013240342971719</v>
+      </c>
+      <c r="L72">
+        <v>1.0151781464417311</v>
+      </c>
+      <c r="M72">
+        <v>0.34005391555716691</v>
+      </c>
+      <c r="N72">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O65" s="1">
+      <c r="P72">
         <v>0.35000044107437128</v>
       </c>
-      <c r="P65" s="1">
-        <v>0.30866265041037461</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>1.8988708245434609</v>
-      </c>
-      <c r="R65" s="1">
-        <v>0.40614985278370141</v>
-      </c>
-      <c r="S65" s="1">
-        <v>0.30281424843774613</v>
-      </c>
-      <c r="T65" s="1">
+      <c r="Q72">
+        <v>0.30866000679620842</v>
+      </c>
+      <c r="R72">
+        <v>1.897162918211327</v>
+      </c>
+      <c r="S72">
+        <v>0.40614804764217749</v>
+      </c>
+      <c r="T72">
+        <v>0.30281297602864898</v>
+      </c>
+      <c r="U72">
+        <v>0.14160239696502691</v>
+      </c>
+      <c r="V72">
+        <v>0.3749452531337738</v>
+      </c>
+      <c r="W72">
+        <v>0.99627511992087148</v>
+      </c>
+      <c r="X72">
+        <v>0.48417236541131708</v>
+      </c>
+      <c r="Y72">
+        <v>7.9405268396181256E-2</v>
+      </c>
+      <c r="Z72">
+        <v>8.5211984813213376E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>1.2000000578417169</v>
+      </c>
+      <c r="E73">
+        <v>1.2059124634826739</v>
+      </c>
+      <c r="F73">
+        <v>4.2872318773572626</v>
+      </c>
+      <c r="G73">
+        <v>1.762028133618859</v>
+      </c>
+      <c r="H73">
+        <v>1.3156837940137469</v>
+      </c>
+      <c r="I73">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="J73">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="K73">
+        <v>2.3058241656319902</v>
+      </c>
+      <c r="L73">
+        <v>1.0151781561110149</v>
+      </c>
+      <c r="M73">
+        <v>0.34005391846127853</v>
+      </c>
+      <c r="N73">
+        <v>0.34000000357627869</v>
+      </c>
+      <c r="P73">
+        <v>0.35000044107437139</v>
+      </c>
+      <c r="Q73">
+        <v>0.30866190885598249</v>
+      </c>
+      <c r="R73">
+        <v>1.898358176509868</v>
+      </c>
+      <c r="S73">
+        <v>0.40614926745041458</v>
+      </c>
+      <c r="T73">
+        <v>0.30281383562508252</v>
+      </c>
+      <c r="U73">
+        <v>0.14160239696502691</v>
+      </c>
+      <c r="V73">
+        <v>0.37494525313377369</v>
+      </c>
+      <c r="W73">
+        <v>0.99740604178790482</v>
+      </c>
+      <c r="X73">
+        <v>0.48417343116452283</v>
+      </c>
+      <c r="Y73">
+        <v>7.9405588130492255E-2</v>
+      </c>
+      <c r="Z73">
+        <v>8.5211984813213376E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>1.200000057841371</v>
+      </c>
+      <c r="E74">
+        <v>1.205912659432141</v>
+      </c>
+      <c r="F74">
+        <v>4.2905611442204421</v>
+      </c>
+      <c r="G74">
+        <v>1.7620281950004959</v>
+      </c>
+      <c r="H74">
+        <v>1.3156838147312151</v>
+      </c>
+      <c r="I74">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="J74">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="K74">
+        <v>2.3103242373820949</v>
+      </c>
+      <c r="L74">
+        <v>1.015178165781899</v>
+      </c>
+      <c r="M74">
+        <v>0.34005392136553858</v>
+      </c>
+      <c r="N74">
+        <v>0.34000000357627869</v>
+      </c>
+      <c r="P74">
+        <v>0.35000044107437139</v>
+      </c>
+      <c r="Q74">
+        <v>0.30866381123180447</v>
+      </c>
+      <c r="R74">
+        <v>1.899553596643853</v>
+      </c>
+      <c r="S74">
+        <v>0.40615048746703819</v>
+      </c>
+      <c r="T74">
+        <v>0.30281469536643169</v>
+      </c>
+      <c r="U74">
         <v>0.1416023969650268</v>
       </c>
-      <c r="U65" s="1">
-        <v>0.37773406505584711</v>
-      </c>
-      <c r="V65" s="1">
-        <v>0.99796377128292235</v>
-      </c>
-      <c r="W65" s="1">
-        <v>0.48417342287267368</v>
-      </c>
-      <c r="X65" s="1">
-        <v>7.9405585642778831E-2</v>
-      </c>
-      <c r="Y65" s="1">
-        <v>8.5211984813213376E-2</v>
-      </c>
-      <c r="AA65" s="1">
-        <v>-1.0482129656552099E-8</v>
-      </c>
-      <c r="AB65" s="1">
-        <v>1.166558377617257</v>
-      </c>
-      <c r="AC65" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="1">
-        <v>1.966347165010518</v>
+      <c r="V74">
+        <v>0.3749452531337738</v>
+      </c>
+      <c r="W74">
+        <v>0.99853700868861961</v>
+      </c>
+      <c r="X74">
+        <v>0.4841744970276417</v>
+      </c>
+      <c r="Y74">
+        <v>7.9405907897642847E-2</v>
+      </c>
+      <c r="Z74">
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B66" s="2">
-        <v>2</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1.200000057840801</v>
-      </c>
-      <c r="D66" s="1">
-        <v>1.205913008150731</v>
-      </c>
-      <c r="E66" s="1">
-        <v>4.2872663229987271</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1.7620283153238689</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1.315683855341603</v>
-      </c>
-      <c r="H66" s="1">
+    <row r="75" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C75" s="1">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>1.2000000578410599</v>
+      </c>
+      <c r="E75">
+        <v>1.2059128554134591</v>
+      </c>
+      <c r="F75">
+        <v>4.2938905142864936</v>
+      </c>
+      <c r="G75">
+        <v>1.762028256392058</v>
+      </c>
+      <c r="H75">
+        <v>1.315683835451958</v>
+      </c>
+      <c r="I75">
         <v>0.56499999761581421</v>
       </c>
-      <c r="I66" s="1">
-        <v>0.61400002241134644</v>
-      </c>
-      <c r="J66" s="1">
-        <v>2.305858011855356</v>
-      </c>
-      <c r="K66" s="1">
-        <v>1.015178175300901</v>
-      </c>
-      <c r="L66" s="1">
-        <v>0.34005392422284192</v>
-      </c>
-      <c r="M66" s="1">
+      <c r="J75">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="K75">
+        <v>2.3148243687548851</v>
+      </c>
+      <c r="L75">
+        <v>1.0151781754546849</v>
+      </c>
+      <c r="M75">
+        <v>0.34005392427059411</v>
+      </c>
+      <c r="N75">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O66" s="1">
-        <v>0.35000044107437128</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0.30866719661292108</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>1.901774177488097</v>
-      </c>
-      <c r="R66" s="1">
-        <v>0.40615287805902323</v>
-      </c>
-      <c r="S66" s="1">
-        <v>0.30281638066293692</v>
-      </c>
-      <c r="T66" s="1">
+      <c r="P75">
+        <v>0.35000044107437139</v>
+      </c>
+      <c r="Q75">
+        <v>0.30866571381026919</v>
+      </c>
+      <c r="R75">
+        <v>1.900749104548872</v>
+      </c>
+      <c r="S75">
+        <v>0.40615170761343838</v>
+      </c>
+      <c r="T75">
+        <v>0.30281555519676479</v>
+      </c>
+      <c r="U75">
         <v>0.14160239696502691</v>
       </c>
-      <c r="U66" s="1">
-        <v>0.38052290678024292</v>
-      </c>
-      <c r="V66" s="1">
-        <v>1.0007834867479291</v>
-      </c>
-      <c r="W66" s="1">
-        <v>0.48417554626702042</v>
-      </c>
-      <c r="X66" s="1">
-        <v>7.9406222677801508E-2</v>
-      </c>
-      <c r="Y66" s="1">
-        <v>8.5211984813213321E-2</v>
-      </c>
-      <c r="AA66" s="1">
-        <v>-1.0481336962092541E-8</v>
-      </c>
-      <c r="AB66" s="1">
-        <v>1.167472153956375</v>
-      </c>
-      <c r="AC66" s="1">
-        <v>3.9229334717208158E-15</v>
-      </c>
-      <c r="AD66" s="1">
-        <v>1.9694208697737139</v>
+      <c r="V75">
+        <v>0.37494525313377391</v>
+      </c>
+      <c r="W75">
+        <v>0.99966794601174058</v>
+      </c>
+      <c r="X75">
+        <v>0.48417556296430397</v>
+      </c>
+      <c r="Y75">
+        <v>7.9406227687271513E-2</v>
+      </c>
+      <c r="Z75">
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B67" s="2">
-        <v>3</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1.2000000578400309</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1.2059134765933679</v>
-      </c>
-      <c r="E67" s="1">
-        <v>4.2906129883638586</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1.7620284676089051</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1.3156839067401349</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0.6184999942779541</v>
-      </c>
-      <c r="J67" s="1">
-        <v>2.3103752020780082</v>
-      </c>
-      <c r="K67" s="1">
-        <v>1.01517819457423</v>
-      </c>
-      <c r="L67" s="1">
-        <v>0.34005393001044071</v>
-      </c>
-      <c r="M67" s="1">
+    <row r="76" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>1.200000057840735</v>
+      </c>
+      <c r="E76">
+        <v>1.2059130514142771</v>
+      </c>
+      <c r="F76">
+        <v>4.2972198992397397</v>
+      </c>
+      <c r="G76">
+        <v>1.7620283177895359</v>
+      </c>
+      <c r="H76">
+        <v>1.315683856174767</v>
+      </c>
+      <c r="I76">
+        <v>0.5649999976158141</v>
+      </c>
+      <c r="J76">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="K76">
+        <v>2.3193244405352589</v>
+      </c>
+      <c r="L76">
+        <v>1.01517818512872</v>
+      </c>
+      <c r="M76">
+        <v>0.34005392717610972</v>
+      </c>
+      <c r="N76">
         <v>0.34000000357627869</v>
       </c>
-      <c r="O67" s="1">
-        <v>0.35000044107437128</v>
-      </c>
-      <c r="P67" s="1">
-        <v>0.3086717436598268</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>1.9046778801614239</v>
-      </c>
-      <c r="R67" s="1">
-        <v>0.40615590386893002</v>
-      </c>
-      <c r="S67" s="1">
-        <v>0.30281851325266301</v>
-      </c>
-      <c r="T67" s="1">
+      <c r="P76">
+        <v>0.35000044107438799</v>
+      </c>
+      <c r="Q76">
+        <v>0.30866761647141311</v>
+      </c>
+      <c r="R76">
+        <v>1.901944623355595</v>
+      </c>
+      <c r="S76">
+        <v>0.40615292780878809</v>
+      </c>
+      <c r="T76">
+        <v>0.30281641505954487</v>
+      </c>
+      <c r="U76">
         <v>0.14160239696502691</v>
       </c>
-      <c r="U67" s="1">
-        <v>0.38331174850463862</v>
-      </c>
-      <c r="V67" s="1">
-        <v>1.003603389017792</v>
-      </c>
-      <c r="W67" s="1">
-        <v>0.4841776699507141</v>
-      </c>
-      <c r="X67" s="1">
-        <v>7.9406859799447865E-2</v>
-      </c>
-      <c r="Y67" s="1">
-        <v>8.5211984813213348E-2</v>
-      </c>
-      <c r="AA67" s="1">
-        <v>-1.04805407883686E-8</v>
-      </c>
-      <c r="AB67" s="1">
-        <v>1.1683859681549651</v>
-      </c>
-      <c r="AC67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="1">
-        <v>1.972495201658433</v>
-      </c>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B68" s="2">
-        <v>4</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1.2000000578392469</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1.2059139452151539</v>
-      </c>
-      <c r="E68" s="1">
-        <v>4.2939598752400148</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1.762028619951876</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1.3156839581582449</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0.62300002574920654</v>
-      </c>
-      <c r="J68" s="1">
-        <v>2.3148925827575719</v>
-      </c>
-      <c r="K68" s="1">
-        <v>1.0151782138550509</v>
-      </c>
-      <c r="L68" s="1">
-        <v>0.34005393580019633</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="O68" s="1">
-        <v>0.35000044107439587</v>
-      </c>
-      <c r="P68" s="1">
-        <v>0.30867629183690282</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>1.9075821162302511</v>
-      </c>
-      <c r="R68" s="1">
-        <v>0.4061589304064368</v>
-      </c>
-      <c r="S68" s="1">
-        <v>0.30282064634316658</v>
-      </c>
-      <c r="T68" s="1">
-        <v>0.1416023969650268</v>
-      </c>
-      <c r="U68" s="1">
-        <v>0.38610076904296881</v>
-      </c>
-      <c r="V68" s="1">
-        <v>1.006423658266568</v>
-      </c>
-      <c r="W68" s="1">
-        <v>0.48417979404538958</v>
-      </c>
-      <c r="X68" s="1">
-        <v>7.9407497044601288E-2</v>
-      </c>
-      <c r="Y68" s="1">
-        <v>8.5211984813213321E-2</v>
-      </c>
-      <c r="AA68" s="1">
-        <v>-1.0479746946028679E-8</v>
-      </c>
-      <c r="AB68" s="1">
-        <v>1.169299844595145</v>
-      </c>
-      <c r="AC68" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="1">
-        <v>1.975570354312993</v>
-      </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B69" s="2">
-        <v>5</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.2000000578384249</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1.2059144139577369</v>
-      </c>
-      <c r="E69" s="1">
-        <v>4.2973068938831016</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1.762028772332864</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1.3156840095892051</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="I69" s="1">
-        <v>0.62749999761581421</v>
-      </c>
-      <c r="J69" s="1">
-        <v>2.3194100337943819</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1.015178233141651</v>
-      </c>
-      <c r="L69" s="1">
-        <v>0.3400539415916945</v>
-      </c>
-      <c r="M69" s="1">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="O69" s="1">
-        <v>0.35000044107437128</v>
-      </c>
-      <c r="P69" s="1">
-        <v>0.30868084057790041</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>1.910486520715627</v>
-      </c>
-      <c r="R69" s="1">
-        <v>0.40616195728677529</v>
-      </c>
-      <c r="S69" s="1">
-        <v>0.30282277966312859</v>
-      </c>
-      <c r="T69" s="1">
-        <v>0.14160239696502691</v>
-      </c>
-      <c r="U69" s="1">
-        <v>0.38888961076736461</v>
-      </c>
-      <c r="V69" s="1">
-        <v>1.009243934902508</v>
-      </c>
-      <c r="W69" s="1">
-        <v>0.48418191831760249</v>
-      </c>
-      <c r="X69" s="1">
-        <v>7.9408134343081638E-2</v>
-      </c>
-      <c r="Y69" s="1">
-        <v>8.5211984813213348E-2</v>
-      </c>
-      <c r="AA69" s="1">
-        <v>-1.0478948544456619E-8</v>
-      </c>
-      <c r="AB69" s="1">
-        <v>1.170213758682302</v>
-      </c>
-      <c r="AC69" s="1">
-        <v>3.6955996271491052E-15</v>
-      </c>
-      <c r="AD69" s="1">
-        <v>1.978645944085343</v>
-      </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q71" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R71" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S71" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U71" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V71" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W71" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y71" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B72" s="4">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1.2000000578420651</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1.205912267576712</v>
-      </c>
-      <c r="E72" s="1">
-        <v>4.2839026257859336</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1.7620280722510511</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1.3156837733009901</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0.60500001907348633</v>
-      </c>
-      <c r="J72" s="1">
-        <v>2.3013240342971719</v>
-      </c>
-      <c r="K72" s="1">
-        <v>1.0151781464417311</v>
-      </c>
-      <c r="L72" s="1">
-        <v>0.34005391555716691</v>
-      </c>
-      <c r="M72" s="1">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="O72" s="1">
-        <v>0.35000044107437128</v>
-      </c>
-      <c r="P72" s="1">
-        <v>0.30866000679620842</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>1.897162918211327</v>
-      </c>
-      <c r="R72" s="1">
-        <v>0.40614804764217749</v>
-      </c>
-      <c r="S72" s="1">
-        <v>0.30281297602864898</v>
-      </c>
-      <c r="T72" s="1">
-        <v>0.14160239696502691</v>
-      </c>
-      <c r="U72" s="1">
-        <v>0.3749452531337738</v>
-      </c>
-      <c r="V72" s="1">
-        <v>0.99627511992087148</v>
-      </c>
-      <c r="W72" s="1">
-        <v>0.48417236541131708</v>
-      </c>
-      <c r="X72" s="1">
-        <v>7.9405268396181256E-2</v>
-      </c>
-      <c r="Y72" s="1">
-        <v>8.5211984813213376E-2</v>
-      </c>
-      <c r="AA72" s="1">
-        <v>-1.048258547053789E-8</v>
-      </c>
-      <c r="AB72" s="1">
-        <v>1.166553158184463</v>
-      </c>
-      <c r="AC72" s="1">
-        <v>1.7749419572738021E-14</v>
-      </c>
-      <c r="AD72" s="1">
-        <v>1.9645547994979891</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B73" s="2">
-        <v>2</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1.2000000578417169</v>
-      </c>
-      <c r="D73" s="1">
-        <v>1.2059124634826739</v>
-      </c>
-      <c r="E73" s="1">
-        <v>4.2872318773572626</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1.762028133618859</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1.3156837940137469</v>
-      </c>
-      <c r="H73" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0.60500001907348633</v>
-      </c>
-      <c r="J73" s="1">
-        <v>2.3058241656319902</v>
-      </c>
-      <c r="K73" s="1">
-        <v>1.0151781561110149</v>
-      </c>
-      <c r="L73" s="1">
-        <v>0.34005391846127853</v>
-      </c>
-      <c r="M73" s="1">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="O73" s="1">
-        <v>0.35000044107437139</v>
-      </c>
-      <c r="P73" s="1">
-        <v>0.30866190885598249</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>1.898358176509868</v>
-      </c>
-      <c r="R73" s="1">
-        <v>0.40614926745041458</v>
-      </c>
-      <c r="S73" s="1">
-        <v>0.30281383562508252</v>
-      </c>
-      <c r="T73" s="1">
-        <v>0.14160239696502691</v>
-      </c>
-      <c r="U73" s="1">
-        <v>0.37494525313377369</v>
-      </c>
-      <c r="V73" s="1">
-        <v>0.99740604178790482</v>
-      </c>
-      <c r="W73" s="1">
-        <v>0.48417343116452283</v>
-      </c>
-      <c r="X73" s="1">
-        <v>7.9405588130492255E-2</v>
-      </c>
-      <c r="Y73" s="1">
-        <v>8.5211984813213376E-2</v>
-      </c>
-      <c r="AA73" s="1">
-        <v>-1.0482253020830531E-8</v>
-      </c>
-      <c r="AB73" s="1">
-        <v>1.1674616817924961</v>
-      </c>
-      <c r="AC73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="1">
-        <v>1.9658357433736879</v>
-      </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B74" s="2">
-        <v>3</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1.200000057841371</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1.205912659432141</v>
-      </c>
-      <c r="E74" s="1">
-        <v>4.2905611442204421</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1.7620281950004959</v>
-      </c>
-      <c r="G74" s="1">
-        <v>1.3156838147312151</v>
-      </c>
-      <c r="H74" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="I74" s="1">
-        <v>0.60500001907348633</v>
-      </c>
-      <c r="J74" s="1">
-        <v>2.3103242373820949</v>
-      </c>
-      <c r="K74" s="1">
-        <v>1.015178165781899</v>
-      </c>
-      <c r="L74" s="1">
-        <v>0.34005392136553858</v>
-      </c>
-      <c r="M74" s="1">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="O74" s="1">
-        <v>0.35000044107437139</v>
-      </c>
-      <c r="P74" s="1">
-        <v>0.30866381123180447</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>1.899553596643853</v>
-      </c>
-      <c r="R74" s="1">
-        <v>0.40615048746703819</v>
-      </c>
-      <c r="S74" s="1">
-        <v>0.30281469536643169</v>
-      </c>
-      <c r="T74" s="1">
-        <v>0.1416023969650268</v>
-      </c>
-      <c r="U74" s="1">
-        <v>0.3749452531337738</v>
-      </c>
-      <c r="V74" s="1">
-        <v>0.99853700868861961</v>
-      </c>
-      <c r="W74" s="1">
-        <v>0.4841744970276417</v>
-      </c>
-      <c r="X74" s="1">
-        <v>7.9405907897642847E-2</v>
-      </c>
-      <c r="Y74" s="1">
-        <v>8.5211984813213348E-2</v>
-      </c>
-      <c r="AA74" s="1">
-        <v>-1.0481929704907419E-8</v>
-      </c>
-      <c r="AB74" s="1">
-        <v>1.168370210018175</v>
-      </c>
-      <c r="AC74" s="1">
-        <v>1.090844425127035E-14</v>
-      </c>
-      <c r="AD74" s="1">
-        <v>1.967116919315018</v>
-      </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B75" s="2">
-        <v>4</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1.2000000578410599</v>
-      </c>
-      <c r="D75" s="1">
-        <v>1.2059128554134591</v>
-      </c>
-      <c r="E75" s="1">
-        <v>4.2938905142864936</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1.762028256392058</v>
-      </c>
-      <c r="G75" s="1">
-        <v>1.315683835451958</v>
-      </c>
-      <c r="H75" s="1">
-        <v>0.56499999761581421</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0.60500001907348633</v>
-      </c>
-      <c r="J75" s="1">
-        <v>2.3148243687548851</v>
-      </c>
-      <c r="K75" s="1">
-        <v>1.0151781754546849</v>
-      </c>
-      <c r="L75" s="1">
-        <v>0.34005392427059411</v>
-      </c>
-      <c r="M75" s="1">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="O75" s="1">
-        <v>0.35000044107437139</v>
-      </c>
-      <c r="P75" s="1">
-        <v>0.30866571381026919</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>1.900749104548872</v>
-      </c>
-      <c r="R75" s="1">
-        <v>0.40615170761343838</v>
-      </c>
-      <c r="S75" s="1">
-        <v>0.30281555519676479</v>
-      </c>
-      <c r="T75" s="1">
-        <v>0.14160239696502691</v>
-      </c>
-      <c r="U75" s="1">
-        <v>0.37494525313377391</v>
-      </c>
-      <c r="V75" s="1">
-        <v>0.99966794601174058</v>
-      </c>
-      <c r="W75" s="1">
-        <v>0.48417556296430397</v>
-      </c>
-      <c r="X75" s="1">
-        <v>7.9406227687271513E-2</v>
-      </c>
-      <c r="Y75" s="1">
-        <v>8.5211984813213348E-2</v>
-      </c>
-      <c r="AA75" s="1">
-        <v>-1.048159170810362E-8</v>
-      </c>
-      <c r="AB75" s="1">
-        <v>1.169278766818465</v>
-      </c>
-      <c r="AC75" s="1">
-        <v>8.2772537125942617E-15</v>
-      </c>
-      <c r="AD75" s="1">
-        <v>1.9683982503230339</v>
-      </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B76" s="2">
-        <v>5</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1.200000057840735</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1.2059130514142771</v>
-      </c>
-      <c r="E76" s="1">
-        <v>4.2972198992397397</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1.7620283177895359</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1.315683856174767</v>
-      </c>
-      <c r="H76" s="1">
-        <v>0.5649999976158141</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0.60500001907348633</v>
-      </c>
-      <c r="J76" s="1">
-        <v>2.3193244405352589</v>
-      </c>
-      <c r="K76" s="1">
-        <v>1.01517818512872</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0.34005392717610972</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="O76" s="1">
-        <v>0.35000044107438799</v>
-      </c>
-      <c r="P76" s="1">
-        <v>0.30866761647141311</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>1.901944623355595</v>
-      </c>
-      <c r="R76" s="1">
-        <v>0.40615292780878809</v>
-      </c>
-      <c r="S76" s="1">
-        <v>0.30281641505954487</v>
-      </c>
-      <c r="T76" s="1">
-        <v>0.14160239696502691</v>
-      </c>
-      <c r="U76" s="1">
+      <c r="V76">
         <v>0.37494525313377358</v>
       </c>
-      <c r="V76" s="1">
+      <c r="W76">
         <v>1.000798779085837</v>
       </c>
-      <c r="W76" s="1">
+      <c r="X76">
         <v>0.48417662891739122</v>
       </c>
-      <c r="X76" s="1">
+      <c r="Y76">
         <v>7.9406547481751966E-2</v>
       </c>
-      <c r="Y76" s="1">
+      <c r="Z76">
         <v>8.5211984813213293E-2</v>
-      </c>
-      <c r="AA76" s="1">
-        <v>-1.04812546784875E-8</v>
-      </c>
-      <c r="AB76" s="1">
-        <v>1.170187328078711</v>
-      </c>
-      <c r="AC76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="1">
-        <v>1.9696796550317539</v>
       </c>
     </row>
   </sheetData>

--- a/DatenfürDoku.xlsx
+++ b/DatenfürDoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\SS2024\Energiesysteme\Power\Netzsimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F3C082-5A92-40DF-AF3E-64E953A47750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C10CA-49CD-4CCE-B720-7377AD288582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
   <si>
     <t>T1</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>T11</t>
-  </si>
-  <si>
-    <t>Term conv1</t>
-  </si>
-  <si>
-    <t>Term conv2</t>
   </si>
   <si>
     <t>Magnitude</t>
@@ -187,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +195,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -247,15 +246,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -396,37 +413,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.97468451917978804</c:v>
+                  <c:v>0.97294866940899172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98072683976110575</c:v>
+                  <c:v>0.98073803970555684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98971813545056098</c:v>
+                  <c:v>0.98054518833955662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98863708222088031</c:v>
+                  <c:v>0.97900228428259162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98740049532502017</c:v>
+                  <c:v>0.9880124896220378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98593810320023523</c:v>
+                  <c:v>0.98700493180418025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98120037338046595</c:v>
+                  <c:v>0.98576617448254444</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98358644367053183</c:v>
+                  <c:v>0.98430121542905213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98289227775280297</c:v>
+                  <c:v>0.97947902210067628</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98245712417494802</c:v>
+                  <c:v>0.98186945104303791</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98226461680274357</c:v>
+                  <c:v>0.98117402129431597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,19 +789,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3013408921830329</c:v>
+                  <c:v>2.3013487664263161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.305858011855356</c:v>
+                  <c:v>2.3058659752527979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3103752020780082</c:v>
+                  <c:v>2.3103832555038109</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3148925827575719</c:v>
+                  <c:v>2.3149007270927511</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3194100337943819</c:v>
+                  <c:v>2.319418269919491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,19 +858,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3013240342971719</c:v>
+                  <c:v>2.3013318362622108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3058241656319902</c:v>
+                  <c:v>2.3058319836193242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3103242373820949</c:v>
+                  <c:v>2.3103320714112479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3148243687548851</c:v>
+                  <c:v>2.3148322188440291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3193244405352589</c:v>
+                  <c:v>2.3193323067027252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,19 +1346,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.37773406505584711</c:v>
+                  <c:v>0.37773406505584722</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.38052290678024292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38331174850463862</c:v>
+                  <c:v>0.38331174850463873</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38610076904296881</c:v>
+                  <c:v>0.38610076904296858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38888961076736461</c:v>
+                  <c:v>0.3888896107673645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,19 +1415,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3749452531337738</c:v>
+                  <c:v>0.37494525313377369</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.37494525313377369</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3749452531337738</c:v>
+                  <c:v>0.37494525313377391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37494525313377391</c:v>
+                  <c:v>0.37494525313377369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37494525313377358</c:v>
+                  <c:v>0.37494525313377369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,19 +1912,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99796377128292235</c:v>
+                  <c:v>0.99820361177470884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0007834867479291</c:v>
+                  <c:v>1.00102389832714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.003603389017792</c:v>
+                  <c:v>1.0038443733466449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.006423658266568</c:v>
+                  <c:v>1.0066652170321491</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.009243934902508</c:v>
+                  <c:v>1.0094860697750609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1964,19 +1981,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.99627511992087148</c:v>
+                  <c:v>0.99651484900118825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99740604178790482</c:v>
+                  <c:v>0.99764622928238533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99853700868861961</c:v>
+                  <c:v>0.99877765499470583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99966794601174058</c:v>
+                  <c:v>0.99990905153689202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.000798779085837</c:v>
+                  <c:v>1.0010403442271829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2431,37 +2448,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>147.64820798384699</c:v>
+                  <c:v>147.87924931180109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.9511913603225</c:v>
+                  <c:v>148.38405666066811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>148.44025255048149</c:v>
+                  <c:v>148.37411490247229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>148.42104880668941</c:v>
+                  <c:v>148.17463841301819</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>148.35403118710619</c:v>
+                  <c:v>148.65218309135051</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>148.27465072604909</c:v>
+                  <c:v>148.62325798889361</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>148.14900558929051</c:v>
+                  <c:v>148.55786061136209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>148.21350356511411</c:v>
+                  <c:v>148.48040543161241</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148.1897966808657</c:v>
+                  <c:v>148.36802158058359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148.16544167199871</c:v>
+                  <c:v>148.43093984380869</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148.15524442620759</c:v>
+                  <c:v>148.40781632820779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,37 +2803,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2000000578292109</c:v>
+                  <c:v>1.200000047683716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.20591984665145</c:v>
+                  <c:v>0.340052614225545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6453220458067044</c:v>
+                  <c:v>0.34000000357627869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.762031815941028</c:v>
+                  <c:v>1.2057662120292809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.31568503696413</c:v>
+                  <c:v>4.8028770194650239</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.7619809582748029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3156678721234769</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.56499999761581421</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.60500001907348633</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2968263434212979</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.015178367423216</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34005398209900611</c:v>
+                  <c:v>2.2967793011996021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34000000357627869</c:v>
+                  <c:v>1.0151738126550729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,34 +3161,34 @@
                   <c:v>0.35000044107437128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30873350692214557</c:v>
+                  <c:v>7.9258450144790271E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.896697893902983</c:v>
+                  <c:v>8.5211984813213348E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40622225236863818</c:v>
+                  <c:v>0.30721166553903467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30286530933753048</c:v>
+                  <c:v>1.8844514036243709</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.40519131844752132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30213798459695929</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.14160239696502691</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.3749452531337738</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99521800757223655</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48419666703518333</c:v>
+                  <c:v>0.37494525313377369</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9412559089752144E-2</c:v>
+                  <c:v>0.99372609011483748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.5211984813213321E-2</c:v>
+                  <c:v>0.48368298402748278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3499,34 +3516,34 @@
                   <c:v>1.200000047683716</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.2059373866864029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2348802388508613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7620363074486869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3156865526880901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56499999761581421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60500001907348633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2968317122319011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0151788867797571</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.34005413749725649</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>0.34000000357627858</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2059373866864029</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2348802388508613</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7620363074486869</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3156865526880901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56499999761581421</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.60500001907348633</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2968317122319011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0151788867797571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3854,34 +3871,34 @@
                   <c:v>0.35000044107437128</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.30890314353497528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8971676328815981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40631099028413248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30292790861817981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14160239696502691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3749452531337738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99538381930907649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48425370503612991</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7.9429670677900577E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>8.5211984813213293E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30890314353497528</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8971676328815981</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40631099028413248</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.30292790861817981</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14160239696502691</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3749452531337738</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.99538381930907649</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.48425370503612991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4209,34 +4226,34 @@
                   <c:v>0.95896669352314179</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.96511275127711538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97427764205652201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9737010161414823</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97244430066627219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97095810219423839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96561569241460055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96804178116840889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96733601230120236</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.96689325893121203</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>0.96669759296672053</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96511275127711538</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97427764205652201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9737010161414823</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.97244430066627219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.97095810219423839</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96561569241460055</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.96804178116840889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.96733601230120236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4564,34 +4581,34 @@
                   <c:v>146.3947957152028</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>146.69864664080609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.1890228124839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147.19683255721969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147.1296717771624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147.05012118985749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146.89696685922789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>146.96164523708649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146.93787173597511</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>146.91344874072641</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>146.90322231838039</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>146.69864664080609</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>147.1890228124839</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>147.19683255721969</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>147.1296717771624</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>147.05012118985749</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>146.89696685922789</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>146.96164523708649</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>146.93787173597511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5006,7 +5023,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.60500001907348633</c:v>
+                  <c:v>0.60500001907348622</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.60500001907348633</c:v>
@@ -12689,10 +12706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:Z76"/>
+  <dimension ref="C2:Z119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12704,16 +12721,16 @@
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
@@ -12721,13 +12738,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.97468451917978804</v>
+        <v>0.97294866940899172</v>
       </c>
       <c r="E3">
-        <v>147.64820798384699</v>
+        <v>147.87924931180109</v>
       </c>
       <c r="F3">
-        <v>1.2000000578292109</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="G3">
         <v>0.35000044107437128</v>
@@ -12738,16 +12755,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.98072683976110575</v>
+        <v>0.98073803970555684</v>
       </c>
       <c r="E4">
-        <v>147.9511913603225</v>
+        <v>148.38405666066811</v>
       </c>
       <c r="F4">
-        <v>1.20591984665145</v>
+        <v>0.340052614225545</v>
       </c>
       <c r="G4">
-        <v>0.30873350692214557</v>
+        <v>7.9258450144790271E-2</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
@@ -12755,16 +12772,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.98971813545056098</v>
+        <v>0.98054518833955662</v>
       </c>
       <c r="E5">
-        <v>148.44025255048149</v>
+        <v>148.37411490247229</v>
       </c>
       <c r="F5">
-        <v>4.6453220458067044</v>
+        <v>0.34000000357627869</v>
       </c>
       <c r="G5">
-        <v>1.896697893902983</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -12772,16 +12789,16 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>0.98863708222088031</v>
+        <v>0.97900228428259162</v>
       </c>
       <c r="E6">
-        <v>148.42104880668941</v>
+        <v>148.17463841301819</v>
       </c>
       <c r="F6">
-        <v>1.762031815941028</v>
+        <v>1.2057662120292809</v>
       </c>
       <c r="G6">
-        <v>0.40622225236863818</v>
+        <v>0.30721166553903467</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -12789,16 +12806,16 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>0.98740049532502017</v>
+        <v>0.9880124896220378</v>
       </c>
       <c r="E7">
-        <v>148.35403118710619</v>
+        <v>148.65218309135051</v>
       </c>
       <c r="F7">
-        <v>1.31568503696413</v>
+        <v>4.8028770194650239</v>
       </c>
       <c r="G7">
-        <v>0.30286530933753048</v>
+        <v>1.8844514036243709</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
@@ -12806,16 +12823,16 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.98593810320023523</v>
+        <v>0.98700493180418025</v>
       </c>
       <c r="E8">
-        <v>148.27465072604909</v>
+        <v>148.62325798889361</v>
       </c>
       <c r="F8">
-        <v>0.56499999761581421</v>
+        <v>1.7619809582748029</v>
       </c>
       <c r="G8">
-        <v>0.14160239696502691</v>
+        <v>0.40519131844752132</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
@@ -12823,16 +12840,16 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>0.98120037338046595</v>
+        <v>0.98576617448254444</v>
       </c>
       <c r="E9">
-        <v>148.14900558929051</v>
+        <v>148.55786061136209</v>
       </c>
       <c r="F9">
-        <v>0.60500001907348633</v>
+        <v>1.3156678721234769</v>
       </c>
       <c r="G9">
-        <v>0.3749452531337738</v>
+        <v>0.30213798459695929</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
@@ -12840,16 +12857,16 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>0.98358644367053183</v>
+        <v>0.98430121542905213</v>
       </c>
       <c r="E10">
-        <v>148.21350356511411</v>
+        <v>148.48040543161241</v>
       </c>
       <c r="F10">
-        <v>2.2968263434212979</v>
+        <v>0.56499999761581421</v>
       </c>
       <c r="G10">
-        <v>0.99521800757223655</v>
+        <v>0.14160239696502691</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
@@ -12857,16 +12874,16 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.98289227775280297</v>
+        <v>0.97947902210067628</v>
       </c>
       <c r="E11">
-        <v>148.1897966808657</v>
+        <v>148.36802158058359</v>
       </c>
       <c r="F11">
-        <v>1.015178367423216</v>
+        <v>0.60500001907348633</v>
       </c>
       <c r="G11">
-        <v>0.48419666703518333</v>
+        <v>0.37494525313377369</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
@@ -12874,16 +12891,16 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>0.98245712417494802</v>
+        <v>0.98186945104303791</v>
       </c>
       <c r="E12">
-        <v>148.16544167199871</v>
+        <v>148.43093984380869</v>
       </c>
       <c r="F12">
-        <v>0.34005398209900611</v>
+        <v>2.2967793011996021</v>
       </c>
       <c r="G12">
-        <v>7.9412559089752144E-2</v>
+        <v>0.99372609011483748</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
@@ -12891,122 +12908,88 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>0.98226461680274357</v>
+        <v>0.98117402129431597</v>
       </c>
       <c r="E13">
-        <v>148.15524442620759</v>
+        <v>148.40781632820779</v>
       </c>
       <c r="F13">
-        <v>0.34000000357627869</v>
+        <v>1.0151738126550729</v>
       </c>
       <c r="G13">
-        <v>8.5211984813213321E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>2.2604556467455201</v>
-      </c>
-      <c r="G14">
-        <v>2.0112873974806291</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>-2.655453208657213E-2</v>
-      </c>
-      <c r="E15">
-        <v>-1.559707351227712</v>
-      </c>
-      <c r="F15">
-        <v>-1.0469746873285401E-8</v>
-      </c>
-      <c r="G15">
-        <v>1.49058376130301E-14</v>
+        <v>0.48368298402748278</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
@@ -13014,70 +12997,70 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1.200000058096357</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E21">
-        <v>1.205937793705969</v>
+        <v>1.2057714139359259</v>
       </c>
       <c r="F21">
-        <v>7.2393822622526516</v>
+        <v>7.2750155061595354</v>
       </c>
       <c r="G21">
-        <v>1.7620364432205531</v>
+        <v>1.761981019619796</v>
       </c>
       <c r="H21">
-        <v>1.315686598513492</v>
+        <v>1.315667893162707</v>
       </c>
       <c r="I21">
-        <v>0.56499999761581432</v>
+        <v>0.56499999761581421</v>
       </c>
       <c r="J21">
         <v>0.60500001907348633</v>
       </c>
       <c r="K21">
-        <v>2.2968318368035598</v>
+        <v>2.2967808987146752</v>
       </c>
       <c r="L21">
-        <v>1.0151788988397239</v>
+        <v>1.01517396788314</v>
       </c>
       <c r="M21">
-        <v>0.34005414111799548</v>
+        <v>0.3400526615728553</v>
       </c>
       <c r="N21">
         <v>0.34000000357627869</v>
       </c>
       <c r="P21">
-        <v>0.35000044107437139</v>
+        <v>0.35000044107437128</v>
       </c>
       <c r="Q21">
-        <v>0.30890706705278792</v>
+        <v>0.3072642825897261</v>
       </c>
       <c r="R21">
-        <v>1.8993665345250541</v>
+        <v>1.8863045604925039</v>
       </c>
       <c r="S21">
-        <v>0.40631380239337522</v>
+        <v>0.40519264211776762</v>
       </c>
       <c r="T21">
-        <v>0.30292979572072237</v>
+        <v>0.302138830312219</v>
       </c>
       <c r="U21">
         <v>0.14160239696502691</v>
       </c>
       <c r="V21">
-        <v>0.37494525313377369</v>
+        <v>0.3749452531337738</v>
       </c>
       <c r="W21">
-        <v>0.99538765320156242</v>
+        <v>0.99377780288426987</v>
       </c>
       <c r="X21">
-        <v>0.48425502372624402</v>
+        <v>0.48370080278543492</v>
       </c>
       <c r="Y21">
-        <v>7.9430066291871271E-2</v>
+        <v>7.9263796033483297E-2</v>
       </c>
       <c r="Z21">
-        <v>8.5211984813213376E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
@@ -13085,70 +13068,70 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>1.2000000580960599</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E22">
-        <v>1.205938200874296</v>
+        <v>1.2057715866219521</v>
       </c>
       <c r="F22">
-        <v>7.2438843459172606</v>
+        <v>7.2787188273253722</v>
       </c>
       <c r="G22">
-        <v>1.762036579040732</v>
+        <v>1.7619810748053799</v>
       </c>
       <c r="H22">
-        <v>1.315686644355319</v>
+        <v>1.315667911788281</v>
       </c>
       <c r="I22">
-        <v>0.56499999761581421</v>
+        <v>0.5649999976158141</v>
       </c>
       <c r="J22">
         <v>0.60500001907348633</v>
       </c>
       <c r="K22">
-        <v>2.296831961420287</v>
+        <v>2.296780951621415</v>
       </c>
       <c r="L22">
-        <v>1.01517891090414</v>
+        <v>1.015173973006505</v>
       </c>
       <c r="M22">
-        <v>0.34005414474016399</v>
+        <v>0.34005266311281651</v>
       </c>
       <c r="N22">
         <v>0.34000000357627869</v>
       </c>
       <c r="P22">
-        <v>0.35000044107437123</v>
+        <v>0.35000044107437128</v>
       </c>
       <c r="Q22">
-        <v>0.30891099155041879</v>
+        <v>0.3072660290850075</v>
       </c>
       <c r="R22">
-        <v>1.901565664416446</v>
+        <v>1.8884925427647179</v>
       </c>
       <c r="S22">
-        <v>0.4063164810199914</v>
+        <v>0.40519378734222611</v>
       </c>
       <c r="T22">
-        <v>0.30293168325615177</v>
+        <v>0.30213963875669769</v>
       </c>
       <c r="U22">
-        <v>0.1416023969650268</v>
+        <v>0.14160239696502691</v>
       </c>
       <c r="V22">
-        <v>0.3749452531337738</v>
+        <v>0.37494525313377369</v>
       </c>
       <c r="W22">
-        <v>0.99539148799794841</v>
+        <v>0.99377951916255869</v>
       </c>
       <c r="X22">
-        <v>0.48425634272109652</v>
+        <v>0.48370139416848001</v>
       </c>
       <c r="Y22">
-        <v>7.9430461997235607E-2</v>
+        <v>7.9263973453524872E-2</v>
       </c>
       <c r="Z22">
-        <v>8.5211984813213348E-2</v>
+        <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
@@ -13156,19 +13139,19 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>1.2000000580957151</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E23">
-        <v>1.2059386081440919</v>
+        <v>1.205771759318748</v>
       </c>
       <c r="F23">
-        <v>7.2483863704851572</v>
+        <v>7.2824220997498408</v>
       </c>
       <c r="G23">
-        <v>1.762036714894148</v>
+        <v>1.761981129994058</v>
       </c>
       <c r="H23">
-        <v>1.315686690208365</v>
+        <v>1.3156679304148879</v>
       </c>
       <c r="I23">
         <v>0.56499999761581421</v>
@@ -13177,49 +13160,49 @@
         <v>0.60500001907348633</v>
       </c>
       <c r="K23">
-        <v>2.2968320860681519</v>
+        <v>2.296781004531343</v>
       </c>
       <c r="L23">
-        <v>1.0151789229713899</v>
+        <v>1.015173978130405</v>
       </c>
       <c r="M23">
-        <v>0.34005414836336401</v>
+        <v>0.34005266465274769</v>
       </c>
       <c r="N23">
         <v>0.34000000357627869</v>
       </c>
       <c r="P23">
-        <v>0.3500004410743715</v>
+        <v>0.35000044107437123</v>
       </c>
       <c r="Q23">
-        <v>0.30891491657136749</v>
+        <v>0.30726777560012819</v>
       </c>
       <c r="R23">
-        <v>1.9037647372926061</v>
+        <v>1.890680466943208</v>
       </c>
       <c r="S23">
-        <v>0.40631915997520868</v>
+        <v>0.4051949325756784</v>
       </c>
       <c r="T23">
-        <v>0.30293357101377222</v>
+        <v>0.30214044720567179</v>
       </c>
       <c r="U23">
-        <v>0.14160239696502691</v>
+        <v>0.1416023969650268</v>
       </c>
       <c r="V23">
         <v>0.3749452531337738</v>
       </c>
       <c r="W23">
-        <v>0.99539532325129909</v>
+        <v>0.9937812354501373</v>
       </c>
       <c r="X23">
-        <v>0.4842576618678196</v>
+        <v>0.48370198555354971</v>
       </c>
       <c r="Y23">
-        <v>7.9430857747781386E-2</v>
+        <v>7.9264150874003958E-2</v>
       </c>
       <c r="Z23">
-        <v>8.5211984813213321E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
@@ -13227,19 +13210,19 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>1.2000000580954311</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E24">
-        <v>1.205939015511903</v>
+        <v>1.205771932024291</v>
       </c>
       <c r="F24">
-        <v>7.2528884551484119</v>
+        <v>7.2861254215181361</v>
       </c>
       <c r="G24">
-        <v>1.76203685077994</v>
+        <v>1.761981185185328</v>
       </c>
       <c r="H24">
-        <v>1.315686736072343</v>
+        <v>1.3156679490423719</v>
       </c>
       <c r="I24">
         <v>0.56499999761581421</v>
@@ -13248,31 +13231,31 @@
         <v>0.60500001907348633</v>
       </c>
       <c r="K24">
-        <v>2.296832210745567</v>
+        <v>2.296781057444242</v>
       </c>
       <c r="L24">
-        <v>1.0151789350415881</v>
+        <v>1.0151739832547519</v>
       </c>
       <c r="M24">
-        <v>0.34005415198730488</v>
+        <v>0.34005266619283292</v>
       </c>
       <c r="N24">
         <v>0.34000000357627869</v>
       </c>
       <c r="P24">
-        <v>0.35000044107437123</v>
+        <v>0.35000044107437128</v>
       </c>
       <c r="Q24">
-        <v>0.30891884208264131</v>
+        <v>0.30726952211466751</v>
       </c>
       <c r="R24">
-        <v>1.9059637231866899</v>
+        <v>1.892868303110129</v>
       </c>
       <c r="S24">
-        <v>0.4063218392370439</v>
+        <v>0.40519607780228822</v>
       </c>
       <c r="T24">
-        <v>0.30293545897784058</v>
+        <v>0.3021412556482741</v>
       </c>
       <c r="U24">
         <v>0.14160239696502691</v>
@@ -13281,16 +13264,16 @@
         <v>0.37494525313377391</v>
       </c>
       <c r="W24">
-        <v>0.99539915893084796</v>
+        <v>0.99378295172709552</v>
       </c>
       <c r="X24">
-        <v>0.4842589811550756</v>
+        <v>0.48370257693400781</v>
       </c>
       <c r="Y24">
-        <v>7.9431253540630853E-2</v>
+        <v>7.9264328292754538E-2</v>
       </c>
       <c r="Z24">
-        <v>8.5211984813213321E-2</v>
+        <v>8.5211984813213404E-2</v>
       </c>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.25">
@@ -13298,19 +13281,19 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>1.200000058095094</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E25">
-        <v>1.205939422995755</v>
+        <v>1.205772104747278</v>
       </c>
       <c r="F25">
-        <v>7.2573904807880254</v>
+        <v>7.2898286945636563</v>
       </c>
       <c r="G25">
-        <v>1.7620369867041521</v>
+        <v>1.76198124038212</v>
       </c>
       <c r="H25">
-        <v>1.3156867819491971</v>
+        <v>1.315667967671676</v>
       </c>
       <c r="I25">
         <v>0.56499999761581421</v>
@@ -13319,49 +13302,49 @@
         <v>0.60500001907348633</v>
       </c>
       <c r="K25">
-        <v>2.296832335458368</v>
+        <v>2.2967811103622688</v>
       </c>
       <c r="L25">
-        <v>1.015178947115122</v>
+        <v>1.015173988379467</v>
       </c>
       <c r="M25">
-        <v>0.34005415561250069</v>
+        <v>0.34005266773331871</v>
       </c>
       <c r="N25">
         <v>0.34000000357627869</v>
       </c>
       <c r="P25">
-        <v>0.35000044107437139</v>
+        <v>0.35000044107437128</v>
       </c>
       <c r="Q25">
-        <v>0.30892276825750969</v>
+        <v>0.30727126871724819</v>
       </c>
       <c r="R25">
-        <v>1.908162742171815</v>
+        <v>1.895056170937071</v>
       </c>
       <c r="S25">
-        <v>0.40632451892312771</v>
+        <v>0.4051972230845492</v>
       </c>
       <c r="T25">
-        <v>0.30293734723156412</v>
+        <v>0.30214206412830602</v>
       </c>
       <c r="U25">
-        <v>0.1416023969650268</v>
+        <v>0.14160239696502691</v>
       </c>
       <c r="V25">
-        <v>0.37494525313377369</v>
+        <v>0.3749452531337738</v>
       </c>
       <c r="W25">
-        <v>0.99540299520439157</v>
+        <v>0.99378466808100674</v>
       </c>
       <c r="X25">
-        <v>0.48426030064083547</v>
+        <v>0.48370316834005322</v>
       </c>
       <c r="Y25">
-        <v>7.9431649393133574E-2</v>
+        <v>7.9264505719617517E-2</v>
       </c>
       <c r="Z25">
-        <v>8.5211984813213348E-2</v>
+        <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
@@ -13369,34 +13352,34 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>1.200000058094808</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E26">
-        <v>1.205939830597146</v>
+        <v>1.2057722774879871</v>
       </c>
       <c r="F26">
-        <v>7.2618925666209231</v>
+        <v>7.2935320169778164</v>
       </c>
       <c r="G26">
-        <v>1.7620371226667171</v>
+        <v>1.761981295584496</v>
       </c>
       <c r="H26">
-        <v>1.3156868278391181</v>
+        <v>1.3156679863028959</v>
       </c>
       <c r="I26">
         <v>0.56499999761581421</v>
       </c>
       <c r="J26">
-        <v>0.60500001907348644</v>
+        <v>0.60500001907348633</v>
       </c>
       <c r="K26">
-        <v>2.2968324602072472</v>
+        <v>2.2967811632857469</v>
       </c>
       <c r="L26">
-        <v>1.0151789591923339</v>
+        <v>1.0151739935046331</v>
       </c>
       <c r="M26">
-        <v>0.34005415923845789</v>
+        <v>0.34005266927353472</v>
       </c>
       <c r="N26">
         <v>0.34000000357627869</v>
@@ -13405,34 +13388,34 @@
         <v>0.35000044107437128</v>
       </c>
       <c r="Q26">
-        <v>0.30892669510981108</v>
+        <v>0.30727301541006319</v>
       </c>
       <c r="R26">
-        <v>1.9103617943171161</v>
+        <v>1.8972440704230029</v>
       </c>
       <c r="S26">
-        <v>0.40632719904295012</v>
+        <v>0.40519836842269591</v>
       </c>
       <c r="T26">
-        <v>0.30293923578158782</v>
+        <v>0.30214287264606732</v>
       </c>
       <c r="U26">
         <v>0.14160239696502691</v>
       </c>
       <c r="V26">
-        <v>0.37494525313377403</v>
+        <v>0.3749452531337738</v>
       </c>
       <c r="W26">
-        <v>0.99540683208614056</v>
+        <v>0.99378638451324353</v>
       </c>
       <c r="X26">
-        <v>0.48426162032986791</v>
+        <v>0.48370375977162428</v>
       </c>
       <c r="Y26">
-        <v>7.9432045306508547E-2</v>
+        <v>7.9264683153699667E-2</v>
       </c>
       <c r="Z26">
-        <v>8.5211984813213376E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
@@ -13440,70 +13423,70 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>1.2000000580944989</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E27">
-        <v>1.2059402383194711</v>
+        <v>1.205772450248461</v>
       </c>
       <c r="F27">
-        <v>7.2663945934554288</v>
+        <v>7.2972352906753368</v>
       </c>
       <c r="G27">
-        <v>1.7620372586693911</v>
+        <v>1.7619813507931501</v>
       </c>
       <c r="H27">
-        <v>1.315686873742556</v>
+        <v>1.3156680049362171</v>
       </c>
       <c r="I27">
-        <v>0.56499999761581421</v>
+        <v>0.5649999976158141</v>
       </c>
       <c r="J27">
-        <v>0.60500001907348633</v>
+        <v>0.60500001907348644</v>
       </c>
       <c r="K27">
-        <v>2.2968325849927318</v>
+        <v>2.2967812162149421</v>
       </c>
       <c r="L27">
-        <v>1.0151789712729939</v>
+        <v>1.0151739986304109</v>
       </c>
       <c r="M27">
-        <v>0.34005416286568563</v>
+        <v>0.34005267081387691</v>
       </c>
       <c r="N27">
         <v>0.34000000357627869</v>
       </c>
       <c r="P27">
-        <v>0.35000044107437128</v>
+        <v>0.35000044107437139</v>
       </c>
       <c r="Q27">
-        <v>0.308930622672698</v>
+        <v>0.30727476221369271</v>
       </c>
       <c r="R27">
-        <v>1.912560909591168</v>
+        <v>1.89943203148611</v>
       </c>
       <c r="S27">
-        <v>0.40632987961938227</v>
+        <v>0.40519951383204372</v>
       </c>
       <c r="T27">
-        <v>0.30294112464377732</v>
+        <v>0.30214368121240409</v>
       </c>
       <c r="U27">
-        <v>0.14160239696502691</v>
+        <v>0.1416023969650268</v>
       </c>
       <c r="V27">
-        <v>0.3749452531337738</v>
+        <v>0.37494525313377391</v>
       </c>
       <c r="W27">
-        <v>0.99541066960836022</v>
+        <v>0.99378810104455406</v>
       </c>
       <c r="X27">
-        <v>0.48426294023348931</v>
+        <v>0.48370435123643202</v>
       </c>
       <c r="Y27">
-        <v>7.9432441283917382E-2</v>
+        <v>7.9264860598052239E-2</v>
       </c>
       <c r="Z27">
-        <v>8.5211984813213321E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
@@ -13511,19 +13494,19 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <v>1.200000058094189</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E28">
-        <v>1.2059406461497479</v>
+        <v>1.2057726230221959</v>
       </c>
       <c r="F28">
-        <v>7.2708966804344648</v>
+        <v>7.3009386137294747</v>
       </c>
       <c r="G28">
-        <v>1.762037394707658</v>
+        <v>1.7619814060058541</v>
       </c>
       <c r="H28">
-        <v>1.3156869196579579</v>
+        <v>1.315668023570886</v>
       </c>
       <c r="I28">
         <v>0.56499999761581421</v>
@@ -13532,13 +13515,13 @@
         <v>0.60500001907348633</v>
       </c>
       <c r="K28">
-        <v>2.296832709810948</v>
+        <v>2.2967812691483851</v>
       </c>
       <c r="L28">
-        <v>1.015178983356618</v>
+        <v>1.0151740037565209</v>
       </c>
       <c r="M28">
-        <v>0.34005416649346348</v>
+        <v>0.34005267235449432</v>
       </c>
       <c r="N28">
         <v>0.34000000357627869</v>
@@ -13547,16 +13530,16 @@
         <v>0.35000044107437128</v>
       </c>
       <c r="Q28">
-        <v>0.30893455082001609</v>
+        <v>0.30727650906219461</v>
       </c>
       <c r="R28">
-        <v>1.914759997956647</v>
+        <v>1.901619964374079</v>
       </c>
       <c r="S28">
-        <v>0.40633256056625883</v>
+        <v>0.405200659265884</v>
       </c>
       <c r="T28">
-        <v>0.3029430137575968</v>
+        <v>0.30214448979421771</v>
       </c>
       <c r="U28">
         <v>0.14160239696502691</v>
@@ -13565,16 +13548,16 @@
         <v>0.3749452531337738</v>
       </c>
       <c r="W28">
-        <v>0.99541450764824946</v>
+        <v>0.99378981760959695</v>
       </c>
       <c r="X28">
-        <v>0.48426426030947373</v>
+        <v>0.48370494271170428</v>
       </c>
       <c r="Y28">
-        <v>7.9432837313240551E-2</v>
+        <v>7.9265038045582131E-2</v>
       </c>
       <c r="Z28">
-        <v>8.5211984813213321E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
@@ -13582,34 +13565,34 @@
         <v>9</v>
       </c>
       <c r="D29">
-        <v>1.2000000580939021</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E29">
-        <v>1.205941054105969</v>
+        <v>1.2057727958178841</v>
       </c>
       <c r="F29">
-        <v>7.2753987084408163</v>
+        <v>7.3046418880732649</v>
       </c>
       <c r="G29">
-        <v>1.762037530787375</v>
+        <v>1.761981461225296</v>
       </c>
       <c r="H29">
-        <v>1.3156869655874399</v>
+        <v>1.315668042207901</v>
       </c>
       <c r="I29">
-        <v>0.56499999761581421</v>
+        <v>0.56499999761581432</v>
       </c>
       <c r="J29">
         <v>0.60500001907348633</v>
       </c>
       <c r="K29">
-        <v>2.2968328346676632</v>
+        <v>2.2967813220886319</v>
       </c>
       <c r="L29">
-        <v>1.0151789954442529</v>
+        <v>1.0151740088833749</v>
       </c>
       <c r="M29">
-        <v>0.34005417012290168</v>
+        <v>0.34005267389552007</v>
       </c>
       <c r="N29">
         <v>0.34000000357627869</v>
@@ -13618,34 +13601,34 @@
         <v>0.35000044107437139</v>
       </c>
       <c r="Q29">
-        <v>0.30893847972494431</v>
+        <v>0.30727825604416342</v>
       </c>
       <c r="R29">
-        <v>1.916959179486619</v>
+        <v>1.903807988757332</v>
       </c>
       <c r="S29">
-        <v>0.40633524200191767</v>
+        <v>0.40520180478655099</v>
       </c>
       <c r="T29">
-        <v>0.30294490320619949</v>
+        <v>0.30214529843557569</v>
       </c>
       <c r="U29">
-        <v>0.14160239696502691</v>
+        <v>0.1416023969650268</v>
       </c>
       <c r="V29">
-        <v>0.3749452531337738</v>
+        <v>0.37494525313377369</v>
       </c>
       <c r="W29">
-        <v>0.99541834637420412</v>
+        <v>0.99379153429629397</v>
       </c>
       <c r="X29">
-        <v>0.48426558061519143</v>
+        <v>0.48370553422795298</v>
       </c>
       <c r="Y29">
-        <v>7.9433233411332349E-2</v>
+        <v>7.9265215505175873E-2</v>
       </c>
       <c r="Z29">
-        <v>8.5211984813213376E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
@@ -13653,34 +13636,34 @@
         <v>10</v>
       </c>
       <c r="D30">
-        <v>1.2000000580936061</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E30">
-        <v>1.2059414621605029</v>
+        <v>1.2057729686223611</v>
       </c>
       <c r="F30">
-        <v>7.279900796542937</v>
+        <v>7.308345211761246</v>
       </c>
       <c r="G30">
-        <v>1.7620376668992901</v>
+        <v>1.7619815164474351</v>
       </c>
       <c r="H30">
-        <v>1.315687011527827</v>
+        <v>1.315668060845826</v>
       </c>
       <c r="I30">
-        <v>0.5649999976158141</v>
+        <v>0.56499999761581421</v>
       </c>
       <c r="J30">
         <v>0.60500001907348633</v>
       </c>
       <c r="K30">
-        <v>2.2968329595542252</v>
+        <v>2.2967813750312822</v>
       </c>
       <c r="L30">
-        <v>1.015179007534877</v>
+        <v>1.0151740140103009</v>
       </c>
       <c r="M30">
-        <v>0.34005417375289809</v>
+        <v>0.34005267543657741</v>
       </c>
       <c r="N30">
         <v>0.34000000357627869</v>
@@ -13689,16 +13672,16 @@
         <v>0.35000044107437128</v>
       </c>
       <c r="Q30">
-        <v>0.30894240912128501</v>
+        <v>0.30728000302558711</v>
       </c>
       <c r="R30">
-        <v>1.919158274037146</v>
+        <v>1.905995925130674</v>
       </c>
       <c r="S30">
-        <v>0.40633792374384992</v>
+        <v>0.40520295030053982</v>
       </c>
       <c r="T30">
-        <v>0.30294679286163678</v>
+        <v>0.30214610707062739</v>
       </c>
       <c r="U30">
         <v>0.14160239696502691</v>
@@ -13707,88 +13690,88 @@
         <v>0.37494525313377369</v>
       </c>
       <c r="W30">
-        <v>0.99542218552624295</v>
+        <v>0.99379325097233839</v>
       </c>
       <c r="X30">
-        <v>0.4842669010619563</v>
+        <v>0.48370612573925897</v>
       </c>
       <c r="Y30">
-        <v>7.9433629551885154E-2</v>
+        <v>7.9265392963474013E-2</v>
       </c>
       <c r="Z30">
-        <v>8.5211984813213321E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z32" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z32" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.25">
@@ -13799,16 +13782,16 @@
         <v>1.200000047683716</v>
       </c>
       <c r="E33">
-        <v>1.205937623459818</v>
+        <v>1.2057713349581849</v>
       </c>
       <c r="F33">
-        <v>7.2393833772912677</v>
+        <v>7.2750170773035938</v>
       </c>
       <c r="G33">
-        <v>1.766536408479364</v>
+        <v>1.766481014196263</v>
       </c>
       <c r="H33">
-        <v>1.3156865862244931</v>
+        <v>1.315667890769096</v>
       </c>
       <c r="I33">
         <v>0.56499999761581421</v>
@@ -13817,13 +13800,13 @@
         <v>0.60500001907348633</v>
       </c>
       <c r="K33">
-        <v>2.2968317847013888</v>
+        <v>2.2967808745215832</v>
       </c>
       <c r="L33">
-        <v>1.0151788937955071</v>
+        <v>1.015173965540922</v>
       </c>
       <c r="M33">
-        <v>0.3400541396036651</v>
+        <v>0.34005266086953512</v>
       </c>
       <c r="N33">
         <v>0.34000000357627869</v>
@@ -13832,34 +13815,34 @@
         <v>0.35000044107437128</v>
       </c>
       <c r="Q33">
-        <v>0.30890542598808152</v>
+        <v>0.30726348376797091</v>
       </c>
       <c r="R33">
-        <v>1.898310139981858</v>
+        <v>1.8852525967458911</v>
       </c>
       <c r="S33">
-        <v>0.40744085627907262</v>
+        <v>0.40632026697545109</v>
       </c>
       <c r="T33">
-        <v>0.30292928966508942</v>
+        <v>0.30213872639469019</v>
       </c>
       <c r="U33">
-        <v>0.1416023969650268</v>
+        <v>0.14160239696502691</v>
       </c>
       <c r="V33">
         <v>0.3749452531337738</v>
       </c>
       <c r="W33">
-        <v>0.99538604962806221</v>
+        <v>0.9937770178814791</v>
       </c>
       <c r="X33">
-        <v>0.48425447216990752</v>
+        <v>0.48370053229415461</v>
       </c>
       <c r="Y33">
-        <v>7.9429900820850718E-2</v>
+        <v>7.9263714884154818E-2</v>
       </c>
       <c r="Z33">
-        <v>8.5211984813213348E-2</v>
+        <v>8.5211984813213376E-2</v>
       </c>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.25">
@@ -13870,16 +13853,16 @@
         <v>1.200000047683716</v>
       </c>
       <c r="E34">
-        <v>1.205937860299702</v>
+        <v>1.205771428639602</v>
       </c>
       <c r="F34">
-        <v>7.2438865509226407</v>
+        <v>7.278721939334563</v>
       </c>
       <c r="G34">
-        <v>1.7710365095355001</v>
+        <v>1.7709810639515831</v>
       </c>
       <c r="H34">
-        <v>1.315686619769622</v>
+        <v>1.3156679069986419</v>
       </c>
       <c r="I34">
         <v>0.56499999761581421</v>
@@ -13888,31 +13871,31 @@
         <v>0.60500001907348633</v>
       </c>
       <c r="K34">
-        <v>2.2968318571904591</v>
+        <v>2.2967809032272242</v>
       </c>
       <c r="L34">
-        <v>1.0151789008127481</v>
+        <v>1.015173968321202</v>
       </c>
       <c r="M34">
-        <v>0.34005414171063642</v>
+        <v>0.34005266170586779</v>
       </c>
       <c r="N34">
         <v>0.34000000357627869</v>
       </c>
       <c r="P34">
-        <v>0.35000044107437128</v>
+        <v>0.35000044107437139</v>
       </c>
       <c r="Q34">
-        <v>0.30890770892778258</v>
+        <v>0.30726443123234931</v>
       </c>
       <c r="R34">
-        <v>1.899452654602978</v>
+        <v>1.886388378400603</v>
       </c>
       <c r="S34">
-        <v>0.40857067789720453</v>
+        <v>0.40744912633849978</v>
       </c>
       <c r="T34">
-        <v>0.30293067093727871</v>
+        <v>0.3021394308328233</v>
       </c>
       <c r="U34">
         <v>0.14160239696502691</v>
@@ -13921,13 +13904,13 @@
         <v>0.3749452531337738</v>
       </c>
       <c r="W34">
-        <v>0.99538828040358784</v>
+        <v>0.99377794895859162</v>
       </c>
       <c r="X34">
-        <v>0.48425523945848531</v>
+        <v>0.48370085311767391</v>
       </c>
       <c r="Y34">
-        <v>7.9430131009654542E-2</v>
+        <v>7.9263811134174578E-2</v>
       </c>
       <c r="Z34">
         <v>8.5211984813213348E-2</v>
@@ -13941,16 +13924,16 @@
         <v>1.200000047683716</v>
       </c>
       <c r="E35">
-        <v>1.205938097195147</v>
+        <v>1.205771522321363</v>
       </c>
       <c r="F35">
-        <v>7.2483897596542803</v>
+        <v>7.2824268203772826</v>
       </c>
       <c r="G35">
-        <v>1.775536610613234</v>
+        <v>1.7754811137078961</v>
       </c>
       <c r="H35">
-        <v>1.315686653321968</v>
+        <v>1.3156679232285451</v>
       </c>
       <c r="I35">
         <v>0.56499999761581421</v>
@@ -13959,13 +13942,13 @@
         <v>0.60500001907348633</v>
       </c>
       <c r="K35">
-        <v>2.2968319296972939</v>
+        <v>2.296780931932032</v>
       </c>
       <c r="L35">
-        <v>1.0151789078324309</v>
+        <v>1.01517397110152</v>
       </c>
       <c r="M35">
-        <v>0.34005414381803217</v>
+        <v>0.34005266254248417</v>
       </c>
       <c r="N35">
         <v>0.34000000357627869</v>
@@ -13974,31 +13957,31 @@
         <v>0.35000044107437123</v>
       </c>
       <c r="Q35">
-        <v>0.30890999224895588</v>
+        <v>0.30726537867424092</v>
       </c>
       <c r="R35">
-        <v>1.9005951091024269</v>
+        <v>1.8875240817916199</v>
       </c>
       <c r="S35">
-        <v>0.40970038800548608</v>
+        <v>0.40857787391928502</v>
       </c>
       <c r="T35">
-        <v>0.302932052379775</v>
+        <v>0.30214013525320849</v>
       </c>
       <c r="U35">
         <v>0.14160239696502691</v>
       </c>
       <c r="V35">
-        <v>0.37494525313377369</v>
+        <v>0.3749452531337738</v>
       </c>
       <c r="W35">
-        <v>0.99539051153398428</v>
+        <v>0.99377888001022208</v>
       </c>
       <c r="X35">
-        <v>0.48425600686758258</v>
+        <v>0.48370117393233453</v>
       </c>
       <c r="Y35">
-        <v>7.9430361235123398E-2</v>
+        <v>7.9263907381239868E-2</v>
       </c>
       <c r="Z35">
         <v>8.5211984813213348E-2</v>
@@ -14012,31 +13995,31 @@
         <v>1.200000047683716</v>
       </c>
       <c r="E36">
-        <v>1.2059383341776639</v>
+        <v>1.2057716160181129</v>
       </c>
       <c r="F36">
-        <v>7.2528930037747248</v>
+        <v>7.2861317205754963</v>
       </c>
       <c r="G36">
-        <v>1.7800367117242399</v>
+        <v>1.779981163470755</v>
       </c>
       <c r="H36">
-        <v>1.315686686885553</v>
+        <v>1.3156679394607891</v>
       </c>
       <c r="I36">
-        <v>0.56499999761581421</v>
+        <v>0.5649999976158141</v>
       </c>
       <c r="J36">
         <v>0.60500001907348633</v>
       </c>
       <c r="K36">
-        <v>2.2968320022302149</v>
+        <v>2.2967809606425802</v>
       </c>
       <c r="L36">
-        <v>1.0151789148541921</v>
+        <v>1.015173973882493</v>
       </c>
       <c r="M36">
-        <v>0.34005414592638039</v>
+        <v>0.34005266337870388</v>
       </c>
       <c r="N36">
         <v>0.34000000357627869</v>
@@ -14045,34 +14028,34 @@
         <v>0.35000044107437128</v>
       </c>
       <c r="Q36">
-        <v>0.30891227625547019</v>
+        <v>0.30726632624153161</v>
       </c>
       <c r="R36">
-        <v>1.9017376989211869</v>
+        <v>1.888659901582979</v>
       </c>
       <c r="S36">
-        <v>0.41083018054471948</v>
+        <v>0.4097067035527745</v>
       </c>
       <c r="T36">
-        <v>0.30293343415149582</v>
+        <v>0.30214083974018341</v>
       </c>
       <c r="U36">
         <v>0.14160239696502691</v>
       </c>
       <c r="V36">
-        <v>0.37494525313377391</v>
+        <v>0.3749452531337738</v>
       </c>
       <c r="W36">
-        <v>0.99539274331600835</v>
+        <v>0.99377981118224401</v>
       </c>
       <c r="X36">
-        <v>0.48425677449880128</v>
+        <v>0.48370149478824059</v>
       </c>
       <c r="Y36">
-        <v>7.9430591526888361E-2</v>
+        <v>7.9264003640583558E-2</v>
       </c>
       <c r="Z36">
-        <v>8.5211984813213321E-2</v>
+        <v>8.5211984813213376E-2</v>
       </c>
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.25">
@@ -14083,67 +14066,67 @@
         <v>1.200000047683716</v>
       </c>
       <c r="E37">
-        <v>1.205938571226705</v>
+        <v>1.2057717097203029</v>
       </c>
       <c r="F37">
-        <v>7.2573962831029224</v>
+        <v>7.2898366398375014</v>
       </c>
       <c r="G37">
-        <v>1.7845368128604979</v>
+        <v>1.784481213236881</v>
       </c>
       <c r="H37">
-        <v>1.315686720457641</v>
+        <v>1.315667955694013</v>
       </c>
       <c r="I37">
-        <v>0.5649999976158141</v>
+        <v>0.56499999761581421</v>
       </c>
       <c r="J37">
         <v>0.60500001907348633</v>
       </c>
       <c r="K37">
-        <v>2.296832074783635</v>
+        <v>2.296780989354454</v>
       </c>
       <c r="L37">
-        <v>1.0151789218776011</v>
+        <v>1.0151739766635171</v>
       </c>
       <c r="M37">
-        <v>0.34005414803512601</v>
+        <v>0.34005266421529712</v>
       </c>
       <c r="N37">
         <v>0.34000000357627869</v>
       </c>
       <c r="P37">
-        <v>0.35000044107437128</v>
+        <v>0.35000044107437123</v>
       </c>
       <c r="Q37">
-        <v>0.30891456074880153</v>
+        <v>0.30726727383749758</v>
       </c>
       <c r="R37">
-        <v>1.9028802962827529</v>
+        <v>1.889795710497872</v>
       </c>
       <c r="S37">
-        <v>0.41195992870750081</v>
+        <v>0.41083548850072799</v>
       </c>
       <c r="T37">
-        <v>0.30293481614851869</v>
+        <v>0.30214154423855383</v>
       </c>
       <c r="U37">
-        <v>0.1416023969650268</v>
+        <v>0.14160239696502691</v>
       </c>
       <c r="V37">
-        <v>0.37494525313377369</v>
+        <v>0.3749452531337738</v>
       </c>
       <c r="W37">
-        <v>0.99539497555467538</v>
+        <v>0.99378074237952618</v>
       </c>
       <c r="X37">
-        <v>0.48425754228490941</v>
+        <v>0.4837018156526206</v>
       </c>
       <c r="Y37">
-        <v>7.9430821864996864E-2</v>
+        <v>7.9264099902561364E-2</v>
       </c>
       <c r="Z37">
-        <v>8.5211984813213348E-2</v>
+        <v>8.5211984813213404E-2</v>
       </c>
     </row>
     <row r="38" spans="3:26" x14ac:dyDescent="0.25">
@@ -14154,67 +14137,67 @@
         <v>1.200000047683716</v>
       </c>
       <c r="E38">
-        <v>1.205938808362885</v>
+        <v>1.2057718034374869</v>
       </c>
       <c r="F38">
-        <v>7.2618995978310981</v>
+        <v>7.2935415782576083</v>
       </c>
       <c r="G38">
-        <v>1.7890369140299269</v>
+        <v>1.788981263009878</v>
       </c>
       <c r="H38">
-        <v>1.315686754040988</v>
+        <v>1.3156679719295239</v>
       </c>
       <c r="I38">
-        <v>0.56499999761581421</v>
+        <v>0.56499999761581432</v>
       </c>
       <c r="J38">
         <v>0.60500001907348633</v>
       </c>
       <c r="K38">
-        <v>2.2968321473634852</v>
+        <v>2.2967810180709738</v>
       </c>
       <c r="L38">
-        <v>1.0151789289039459</v>
+        <v>1.015173979444989</v>
       </c>
       <c r="M38">
-        <v>0.34005415014470802</v>
+        <v>0.34005266505201642</v>
       </c>
       <c r="N38">
         <v>0.34000000357627869</v>
       </c>
       <c r="P38">
-        <v>0.35000044107437139</v>
+        <v>0.35000044107437128</v>
       </c>
       <c r="Q38">
-        <v>0.30891684592763707</v>
+        <v>0.30726822155880551</v>
       </c>
       <c r="R38">
-        <v>1.904023028978729</v>
+        <v>1.890931635818047</v>
       </c>
       <c r="S38">
-        <v>0.41308975930102898</v>
+        <v>0.41196435550163829</v>
       </c>
       <c r="T38">
-        <v>0.30293619847493769</v>
+        <v>0.30214224880346979</v>
       </c>
       <c r="U38">
-        <v>0.1416023969650268</v>
+        <v>0.14160239696502691</v>
       </c>
       <c r="V38">
-        <v>0.37494525313377369</v>
+        <v>0.3749452531337738</v>
       </c>
       <c r="W38">
-        <v>0.99539720844531565</v>
+        <v>0.99378167369687898</v>
       </c>
       <c r="X38">
-        <v>0.4842583102932998</v>
+        <v>0.48370213655786848</v>
       </c>
       <c r="Y38">
-        <v>7.9431052269668456E-2</v>
+        <v>7.9264196176967394E-2</v>
       </c>
       <c r="Z38">
-        <v>8.5211984813213321E-2</v>
+        <v>8.5211984813213404E-2</v>
       </c>
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.25">
@@ -14225,16 +14208,16 @@
         <v>1.200000047683716</v>
       </c>
       <c r="E39">
-        <v>1.205939045554667</v>
+        <v>1.2057718971550511</v>
       </c>
       <c r="F39">
-        <v>7.2664029476779639</v>
+        <v>7.2972465356945024</v>
       </c>
       <c r="G39">
-        <v>1.793537015220896</v>
+        <v>1.793481312783437</v>
       </c>
       <c r="H39">
-        <v>1.3156867876316161</v>
+        <v>1.315667988165349</v>
       </c>
       <c r="I39">
         <v>0.56499999761581421</v>
@@ -14243,46 +14226,46 @@
         <v>0.60500001907348633</v>
       </c>
       <c r="K39">
-        <v>2.2968322199609221</v>
+        <v>2.2967810467873968</v>
       </c>
       <c r="L39">
-        <v>1.015178935932151</v>
+        <v>1.015173982226441</v>
       </c>
       <c r="M39">
-        <v>0.34005415225500729</v>
+        <v>0.34005266588847161</v>
       </c>
       <c r="N39">
         <v>0.34000000357627869</v>
       </c>
       <c r="P39">
-        <v>0.35000044107437128</v>
+        <v>0.35000044107437139</v>
       </c>
       <c r="Q39">
-        <v>0.30891913148837702</v>
+        <v>0.30726916925775333</v>
       </c>
       <c r="R39">
-        <v>1.9051657015825689</v>
+        <v>1.892067482883844</v>
       </c>
       <c r="S39">
-        <v>0.41421947838515122</v>
+        <v>0.41309311072016391</v>
       </c>
       <c r="T39">
-        <v>0.30293758097184631</v>
+        <v>0.30214295335057978</v>
       </c>
       <c r="U39">
         <v>0.14160239696502691</v>
       </c>
       <c r="V39">
-        <v>0.3749452531337738</v>
+        <v>0.37494525313377369</v>
       </c>
       <c r="W39">
-        <v>0.99539944169078209</v>
+        <v>0.99378260498974968</v>
       </c>
       <c r="X39">
-        <v>0.48425907842218557</v>
+        <v>0.48370245745444651</v>
       </c>
       <c r="Y39">
-        <v>7.9431282710798634E-2</v>
+        <v>7.926429244871927E-2</v>
       </c>
       <c r="Z39">
         <v>8.5211984813213376E-2</v>
@@ -14296,67 +14279,67 @@
         <v>1.200000047683716</v>
       </c>
       <c r="E40">
-        <v>1.2059392828337001</v>
+        <v>1.2057719908875311</v>
       </c>
       <c r="F40">
-        <v>7.2709063329360468</v>
+        <v>7.3009515122919133</v>
       </c>
       <c r="G40">
-        <v>1.798037116444972</v>
+        <v>1.7979813625641321</v>
       </c>
       <c r="H40">
-        <v>1.3156868212333941</v>
+        <v>1.3156680044035289</v>
       </c>
       <c r="I40">
-        <v>0.56499999761581432</v>
+        <v>0.56499999761581421</v>
       </c>
       <c r="J40">
         <v>0.60500001907348633</v>
       </c>
       <c r="K40">
-        <v>2.2968322925848539</v>
+        <v>2.2967810755082279</v>
       </c>
       <c r="L40">
-        <v>1.015178942962607</v>
+        <v>1.015173985008303</v>
       </c>
       <c r="M40">
-        <v>0.34005415436590208</v>
+        <v>0.34005266672528178</v>
       </c>
       <c r="N40">
         <v>0.34000000357627869</v>
       </c>
       <c r="P40">
-        <v>0.35000044107437128</v>
+        <v>0.35000044107437139</v>
       </c>
       <c r="Q40">
-        <v>0.30892141773483239</v>
+        <v>0.30727011708201413</v>
       </c>
       <c r="R40">
-        <v>1.9063085095365699</v>
+        <v>1.893203446358833</v>
       </c>
       <c r="S40">
-        <v>0.41534927990031811</v>
+        <v>0.41422194799157042</v>
       </c>
       <c r="T40">
-        <v>0.30293896379808061</v>
+        <v>0.3021436579643243</v>
       </c>
       <c r="U40">
-        <v>0.14160239696502691</v>
+        <v>0.1416023969650268</v>
       </c>
       <c r="V40">
-        <v>0.37494525313377391</v>
+        <v>0.37494525313377369</v>
       </c>
       <c r="W40">
-        <v>0.99540167558872206</v>
+        <v>0.99378353640263262</v>
       </c>
       <c r="X40">
-        <v>0.48425984677330158</v>
+        <v>0.48370277839188669</v>
       </c>
       <c r="Y40">
-        <v>7.9431513218408967E-2</v>
+        <v>7.9264388732791402E-2</v>
       </c>
       <c r="Z40">
-        <v>8.5211984813213348E-2</v>
+        <v>8.5211984813213376E-2</v>
       </c>
     </row>
     <row r="41" spans="3:26" x14ac:dyDescent="0.25">
@@ -14367,31 +14350,31 @@
         <v>1.200000047683716</v>
       </c>
       <c r="E41">
-        <v>1.2059395201793099</v>
+        <v>1.2057720846255431</v>
       </c>
       <c r="F41">
-        <v>7.2754097534223154</v>
+        <v>7.3046565079577741</v>
       </c>
       <c r="G41">
-        <v>1.8025372176945309</v>
+        <v>1.8024814123479009</v>
       </c>
       <c r="H41">
-        <v>1.3156868548438481</v>
+        <v>1.3156680206426801</v>
       </c>
       <c r="I41">
         <v>0.56499999761581421</v>
       </c>
       <c r="J41">
-        <v>0.60500001907348644</v>
+        <v>0.60500001907348633</v>
       </c>
       <c r="K41">
-        <v>2.2968323652286822</v>
+        <v>2.2967811042307482</v>
       </c>
       <c r="L41">
-        <v>1.015178949994948</v>
+        <v>1.015173987790114</v>
       </c>
       <c r="M41">
-        <v>0.34005415647715348</v>
+        <v>0.34005266756225661</v>
       </c>
       <c r="N41">
         <v>0.34000000357627869</v>
@@ -14400,34 +14383,34 @@
         <v>0.35000044107437139</v>
       </c>
       <c r="Q41">
-        <v>0.30892370446861062</v>
+        <v>0.30727106493503459</v>
       </c>
       <c r="R41">
-        <v>1.9074513250631231</v>
+        <v>1.894339398967136</v>
       </c>
       <c r="S41">
-        <v>0.41647903703904182</v>
+        <v>0.41535074057761362</v>
       </c>
       <c r="T41">
-        <v>0.30294034684995169</v>
+        <v>0.30214436258951732</v>
       </c>
       <c r="U41">
         <v>0.14160239696502691</v>
       </c>
       <c r="V41">
-        <v>0.37494525313377391</v>
+        <v>0.37494525313377369</v>
       </c>
       <c r="W41">
-        <v>0.99540390994340888</v>
+        <v>0.9937844678409905</v>
       </c>
       <c r="X41">
-        <v>0.48426061527955228</v>
+        <v>0.48370309933801842</v>
       </c>
       <c r="Y41">
-        <v>7.9431743771962993E-2</v>
+        <v>7.926448501928729E-2</v>
       </c>
       <c r="Z41">
-        <v>8.5211984813213376E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="42" spans="3:26" x14ac:dyDescent="0.25">
@@ -14438,64 +14421,64 @@
         <v>1.200000047683716</v>
       </c>
       <c r="E42">
-        <v>1.205939757591491</v>
+        <v>1.2057721783689559</v>
       </c>
       <c r="F42">
-        <v>7.2799132091415224</v>
+        <v>7.3083615226939918</v>
       </c>
       <c r="G42">
-        <v>1.80703731896972</v>
+        <v>1.806981462134565</v>
       </c>
       <c r="H42">
-        <v>1.315686888462966</v>
+        <v>1.315668036882909</v>
       </c>
       <c r="I42">
-        <v>0.56499999761581432</v>
+        <v>0.56499999761581421</v>
       </c>
       <c r="J42">
         <v>0.60500001907348633</v>
       </c>
       <c r="K42">
-        <v>2.2968324378935829</v>
+        <v>2.296781132954993</v>
       </c>
       <c r="L42">
-        <v>1.0151789570295751</v>
+        <v>1.015173990572348</v>
       </c>
       <c r="M42">
-        <v>0.34005415858949012</v>
+        <v>0.3400526683987754</v>
       </c>
       <c r="N42">
         <v>0.34000000357627869</v>
       </c>
       <c r="P42">
-        <v>0.35000044107437139</v>
+        <v>0.35000044107437128</v>
       </c>
       <c r="Q42">
-        <v>0.30892599168968171</v>
+        <v>0.30727201281678251</v>
       </c>
       <c r="R42">
-        <v>1.9085941481701589</v>
+        <v>1.895475340710443</v>
       </c>
       <c r="S42">
-        <v>0.4176087498015626</v>
+        <v>0.4164794884781729</v>
       </c>
       <c r="T42">
-        <v>0.30294173012733899</v>
+        <v>0.30214506722613288</v>
       </c>
       <c r="U42">
         <v>0.14160239696502691</v>
       </c>
       <c r="V42">
-        <v>0.3749452531337738</v>
+        <v>0.37494525313377369</v>
       </c>
       <c r="W42">
-        <v>0.99540614475657052</v>
+        <v>0.99378539930456355</v>
       </c>
       <c r="X42">
-        <v>0.48426138394135487</v>
+        <v>0.48370342029231889</v>
       </c>
       <c r="Y42">
-        <v>7.9431974372777825E-2</v>
+        <v>7.9264581308245374E-2</v>
       </c>
       <c r="Z42">
         <v>8.5211984813213348E-2</v>
@@ -14503,21 +14486,21 @@
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
         <v>13</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="49" spans="3:26" x14ac:dyDescent="0.25">
@@ -14542,16 +14525,16 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.96689325893121203</v>
+        <v>0.96511275127711538</v>
       </c>
       <c r="E50">
-        <v>146.91344874072641</v>
+        <v>146.69864664080609</v>
       </c>
       <c r="F50">
-        <v>0.34005413749725649</v>
+        <v>1.2059373866864029</v>
       </c>
       <c r="G50">
-        <v>7.9429670677900577E-2</v>
+        <v>0.30890314353497528</v>
       </c>
     </row>
     <row r="51" spans="3:26" x14ac:dyDescent="0.25">
@@ -14559,16 +14542,16 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>0.96669759296672053</v>
+        <v>0.97427764205652201</v>
       </c>
       <c r="E51">
-        <v>146.90322231838039</v>
+        <v>147.1890228124839</v>
       </c>
       <c r="F51">
-        <v>0.34000000357627858</v>
+        <v>7.2348802388508613</v>
       </c>
       <c r="G51">
-        <v>8.5211984813213293E-2</v>
+        <v>1.8971676328815981</v>
       </c>
     </row>
     <row r="52" spans="3:26" x14ac:dyDescent="0.25">
@@ -14576,16 +14559,16 @@
         <v>3</v>
       </c>
       <c r="D52">
-        <v>0.96511275127711538</v>
+        <v>0.9737010161414823</v>
       </c>
       <c r="E52">
-        <v>146.69864664080609</v>
+        <v>147.19683255721969</v>
       </c>
       <c r="F52">
-        <v>1.2059373866864029</v>
+        <v>1.7620363074486869</v>
       </c>
       <c r="G52">
-        <v>0.30890314353497528</v>
+        <v>0.40631099028413248</v>
       </c>
     </row>
     <row r="53" spans="3:26" x14ac:dyDescent="0.25">
@@ -14593,16 +14576,16 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>0.97427764205652201</v>
+        <v>0.97244430066627219</v>
       </c>
       <c r="E53">
-        <v>147.1890228124839</v>
+        <v>147.1296717771624</v>
       </c>
       <c r="F53">
-        <v>7.2348802388508613</v>
+        <v>1.3156865526880901</v>
       </c>
       <c r="G53">
-        <v>1.8971676328815981</v>
+        <v>0.30292790861817981</v>
       </c>
     </row>
     <row r="54" spans="3:26" x14ac:dyDescent="0.25">
@@ -14610,16 +14593,16 @@
         <v>5</v>
       </c>
       <c r="D54">
-        <v>0.9737010161414823</v>
+        <v>0.97095810219423839</v>
       </c>
       <c r="E54">
-        <v>147.19683255721969</v>
+        <v>147.05012118985749</v>
       </c>
       <c r="F54">
-        <v>1.7620363074486869</v>
+        <v>0.56499999761581421</v>
       </c>
       <c r="G54">
-        <v>0.40631099028413248</v>
+        <v>0.14160239696502691</v>
       </c>
     </row>
     <row r="55" spans="3:26" x14ac:dyDescent="0.25">
@@ -14627,16 +14610,16 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>0.97244430066627219</v>
+        <v>0.96561569241460055</v>
       </c>
       <c r="E55">
-        <v>147.1296717771624</v>
+        <v>146.89696685922789</v>
       </c>
       <c r="F55">
-        <v>1.3156865526880901</v>
+        <v>0.60500001907348633</v>
       </c>
       <c r="G55">
-        <v>0.30292790861817981</v>
+        <v>0.3749452531337738</v>
       </c>
     </row>
     <row r="56" spans="3:26" x14ac:dyDescent="0.25">
@@ -14644,16 +14627,16 @@
         <v>7</v>
       </c>
       <c r="D56">
-        <v>0.97095810219423839</v>
+        <v>0.96804178116840889</v>
       </c>
       <c r="E56">
-        <v>147.05012118985749</v>
+        <v>146.96164523708649</v>
       </c>
       <c r="F56">
-        <v>0.56499999761581421</v>
+        <v>2.2968317122319011</v>
       </c>
       <c r="G56">
-        <v>0.14160239696502691</v>
+        <v>0.99538381930907649</v>
       </c>
     </row>
     <row r="57" spans="3:26" x14ac:dyDescent="0.25">
@@ -14661,16 +14644,16 @@
         <v>8</v>
       </c>
       <c r="D57">
-        <v>0.96561569241460055</v>
+        <v>0.96733601230120236</v>
       </c>
       <c r="E57">
-        <v>146.89696685922789</v>
+        <v>146.93787173597511</v>
       </c>
       <c r="F57">
-        <v>0.60500001907348633</v>
+        <v>1.0151788867797571</v>
       </c>
       <c r="G57">
-        <v>0.3749452531337738</v>
+        <v>0.48425370503612991</v>
       </c>
     </row>
     <row r="58" spans="3:26" x14ac:dyDescent="0.25">
@@ -14678,16 +14661,16 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>0.96804178116840889</v>
+        <v>0.96689325893121203</v>
       </c>
       <c r="E58">
-        <v>146.96164523708649</v>
+        <v>146.91344874072641</v>
       </c>
       <c r="F58">
-        <v>2.2968317122319011</v>
+        <v>0.34005413749725649</v>
       </c>
       <c r="G58">
-        <v>0.99538381930907649</v>
+        <v>7.9429670677900577E-2</v>
       </c>
     </row>
     <row r="59" spans="3:26" x14ac:dyDescent="0.25">
@@ -14695,88 +14678,88 @@
         <v>10</v>
       </c>
       <c r="D59">
-        <v>0.96733601230120236</v>
+        <v>0.96669759296672053</v>
       </c>
       <c r="E59">
-        <v>146.93787173597511</v>
+        <v>146.90322231838039</v>
       </c>
       <c r="F59">
-        <v>1.0151788867797571</v>
+        <v>0.34000000357627858</v>
       </c>
       <c r="G59">
-        <v>0.48425370503612991</v>
+        <v>8.5211984813213293E-2</v>
       </c>
     </row>
     <row r="64" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="K64" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z64" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="X64" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z64" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="65" spans="3:26" x14ac:dyDescent="0.25">
@@ -14784,19 +14767,19 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1.200000057841585</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E65">
-        <v>1.205912539857678</v>
+        <v>1.205937894455454</v>
       </c>
       <c r="F65">
-        <v>4.2839197899765527</v>
+        <v>7.2394447455273729</v>
       </c>
       <c r="G65">
-        <v>1.7620281630865791</v>
+        <v>1.76203650071781</v>
       </c>
       <c r="H65">
-        <v>1.315683803959228</v>
+        <v>1.3156866197969841</v>
       </c>
       <c r="I65">
         <v>0.56499999761581421</v>
@@ -14805,49 +14788,49 @@
         <v>0.60949999094009399</v>
       </c>
       <c r="K65">
-        <v>2.3013408921830329</v>
+        <v>2.3013487664263161</v>
       </c>
       <c r="L65">
-        <v>1.0151781560344511</v>
+        <v>1.015178905481583</v>
       </c>
       <c r="M65">
-        <v>0.34005391843736399</v>
+        <v>0.34005414176709159</v>
       </c>
       <c r="N65">
         <v>0.34000000357627869</v>
       </c>
       <c r="P65">
-        <v>0.35000044107437128</v>
+        <v>0.35000044107437139</v>
       </c>
       <c r="Q65">
-        <v>0.30866265041037461</v>
+        <v>0.3089079418852228</v>
       </c>
       <c r="R65">
-        <v>1.8988708245434609</v>
+        <v>1.90005531890867</v>
       </c>
       <c r="S65">
-        <v>0.40614985278370141</v>
+        <v>0.40631428473272257</v>
       </c>
       <c r="T65">
-        <v>0.30281424843774613</v>
+        <v>0.30293021606742432</v>
       </c>
       <c r="U65">
-        <v>0.1416023969650268</v>
+        <v>0.14160239696502691</v>
       </c>
       <c r="V65">
-        <v>0.37773406505584711</v>
+        <v>0.37773406505584722</v>
       </c>
       <c r="W65">
-        <v>0.99796377128292235</v>
+        <v>0.99820361177470884</v>
       </c>
       <c r="X65">
-        <v>0.48417342287267368</v>
+        <v>0.48425592331477091</v>
       </c>
       <c r="Y65">
-        <v>7.9405585642778831E-2</v>
+        <v>7.9430309677511329E-2</v>
       </c>
       <c r="Z65">
-        <v>8.5211984813213376E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="66" spans="3:26" x14ac:dyDescent="0.25">
@@ -14855,19 +14838,19 @@
         <v>2</v>
       </c>
       <c r="D66">
-        <v>1.200000057840801</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E66">
-        <v>1.205913008150731</v>
+        <v>1.2059384163751561</v>
       </c>
       <c r="F66">
-        <v>4.2872663229987271</v>
+        <v>7.2440105868433156</v>
       </c>
       <c r="G66">
-        <v>1.7620283153238689</v>
+        <v>1.762036674958815</v>
       </c>
       <c r="H66">
-        <v>1.315683855341603</v>
+        <v>1.315686678617128</v>
       </c>
       <c r="I66">
         <v>0.56499999761581421</v>
@@ -14876,13 +14859,13 @@
         <v>0.61400002241134644</v>
       </c>
       <c r="K66">
-        <v>2.305858011855356</v>
+        <v>2.3058659752527979</v>
       </c>
       <c r="L66">
-        <v>1.015178175300901</v>
+        <v>1.015178926360861</v>
       </c>
       <c r="M66">
-        <v>0.34005392422284192</v>
+        <v>0.34005414802184297</v>
       </c>
       <c r="N66">
         <v>0.34000000357627869</v>
@@ -14891,16 +14874,16 @@
         <v>0.35000044107437128</v>
       </c>
       <c r="Q66">
-        <v>0.30866719661292108</v>
+        <v>0.30891297158115733</v>
       </c>
       <c r="R66">
-        <v>1.901774177488097</v>
+        <v>1.902962019025692</v>
       </c>
       <c r="S66">
-        <v>0.40615287805902323</v>
+        <v>0.4063177179190447</v>
       </c>
       <c r="T66">
-        <v>0.30281638066293692</v>
+        <v>0.302932635146206</v>
       </c>
       <c r="U66">
         <v>0.14160239696502691</v>
@@ -14909,16 +14892,16 @@
         <v>0.38052290678024292</v>
       </c>
       <c r="W66">
-        <v>1.0007834867479291</v>
+        <v>1.00102389832714</v>
       </c>
       <c r="X66">
-        <v>0.48417554626702042</v>
+        <v>0.48425820763347932</v>
       </c>
       <c r="Y66">
-        <v>7.9406222677801508E-2</v>
+        <v>7.9430994792977605E-2</v>
       </c>
       <c r="Z66">
-        <v>8.5211984813213321E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="67" spans="3:26" x14ac:dyDescent="0.25">
@@ -14926,19 +14909,19 @@
         <v>3</v>
       </c>
       <c r="D67">
-        <v>1.2000000578400309</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E67">
-        <v>1.2059134765933679</v>
+        <v>1.205938938510666</v>
       </c>
       <c r="F67">
-        <v>4.2906129883638586</v>
+        <v>7.2485766111101233</v>
       </c>
       <c r="G67">
-        <v>1.7620284676089051</v>
+        <v>1.762036849271599</v>
       </c>
       <c r="H67">
-        <v>1.3156839067401349</v>
+        <v>1.3156867374615639</v>
       </c>
       <c r="I67">
         <v>0.56499999761581421</v>
@@ -14947,13 +14930,13 @@
         <v>0.6184999942779541</v>
       </c>
       <c r="K67">
-        <v>2.3103752020780082</v>
+        <v>2.3103832555038109</v>
       </c>
       <c r="L67">
-        <v>1.01517819457423</v>
+        <v>1.0151789472488331</v>
       </c>
       <c r="M67">
-        <v>0.34005393001044071</v>
+        <v>0.34005415427909907</v>
       </c>
       <c r="N67">
         <v>0.34000000357627869</v>
@@ -14962,31 +14945,31 @@
         <v>0.35000044107437128</v>
       </c>
       <c r="Q67">
-        <v>0.3086717436598268</v>
+        <v>0.308918002607868</v>
       </c>
       <c r="R67">
-        <v>1.9046778801614239</v>
+        <v>1.9058690704541119</v>
       </c>
       <c r="S67">
-        <v>0.40615590386893002</v>
+        <v>0.4063211519687121</v>
       </c>
       <c r="T67">
-        <v>0.30281851325266301</v>
+        <v>0.30293505481660371</v>
       </c>
       <c r="U67">
-        <v>0.14160239696502691</v>
+        <v>0.1416023969650268</v>
       </c>
       <c r="V67">
-        <v>0.38331174850463862</v>
+        <v>0.38331174850463873</v>
       </c>
       <c r="W67">
-        <v>1.003603389017792</v>
+        <v>1.0038443733466449</v>
       </c>
       <c r="X67">
-        <v>0.4841776699507141</v>
+        <v>0.48426049239760022</v>
       </c>
       <c r="Y67">
-        <v>7.9406859799447865E-2</v>
+        <v>7.9431680040936786E-2</v>
       </c>
       <c r="Z67">
         <v>8.5211984813213348E-2</v>
@@ -14997,19 +14980,19 @@
         <v>4</v>
       </c>
       <c r="D68">
-        <v>1.2000000578392469</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E68">
-        <v>1.2059139452151539</v>
+        <v>1.2059394608931471</v>
       </c>
       <c r="F68">
-        <v>4.2939598752400148</v>
+        <v>7.2531429400422978</v>
       </c>
       <c r="G68">
-        <v>1.762028619951876</v>
+        <v>1.762037023666587</v>
       </c>
       <c r="H68">
-        <v>1.3156839581582449</v>
+        <v>1.315686796333845</v>
       </c>
       <c r="I68">
         <v>0.56499999761581421</v>
@@ -15018,49 +15001,49 @@
         <v>0.62300002574920654</v>
       </c>
       <c r="K68">
-        <v>2.3148925827575719</v>
+        <v>2.3149007270927511</v>
       </c>
       <c r="L68">
-        <v>1.0151782138550509</v>
+        <v>1.0151789681464169</v>
       </c>
       <c r="M68">
-        <v>0.34005393580019633</v>
+        <v>0.34005416053935822</v>
       </c>
       <c r="N68">
         <v>0.34000000357627869</v>
       </c>
       <c r="P68">
-        <v>0.35000044107439587</v>
+        <v>0.35000044107437128</v>
       </c>
       <c r="Q68">
-        <v>0.30867629183690282</v>
+        <v>0.3089230352650022</v>
       </c>
       <c r="R68">
-        <v>1.9075821162302511</v>
+        <v>1.90877665696804</v>
       </c>
       <c r="S68">
-        <v>0.4061589304064368</v>
+        <v>0.40632458708672159</v>
       </c>
       <c r="T68">
-        <v>0.30282064634316658</v>
+        <v>0.30293747522271119</v>
       </c>
       <c r="U68">
-        <v>0.1416023969650268</v>
+        <v>0.14160239696502691</v>
       </c>
       <c r="V68">
-        <v>0.38610076904296881</v>
+        <v>0.38610076904296858</v>
       </c>
       <c r="W68">
-        <v>1.006423658266568</v>
+        <v>1.0066652170321491</v>
       </c>
       <c r="X68">
-        <v>0.48417979404538958</v>
+        <v>0.48426277773477838</v>
       </c>
       <c r="Y68">
-        <v>7.9407497044601288E-2</v>
+        <v>7.9432365459715493E-2</v>
       </c>
       <c r="Z68">
-        <v>8.5211984813213321E-2</v>
+        <v>8.5211984813213348E-2</v>
       </c>
     </row>
     <row r="69" spans="3:26" x14ac:dyDescent="0.25">
@@ -15068,34 +15051,34 @@
         <v>5</v>
       </c>
       <c r="D69">
-        <v>1.2000000578384249</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E69">
-        <v>1.2059144139577369</v>
+        <v>1.2059399834625071</v>
       </c>
       <c r="F69">
-        <v>4.2973068938831016</v>
+        <v>7.2577094510759288</v>
       </c>
       <c r="G69">
-        <v>1.762028772332864</v>
+        <v>1.762037198123477</v>
       </c>
       <c r="H69">
-        <v>1.3156840095892051</v>
+        <v>1.315686855227151</v>
       </c>
       <c r="I69">
-        <v>0.56499999761581421</v>
+        <v>0.5649999976158141</v>
       </c>
       <c r="J69">
         <v>0.62749999761581421</v>
       </c>
       <c r="K69">
-        <v>2.3194100337943819</v>
+        <v>2.319418269919491</v>
       </c>
       <c r="L69">
-        <v>1.015178233141651</v>
+        <v>1.0151789890520619</v>
       </c>
       <c r="M69">
-        <v>0.3400539415916945</v>
+        <v>0.3400541668018337</v>
       </c>
       <c r="N69">
         <v>0.34000000357627869</v>
@@ -15104,106 +15087,106 @@
         <v>0.35000044107437128</v>
       </c>
       <c r="Q69">
-        <v>0.30868084057790041</v>
+        <v>0.30892806897194092</v>
       </c>
       <c r="R69">
-        <v>1.910486520715627</v>
+        <v>1.9116844134902089</v>
       </c>
       <c r="S69">
-        <v>0.40616195728677529</v>
+        <v>0.40632802287618669</v>
       </c>
       <c r="T69">
-        <v>0.30282277966312859</v>
+        <v>0.30293989608537741</v>
       </c>
       <c r="U69">
-        <v>0.14160239696502691</v>
+        <v>0.1416023969650268</v>
       </c>
       <c r="V69">
-        <v>0.38888961076736461</v>
+        <v>0.3888896107673645</v>
       </c>
       <c r="W69">
-        <v>1.009243934902508</v>
+        <v>1.0094860697750609</v>
       </c>
       <c r="X69">
-        <v>0.48418191831760249</v>
+        <v>0.48426506340511771</v>
       </c>
       <c r="Y69">
-        <v>7.9408134343081638E-2</v>
+        <v>7.9433050977238656E-2</v>
       </c>
       <c r="Z69">
-        <v>8.5211984813213348E-2</v>
+        <v>8.5211984813213404E-2</v>
       </c>
     </row>
     <row r="71" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N71" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z71" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X71" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z71" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="72" spans="3:26" x14ac:dyDescent="0.25">
@@ -15211,70 +15194,70 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1.2000000578420651</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E72">
-        <v>1.205912267576712</v>
+        <v>1.205937618889636</v>
       </c>
       <c r="F72">
-        <v>4.2839026257859336</v>
+        <v>7.239420504807228</v>
       </c>
       <c r="G72">
-        <v>1.7620280722510511</v>
+        <v>1.762036408808821</v>
       </c>
       <c r="H72">
-        <v>1.3156837733009901</v>
+        <v>1.315686588777822</v>
       </c>
       <c r="I72">
         <v>0.56499999761581421</v>
       </c>
       <c r="J72">
-        <v>0.60500001907348633</v>
+        <v>0.60500001907348622</v>
       </c>
       <c r="K72">
-        <v>2.3013240342971719</v>
+        <v>2.3013318362622108</v>
       </c>
       <c r="L72">
-        <v>1.0151781464417311</v>
+        <v>1.015178895786456</v>
       </c>
       <c r="M72">
-        <v>0.34005391555716691</v>
+        <v>0.34005413886102198</v>
       </c>
       <c r="N72">
-        <v>0.34000000357627869</v>
+        <v>0.34000000357627858</v>
       </c>
       <c r="P72">
-        <v>0.35000044107437128</v>
+        <v>0.35000044107437139</v>
       </c>
       <c r="Q72">
-        <v>0.30866000679620842</v>
+        <v>0.30890528549259783</v>
       </c>
       <c r="R72">
-        <v>1.897162918211327</v>
+        <v>1.89834720650021</v>
       </c>
       <c r="S72">
-        <v>0.40614804764217749</v>
+        <v>0.40631247162326822</v>
       </c>
       <c r="T72">
-        <v>0.30281297602864898</v>
+        <v>0.30292893842989571</v>
       </c>
       <c r="U72">
         <v>0.14160239696502691</v>
       </c>
       <c r="V72">
-        <v>0.3749452531337738</v>
+        <v>0.37494525313377369</v>
       </c>
       <c r="W72">
-        <v>0.99627511992087148</v>
+        <v>0.99651484900118825</v>
       </c>
       <c r="X72">
-        <v>0.48417236541131708</v>
+        <v>0.48425486253895772</v>
       </c>
       <c r="Y72">
-        <v>7.9405268396181256E-2</v>
+        <v>7.942999144299176E-2</v>
       </c>
       <c r="Z72">
-        <v>8.5211984813213376E-2</v>
+        <v>8.5211984813213321E-2</v>
       </c>
     </row>
     <row r="73" spans="3:26" x14ac:dyDescent="0.25">
@@ -15282,19 +15265,19 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>1.2000000578417169</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E73">
-        <v>1.2059124634826739</v>
+        <v>1.2059378651212329</v>
       </c>
       <c r="F73">
-        <v>4.2872318773572626</v>
+        <v>7.2439619425048818</v>
       </c>
       <c r="G73">
-        <v>1.762028133618859</v>
+        <v>1.7620364911006481</v>
       </c>
       <c r="H73">
-        <v>1.3156837940137469</v>
+        <v>1.315686616565273</v>
       </c>
       <c r="I73">
         <v>0.56499999761581421</v>
@@ -15303,13 +15286,13 @@
         <v>0.60500001907348633</v>
       </c>
       <c r="K73">
-        <v>2.3058241656319902</v>
+        <v>2.3058319836193242</v>
       </c>
       <c r="L73">
-        <v>1.0151781561110149</v>
+        <v>1.0151789069651851</v>
       </c>
       <c r="M73">
-        <v>0.34005391846127853</v>
+        <v>0.34005414220845392</v>
       </c>
       <c r="N73">
         <v>0.34000000357627869</v>
@@ -15318,16 +15301,16 @@
         <v>0.35000044107437139</v>
       </c>
       <c r="Q73">
-        <v>0.30866190885598249</v>
+        <v>0.30890765819452598</v>
       </c>
       <c r="R73">
-        <v>1.898358176509868</v>
+        <v>1.8995456039077689</v>
       </c>
       <c r="S73">
-        <v>0.40614926745041458</v>
+        <v>0.40631409132599738</v>
       </c>
       <c r="T73">
-        <v>0.30281383562508252</v>
+        <v>0.30293007961945539</v>
       </c>
       <c r="U73">
         <v>0.14160239696502691</v>
@@ -15336,13 +15319,13 @@
         <v>0.37494525313377369</v>
       </c>
       <c r="W73">
-        <v>0.99740604178790482</v>
+        <v>0.99764622928238533</v>
       </c>
       <c r="X73">
-        <v>0.48417343116452283</v>
+        <v>0.48425608588151631</v>
       </c>
       <c r="Y73">
-        <v>7.9405588130492255E-2</v>
+        <v>7.9430358263987783E-2</v>
       </c>
       <c r="Z73">
         <v>8.5211984813213376E-2</v>
@@ -15353,19 +15336,19 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>1.200000057841371</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E74">
-        <v>1.205912659432141</v>
+        <v>1.2059381114463139</v>
       </c>
       <c r="F74">
-        <v>4.2905611442204421</v>
+        <v>7.2485034005385263</v>
       </c>
       <c r="G74">
-        <v>1.7620281950004959</v>
+        <v>1.762036573424528</v>
       </c>
       <c r="H74">
-        <v>1.3156838147312151</v>
+        <v>1.315686644363657</v>
       </c>
       <c r="I74">
         <v>0.56499999761581421</v>
@@ -15374,13 +15357,13 @@
         <v>0.60500001907348633</v>
       </c>
       <c r="K74">
-        <v>2.3103242373820949</v>
+        <v>2.3103320714112479</v>
       </c>
       <c r="L74">
-        <v>1.015178165781899</v>
+        <v>1.015178918147718</v>
       </c>
       <c r="M74">
-        <v>0.34005392136553858</v>
+        <v>0.34005414555681041</v>
       </c>
       <c r="N74">
         <v>0.34000000357627869</v>
@@ -15389,31 +15372,31 @@
         <v>0.35000044107437139</v>
       </c>
       <c r="Q74">
-        <v>0.30866381123180447</v>
+        <v>0.30891003162627351</v>
       </c>
       <c r="R74">
-        <v>1.899553596643853</v>
+        <v>1.9007441627430139</v>
       </c>
       <c r="S74">
-        <v>0.40615048746703819</v>
+        <v>0.40631571151837248</v>
       </c>
       <c r="T74">
-        <v>0.30281469536643169</v>
+        <v>0.30293122114926518</v>
       </c>
       <c r="U74">
-        <v>0.1416023969650268</v>
+        <v>0.14160239696502669</v>
       </c>
       <c r="V74">
-        <v>0.3749452531337738</v>
+        <v>0.37494525313377391</v>
       </c>
       <c r="W74">
-        <v>0.99853700868861961</v>
+        <v>0.99877765499470583</v>
       </c>
       <c r="X74">
-        <v>0.4841744970276417</v>
+        <v>0.48425730947093087</v>
       </c>
       <c r="Y74">
-        <v>7.9405907897642847E-2</v>
+        <v>7.9430725157693255E-2</v>
       </c>
       <c r="Z74">
         <v>8.5211984813213348E-2</v>
@@ -15424,67 +15407,67 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>1.2000000578410599</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E75">
-        <v>1.2059128554134591</v>
+        <v>1.2059383578543461</v>
       </c>
       <c r="F75">
-        <v>4.2938905142864936</v>
+        <v>7.2530449987817693</v>
       </c>
       <c r="G75">
-        <v>1.762028256392058</v>
+        <v>1.762036655776321</v>
       </c>
       <c r="H75">
-        <v>1.315683835451958</v>
+        <v>1.3156866721714771</v>
       </c>
       <c r="I75">
-        <v>0.56499999761581421</v>
+        <v>0.56499999761581432</v>
       </c>
       <c r="J75">
         <v>0.60500001907348633</v>
       </c>
       <c r="K75">
-        <v>2.3148243687548851</v>
+        <v>2.3148322188440291</v>
       </c>
       <c r="L75">
-        <v>1.0151781754546849</v>
+        <v>1.015178929333358</v>
       </c>
       <c r="M75">
-        <v>0.34005392427059411</v>
+        <v>0.34005414890650321</v>
       </c>
       <c r="N75">
         <v>0.34000000357627869</v>
       </c>
       <c r="P75">
-        <v>0.35000044107437139</v>
+        <v>0.35000044107437128</v>
       </c>
       <c r="Q75">
-        <v>0.30866571381026919</v>
+        <v>0.30891240568647732</v>
       </c>
       <c r="R75">
-        <v>1.900749104548872</v>
+        <v>1.9019428090173709</v>
       </c>
       <c r="S75">
-        <v>0.40615170761343838</v>
+        <v>0.40631733213097387</v>
       </c>
       <c r="T75">
-        <v>0.30281555519676479</v>
+        <v>0.30293236297052201</v>
       </c>
       <c r="U75">
         <v>0.14160239696502691</v>
       </c>
       <c r="V75">
-        <v>0.37494525313377391</v>
+        <v>0.37494525313377369</v>
       </c>
       <c r="W75">
-        <v>0.99966794601174058</v>
+        <v>0.99990905153689202</v>
       </c>
       <c r="X75">
-        <v>0.48417556296430397</v>
+        <v>0.48425853327374208</v>
       </c>
       <c r="Y75">
-        <v>7.9406227687271513E-2</v>
+        <v>7.943109211450497E-2</v>
       </c>
       <c r="Z75">
         <v>8.5211984813213348E-2</v>
@@ -15495,71 +15478,74 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>1.200000057840735</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="E76">
-        <v>1.2059130514142771</v>
+        <v>1.205938604331606</v>
       </c>
       <c r="F76">
-        <v>4.2972198992397397</v>
+        <v>7.257586616746635</v>
       </c>
       <c r="G76">
-        <v>1.7620283177895359</v>
+        <v>1.7620367381518369</v>
       </c>
       <c r="H76">
-        <v>1.315683856174767</v>
+        <v>1.3156866999874759</v>
       </c>
       <c r="I76">
-        <v>0.5649999976158141</v>
+        <v>0.56499999761581432</v>
       </c>
       <c r="J76">
         <v>0.60500001907348633</v>
       </c>
       <c r="K76">
-        <v>2.3193244405352589</v>
+        <v>2.3193323067027252</v>
       </c>
       <c r="L76">
-        <v>1.01517818512872</v>
+        <v>1.015178940521823</v>
       </c>
       <c r="M76">
-        <v>0.34005392717610972</v>
+        <v>0.34005415225652252</v>
       </c>
       <c r="N76">
         <v>0.34000000357627869</v>
       </c>
       <c r="P76">
-        <v>0.35000044107438799</v>
+        <v>0.35000044107437139</v>
       </c>
       <c r="Q76">
-        <v>0.30866761647141311</v>
+        <v>0.30891478024205021</v>
       </c>
       <c r="R76">
-        <v>1.901944623355595</v>
+        <v>1.9031414657809951</v>
       </c>
       <c r="S76">
-        <v>0.40615292780878809</v>
+        <v>0.40631895307351468</v>
       </c>
       <c r="T76">
-        <v>0.30281641505954487</v>
+        <v>0.30293350501926652</v>
       </c>
       <c r="U76">
         <v>0.14160239696502691</v>
       </c>
       <c r="V76">
-        <v>0.37494525313377358</v>
+        <v>0.37494525313377369</v>
       </c>
       <c r="W76">
-        <v>1.000798779085837</v>
+        <v>1.0010403442271829</v>
       </c>
       <c r="X76">
-        <v>0.48417662891739122</v>
+        <v>0.48425975722955622</v>
       </c>
       <c r="Y76">
-        <v>7.9406547481751966E-2</v>
+        <v>7.9431459116471009E-2</v>
       </c>
       <c r="Z76">
-        <v>8.5211984813213293E-2</v>
-      </c>
+        <v>8.5211984813213321E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q119" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DatenfürDoku.xlsx
+++ b/DatenfürDoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\SS2024\Energiesysteme\Power\Netzsimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6C10CA-49CD-4CCE-B720-7377AD288582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1300AE77-E542-4F44-97E0-64963C0B450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
   <si>
     <t>T1</t>
   </si>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,11 +195,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -246,33 +241,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2281,6 +2258,1071 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Magnitude</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$124:$C$134</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$124:$D$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.98514625013754986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99112133142152103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99944100504258637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99821860953198749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99677300095868038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9987063491902145</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99703963047067223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99635521871378163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99592645750850661</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.995736604632248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78BD-4142-BF88-B91C8878D171}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="80155488"/>
+        <c:axId val="80164128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80155488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80164128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80164128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80155488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Active Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$124:$C$134</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$124:$F$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.35000044107437128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30572740418127931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3797831735559201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40413443674142979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30139118843469659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14160239696502691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5000000011744492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65254655815186124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48304800530045722</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9067951528317332E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5211984813213348E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E54E-49A3-8AB8-F807B258BB2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="80155488"/>
+        <c:axId val="80164128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80155488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80164128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80164128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80155488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Active Power</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$124:$C$134</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$124:$F$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.35000044107437128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30572740418127931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3797831735559201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40413443674142979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30139118843469659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14160239696502691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5000000011744492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65254655815186124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48304800530045722</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9067951528317332E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.5211984813213348E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFC5-497C-A4BA-F6C5914138B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="80155488"/>
+        <c:axId val="80164128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80155488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80164128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80164128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80155488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5526,6 +6568,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7852,6 +9014,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -12440,6 +15150,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>328384</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>77111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Diagramm 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8FDFF06-A2F3-45D0-ADA3-41AE5A3612FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181332</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>90667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36600</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>166867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Diagramm 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB273F6-4ACD-45F6-9CB9-4B88BA1AA333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>87758</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>93867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>80704</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>155500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Diagramm 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A754F470-84FC-481F-A8D8-31E7617BC944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12706,14 +15530,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:Z119"/>
+  <dimension ref="C2:Z134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R131" sqref="R131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -14485,26 +17313,27 @@
       </c>
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D49">
@@ -14521,7 +17350,7 @@
       </c>
     </row>
     <row r="50" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D50">
@@ -14538,7 +17367,7 @@
       </c>
     </row>
     <row r="51" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D51">
@@ -14555,7 +17384,7 @@
       </c>
     </row>
     <row r="52" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52">
@@ -14572,7 +17401,7 @@
       </c>
     </row>
     <row r="53" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D53">
@@ -14589,7 +17418,7 @@
       </c>
     </row>
     <row r="54" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D54">
@@ -14606,7 +17435,7 @@
       </c>
     </row>
     <row r="55" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D55">
@@ -14623,7 +17452,7 @@
       </c>
     </row>
     <row r="56" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D56">
@@ -14640,7 +17469,7 @@
       </c>
     </row>
     <row r="57" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57">
@@ -14657,7 +17486,7 @@
       </c>
     </row>
     <row r="58" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D58">
@@ -14674,7 +17503,7 @@
       </c>
     </row>
     <row r="59" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D59">
@@ -15544,8 +18373,170 @@
         <v>8.5211984813213321E-2</v>
       </c>
     </row>
-    <row r="119" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q119" s="4"/>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0.98514625013754986</v>
+      </c>
+      <c r="E124">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="F124">
+        <v>0.35000044107437128</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0.99112133142152103</v>
+      </c>
+      <c r="E125">
+        <v>1.205622797699325</v>
+      </c>
+      <c r="F125">
+        <v>0.30572740418127931</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>6.0476786856907152</v>
+      </c>
+      <c r="F126">
+        <v>1.3797831735559201</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>0.99944100504258637</v>
+      </c>
+      <c r="E127">
+        <v>1.7619312170085619</v>
+      </c>
+      <c r="F127">
+        <v>0.40413443674142979</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>0.99821860953198749</v>
+      </c>
+      <c r="E128">
+        <v>1.3156510850811109</v>
+      </c>
+      <c r="F128">
+        <v>0.30139118843469659</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>0.99677300095868038</v>
+      </c>
+      <c r="E129">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="F129">
+        <v>0.14160239696502691</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130">
+        <v>0.9987063491902145</v>
+      </c>
+      <c r="E130">
+        <v>1.200000007731314</v>
+      </c>
+      <c r="F130">
+        <v>0.5000000011744492</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131">
+        <v>0.99703963047067223</v>
+      </c>
+      <c r="E131">
+        <v>1.713177600682128</v>
+      </c>
+      <c r="F131">
+        <v>0.65254655815186124</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>0.99635521871378163</v>
+      </c>
+      <c r="E132">
+        <v>1.015168487516775</v>
+      </c>
+      <c r="F132">
+        <v>0.48304800530045722</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>0.99592645750850661</v>
+      </c>
+      <c r="E133">
+        <v>0.34005101506077751</v>
+      </c>
+      <c r="F133">
+        <v>7.9067951528317332E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>0.995736604632248</v>
+      </c>
+      <c r="E134">
+        <v>0.34000000357627858</v>
+      </c>
+      <c r="F134">
+        <v>8.5211984813213348E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DatenfürDoku.xlsx
+++ b/DatenfürDoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\SS2024\Energiesysteme\Power\Netzsimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1300AE77-E542-4F44-97E0-64963C0B450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6C7877-B65C-4A9F-AE4C-5FDF886A62CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
   <si>
     <t>T1</t>
   </si>
@@ -176,12 +176,24 @@
   <si>
     <t>T7Prea Load 8</t>
   </si>
+  <si>
+    <t>T7Umag</t>
+  </si>
+  <si>
+    <t>T8Umag</t>
+  </si>
+  <si>
+    <t>T7Uang</t>
+  </si>
+  <si>
+    <t>T8Uang</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +207,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -241,15 +258,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -15530,21 +15565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:Z134"/>
+  <dimension ref="C2:AN134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R131" sqref="R131"/>
+    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
@@ -15748,6 +15775,41 @@
         <v>0.48368298402748278</v>
       </c>
     </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1.200000047683716</v>
+      </c>
+      <c r="E18">
+        <v>0.340052614225545</v>
+      </c>
+      <c r="F18">
+        <v>0.34000000357627869</v>
+      </c>
+      <c r="G18">
+        <v>1.2057662120292809</v>
+      </c>
+      <c r="H18">
+        <v>4.8028770194650239</v>
+      </c>
+      <c r="I18">
+        <v>1.7619809582748029</v>
+      </c>
+      <c r="J18">
+        <v>1.3156678721234769</v>
+      </c>
+      <c r="K18">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="L18">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="M18">
+        <v>2.2967793011996021</v>
+      </c>
+      <c r="N18">
+        <v>1.0151738126550729</v>
+      </c>
+    </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>37</v>
@@ -17332,7 +17394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
@@ -17349,7 +17411,7 @@
         <v>0.35000044107437128</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
@@ -17366,7 +17428,7 @@
         <v>0.30890314353497528</v>
       </c>
     </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
@@ -17383,7 +17445,7 @@
         <v>1.8971676328815981</v>
       </c>
     </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
@@ -17400,7 +17462,7 @@
         <v>0.40631099028413248</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
@@ -17417,7 +17479,7 @@
         <v>0.30292790861817981</v>
       </c>
     </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
@@ -17434,7 +17496,7 @@
         <v>0.14160239696502691</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
@@ -17451,7 +17513,7 @@
         <v>0.3749452531337738</v>
       </c>
     </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
@@ -17468,7 +17530,7 @@
         <v>0.99538381930907649</v>
       </c>
     </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
@@ -17485,7 +17547,7 @@
         <v>0.48425370503612991</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
@@ -17502,7 +17564,7 @@
         <v>7.9429670677900577E-2</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C59" s="1" t="s">
         <v>10</v>
       </c>
@@ -17519,7 +17581,7 @@
         <v>8.5211984813213293E-2</v>
       </c>
     </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
         <v>40</v>
       </c>
@@ -17590,8 +17652,20 @@
       <c r="Z64" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="AJ64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK64" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN64" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C65" s="3">
         <v>1</v>
       </c>
@@ -17661,8 +17735,20 @@
       <c r="Z65">
         <v>8.5211984813213348E-2</v>
       </c>
+      <c r="AJ65">
+        <v>0.96554206783885599</v>
+      </c>
+      <c r="AK65">
+        <v>146.89281631307051</v>
+      </c>
+      <c r="AM65">
+        <v>0.96798673989152106</v>
+      </c>
+      <c r="AN65">
+        <v>146.9579700610108</v>
+      </c>
     </row>
-    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C66" s="1">
         <v>2</v>
       </c>
@@ -17732,8 +17818,20 @@
       <c r="Z66">
         <v>8.5211984813213348E-2</v>
       </c>
+      <c r="AJ66">
+        <v>0.96546774773792754</v>
+      </c>
+      <c r="AK66">
+        <v>146.88866243032521</v>
+      </c>
+      <c r="AM66">
+        <v>0.96793100824120193</v>
+      </c>
+      <c r="AN66">
+        <v>146.95429175979709</v>
+      </c>
     </row>
-    <row r="67" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
         <v>3</v>
       </c>
@@ -17803,8 +17901,20 @@
       <c r="Z67">
         <v>8.5211984813213348E-2</v>
       </c>
+      <c r="AJ67">
+        <v>0.96539341083492181</v>
+      </c>
+      <c r="AK67">
+        <v>146.88450791303319</v>
+      </c>
+      <c r="AM67">
+        <v>0.96787526263242585</v>
+      </c>
+      <c r="AN67">
+        <v>146.95061294259841</v>
+      </c>
     </row>
-    <row r="68" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C68" s="1">
         <v>4</v>
       </c>
@@ -17874,8 +17984,20 @@
       <c r="Z68">
         <v>8.5211984813213348E-2</v>
       </c>
+      <c r="AJ68">
+        <v>0.96531905320794875</v>
+      </c>
+      <c r="AK68">
+        <v>146.88035267102501</v>
+      </c>
+      <c r="AM68">
+        <v>0.96781949996750383</v>
+      </c>
+      <c r="AN68">
+        <v>146.9469335187103</v>
+      </c>
     </row>
-    <row r="69" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
         <v>5</v>
       </c>
@@ -17945,8 +18067,20 @@
       <c r="Z69">
         <v>8.5211984813213404E-2</v>
       </c>
+      <c r="AJ69">
+        <v>0.96524468207053848</v>
+      </c>
+      <c r="AK69">
+        <v>146.8761967589773</v>
+      </c>
+      <c r="AM69">
+        <v>0.96776372607711503</v>
+      </c>
+      <c r="AN69">
+        <v>146.9432535660475</v>
+      </c>
     </row>
-    <row r="71" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C71" s="2" t="s">
         <v>41</v>
       </c>
@@ -18017,8 +18151,20 @@
       <c r="Z71" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="AJ71">
+        <v>0.96558645131873766</v>
+      </c>
+      <c r="AK71">
+        <v>146.8931857945488</v>
+      </c>
+      <c r="AM71">
+        <v>0.96801261616077749</v>
+      </c>
+      <c r="AN71">
+        <v>146.95786797810339</v>
+      </c>
     </row>
-    <row r="72" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C72" s="3">
         <v>1</v>
       </c>
@@ -18088,8 +18234,20 @@
       <c r="Z72">
         <v>8.5211984813213321E-2</v>
       </c>
+      <c r="AJ72">
+        <v>0.96555652490587007</v>
+      </c>
+      <c r="AK72">
+        <v>146.88940183314321</v>
+      </c>
+      <c r="AM72">
+        <v>0.9679827678170414</v>
+      </c>
+      <c r="AN72">
+        <v>146.95408789857939</v>
+      </c>
     </row>
-    <row r="73" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C73" s="1">
         <v>2</v>
       </c>
@@ -18159,8 +18317,20 @@
       <c r="Z73">
         <v>8.5211984813213376E-2</v>
       </c>
+      <c r="AJ73">
+        <v>0.96552659154544762</v>
+      </c>
+      <c r="AK73">
+        <v>146.8856176590119</v>
+      </c>
+      <c r="AM73">
+        <v>0.9679529125486237</v>
+      </c>
+      <c r="AN73">
+        <v>146.95030760759121</v>
+      </c>
     </row>
-    <row r="74" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
         <v>3</v>
       </c>
@@ -18230,8 +18400,20 @@
       <c r="Z74">
         <v>8.5211984813213348E-2</v>
       </c>
+      <c r="AJ74">
+        <v>0.96549665204652135</v>
+      </c>
+      <c r="AK74">
+        <v>146.88183316478541</v>
+      </c>
+      <c r="AM74">
+        <v>0.96792305116246791</v>
+      </c>
+      <c r="AN74">
+        <v>146.94652699766471</v>
+      </c>
     </row>
-    <row r="75" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
         <v>4</v>
       </c>
@@ -18301,8 +18483,20 @@
       <c r="Z75">
         <v>8.5211984813213348E-2</v>
       </c>
+      <c r="AJ75">
+        <v>0.96546670788640898</v>
+      </c>
+      <c r="AK75">
+        <v>146.8780484476176</v>
+      </c>
+      <c r="AM75">
+        <v>0.96789318513204059</v>
+      </c>
+      <c r="AN75">
+        <v>146.94274616576249</v>
+      </c>
     </row>
-    <row r="76" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C76" s="1">
         <v>5</v>
       </c>
@@ -18541,6 +18735,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DatenfürDoku.xlsx
+++ b/DatenfürDoku.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\SS2024\Energiesysteme\Power\Netzsimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6C7877-B65C-4A9F-AE4C-5FDF886A62CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE6A7DF-70A9-45CE-B275-40F09F920C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t>T1</t>
   </si>
@@ -187,6 +198,24 @@
   </si>
   <si>
     <t>T8Uang</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>load 3 max</t>
+  </si>
+  <si>
+    <t>Load 4 max</t>
+  </si>
+  <si>
+    <t>Delta Load 3</t>
+  </si>
+  <si>
+    <t>Delta Load 4</t>
   </si>
 </sst>
 </file>
@@ -2748,11 +2777,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$F$2</c:f>
+              <c:f>Tabelle1!$E$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Active Power</c:v>
+                  <c:v>Wind</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2810,42 +2839,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$124:$F$134</c:f>
+              <c:f>Tabelle1!$E$124:$E$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.35000044107437128</c:v>
+                  <c:v>1.200000047683716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30572740418127931</c:v>
+                  <c:v>1.205622797699325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3797831735559201</c:v>
+                  <c:v>6.0476786856907152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40413443674142979</c:v>
+                  <c:v>1.7619312170085619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30139118843469659</c:v>
+                  <c:v>1.3156510850811109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14160239696502691</c:v>
+                  <c:v>0.56499999761581421</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5000000011744492</c:v>
+                  <c:v>1.200000007731314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65254655815186124</c:v>
+                  <c:v>1.713177600682128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48304800530045722</c:v>
+                  <c:v>1.015168487516775</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9067951528317332E-2</c:v>
+                  <c:v>0.34005101506077751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.5211984813213348E-2</c:v>
+                  <c:v>0.34000000357627858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,11 +3132,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$F$2</c:f>
+              <c:f>Tabelle1!$F$123</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Active Power</c:v>
+                  <c:v>Reactive power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3358,6 +3387,1978 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Active</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Power</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.200000047683716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.340052614225545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34000000357627869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2057662120292809</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8028770194650239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7619809582748029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3156678721234769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56499999761581421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60500001907348633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2967793011996021</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0151738126550729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDC6-4C96-8236-38D9B6E9435D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wind</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$C$124:$C$134</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$E$124:$E$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.200000047683716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.205622797699325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0476786856907152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7619312170085619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3156510850811109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56499999761581421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.200000007731314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.713177600682128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.015168487516775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34005101506077751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34000000357627858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDC6-4C96-8236-38D9B6E9435D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="80155488"/>
+        <c:axId val="80164128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80155488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Buses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80164128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80164128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Active Power</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> [MW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80155488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Magnitude</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AF$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AE$91:$AE$101</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AF$91:$AF$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.97307412939293381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97912692662878154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98813576310605755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98601314146478169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98459754382963294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98264855455899125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98257255078449257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98441969274675134</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98421538570980849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98495709602238002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98526896283659826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4225-499E-9CE7-569C41139835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AG$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>load 3 max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AE$91:$AE$101</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AG$91:$AG$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.97251857427013744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97857499372056422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98758989429305566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98580502106210888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98436537575995742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98235096955809742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98226486358805831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98404237597122024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98386620847209949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98467612772384505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98501726037380066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4225-499E-9CE7-569C41139835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AH$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load 4 max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AE$91:$AE$101</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AH$91:$AH$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.97258370341827627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97863969801838968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98765388734444337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98583074437086449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98439382597648295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98238684312944602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98230188381775008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9840872888267721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98390792943663108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98471011077178372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98504792458466783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4225-499E-9CE7-569C41139835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1573719392"/>
+        <c:axId val="1573719872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1573719392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Buses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1573719872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1573719872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t> [p.u.]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1573719392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Max</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> Load - Base value</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AF$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delta Load 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AE$105:$AE$115</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AF$105:$AF$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-5.5555512279636954E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.5193290821731189E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.4586881300189294E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0812040267281784E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.3216806967552017E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.9758500089382967E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.0768719643425868E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.7731677553110021E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.4917723770899745E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.8096829853496708E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.5170246279759834E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBB6-4DE9-9282-A9863D978EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AG$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delta Load 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AE$105:$AE$115</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>T5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>T6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>T8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>T9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>T10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>T11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AG$105:$AG$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-4.904259746575379E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.8722861039185439E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8187576161418111E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8239709391720815E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0371785314998725E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.6171142954523052E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7066696674249435E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.3240391997924057E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.0745627317740887E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.4698525059629883E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.210382519304277E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBB6-4DE9-9282-A9863D978EDD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1544010048"/>
+        <c:axId val="1543995168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1544010048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Buses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1543995168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1543995168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> [p.u.]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1544010048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3817,7 +5818,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Active Power</c:v>
+                  <c:v>Base</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4527,7 +6528,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Active Power</c:v>
+                  <c:v>Base</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6723,6 +8724,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10597,6 +12718,1528 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -15225,16 +18868,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>181332</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>90667</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394245</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>1020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>36600</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>166867</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>249512</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>77220</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15263,16 +18906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>87758</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>93867</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>255845</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>149897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>80704</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>155500</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>248792</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>21030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15294,6 +18937,116 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6C0B85-2046-483A-BC2D-C65F80A1BDFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>248209</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>270621</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38659</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Diagramm 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E8B341-2FFC-AE5F-7054-DC5915C71E7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Diagramm 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCB5F9E-4BA3-C52E-1185-4EB65CC983B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15567,11 +19320,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AN134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
+    <sheetView tabSelected="1" topLeftCell="U83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ102" sqref="AJ102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
@@ -15582,7 +19338,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>14</v>
@@ -18567,18 +22323,334 @@
         <v>8.5211984813213321E-2</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AF90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE91" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0.97307412939293381</v>
+      </c>
+      <c r="AG91">
+        <v>0.97251857427013744</v>
+      </c>
+      <c r="AH91">
+        <v>0.97258370341827627</v>
+      </c>
+    </row>
+    <row r="92" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE92" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF92">
+        <v>0.97912692662878154</v>
+      </c>
+      <c r="AG92">
+        <v>0.97857499372056422</v>
+      </c>
+      <c r="AH92">
+        <v>0.97863969801838968</v>
+      </c>
+    </row>
+    <row r="93" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF93">
+        <v>0.98813576310605755</v>
+      </c>
+      <c r="AG93">
+        <v>0.98758989429305566</v>
+      </c>
+      <c r="AH93">
+        <v>0.98765388734444337</v>
+      </c>
+    </row>
+    <row r="94" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF94">
+        <v>0.98601314146478169</v>
+      </c>
+      <c r="AG94">
+        <v>0.98580502106210888</v>
+      </c>
+      <c r="AH94">
+        <v>0.98583074437086449</v>
+      </c>
+    </row>
+    <row r="95" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE95" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF95">
+        <v>0.98459754382963294</v>
+      </c>
+      <c r="AG95">
+        <v>0.98436537575995742</v>
+      </c>
+      <c r="AH95">
+        <v>0.98439382597648295</v>
+      </c>
+    </row>
+    <row r="96" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE96" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF96">
+        <v>0.98264855455899125</v>
+      </c>
+      <c r="AG96">
+        <v>0.98235096955809742</v>
+      </c>
+      <c r="AH96">
+        <v>0.98238684312944602</v>
+      </c>
+    </row>
+    <row r="97" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF97">
+        <v>0.98257255078449257</v>
+      </c>
+      <c r="AG97">
+        <v>0.98226486358805831</v>
+      </c>
+      <c r="AH97">
+        <v>0.98230188381775008</v>
+      </c>
+    </row>
+    <row r="98" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF98">
+        <v>0.98441969274675134</v>
+      </c>
+      <c r="AG98">
+        <v>0.98404237597122024</v>
+      </c>
+      <c r="AH98">
+        <v>0.9840872888267721</v>
+      </c>
+    </row>
+    <row r="99" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF99">
+        <v>0.98421538570980849</v>
+      </c>
+      <c r="AG99">
+        <v>0.98386620847209949</v>
+      </c>
+      <c r="AH99">
+        <v>0.98390792943663108</v>
+      </c>
+    </row>
+    <row r="100" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF100">
+        <v>0.98495709602238002</v>
+      </c>
+      <c r="AG100">
+        <v>0.98467612772384505</v>
+      </c>
+      <c r="AH100">
+        <v>0.98471011077178372</v>
+      </c>
+    </row>
+    <row r="101" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF101">
+        <v>0.98526896283659826</v>
+      </c>
+      <c r="AG101">
+        <v>0.98501726037380066</v>
+      </c>
+      <c r="AH101">
+        <v>0.98504792458466783</v>
+      </c>
+    </row>
+    <row r="104" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AF104" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE105" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <f>-AF91+AG91</f>
+        <v>-5.5555512279636954E-4</v>
+      </c>
+      <c r="AG105">
+        <f>-AF91+AH91</f>
+        <v>-4.904259746575379E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF106">
+        <f>-AF92+AG92</f>
+        <v>-5.5193290821731189E-4</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" ref="AG106:AG115" si="0">-AF92+AH92</f>
+        <v>-4.8722861039185439E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" ref="AF107:AF115" si="1">-AF93+AG93</f>
+        <v>-5.4586881300189294E-4</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="0"/>
+        <v>-4.8187576161418111E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF108">
+        <f t="shared" si="1"/>
+        <v>-2.0812040267281784E-4</v>
+      </c>
+      <c r="AG108">
+        <f t="shared" si="0"/>
+        <v>-1.8239709391720815E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF109">
+        <f t="shared" si="1"/>
+        <v>-2.3216806967552017E-4</v>
+      </c>
+      <c r="AG109">
+        <f t="shared" si="0"/>
+        <v>-2.0371785314998725E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE110" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF110">
+        <f t="shared" si="1"/>
+        <v>-2.9758500089382967E-4</v>
+      </c>
+      <c r="AG110">
+        <f t="shared" si="0"/>
+        <v>-2.6171142954523052E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF111">
+        <f t="shared" si="1"/>
+        <v>-3.0768719643425868E-4</v>
+      </c>
+      <c r="AG111">
+        <f t="shared" si="0"/>
+        <v>-2.7066696674249435E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="31:34" x14ac:dyDescent="0.25">
+      <c r="AE112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF112">
+        <f t="shared" si="1"/>
+        <v>-3.7731677553110021E-4</v>
+      </c>
+      <c r="AG112">
+        <f t="shared" si="0"/>
+        <v>-3.3240391997924057E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AE113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF113">
+        <f t="shared" si="1"/>
+        <v>-3.4917723770899745E-4</v>
+      </c>
+      <c r="AG113">
+        <f t="shared" si="0"/>
+        <v>-3.0745627317740887E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AE114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF114">
+        <f t="shared" si="1"/>
+        <v>-2.8096829853496708E-4</v>
+      </c>
+      <c r="AG114">
+        <f t="shared" si="0"/>
+        <v>-2.4698525059629883E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AE115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF115">
+        <f t="shared" si="1"/>
+        <v>-2.5170246279759834E-4</v>
+      </c>
+      <c r="AG115">
+        <f t="shared" si="0"/>
+        <v>-2.210382519304277E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="3:33" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>0</v>
       </c>
@@ -18592,7 +22664,7 @@
         <v>0.35000044107437128</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>1</v>
       </c>
@@ -18606,7 +22678,7 @@
         <v>0.30572740418127931</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>2</v>
       </c>
@@ -18620,7 +22692,7 @@
         <v>1.3797831735559201</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>3</v>
       </c>
@@ -18634,7 +22706,7 @@
         <v>0.40413443674142979</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>4</v>
       </c>
